--- a/results/final_results_general.xlsx
+++ b/results/final_results_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/Horse Project/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2317DAC-3BAE-3244-87A4-B648E0AF68ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276904B7-4E62-4C47-BB6F-F2971B549831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pose" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="101">
   <si>
     <t>Hopenet</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Formula with median</t>
+  </si>
+  <si>
+    <t>Sheep + 0.5 new formula data aug (propotional for pitch and roll)</t>
   </si>
 </sst>
 </file>
@@ -591,19 +594,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,31 +640,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -960,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A46036E-CB54-2C42-A95C-97C5483F5007}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,38 +975,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1244,11 +1247,9 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1269,11 +1270,12 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1308,11 +1310,22 @@
         <f>AVERAGE(G12:I12)</f>
         <v>22.666666666666668</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13">
+        <v>15</v>
+      </c>
+      <c r="M12" s="13">
+        <v>34</v>
+      </c>
+      <c r="N12" s="13">
+        <v>11</v>
+      </c>
+      <c r="O12" s="29">
+        <f>AVERAGE(L12:N12)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1347,11 +1360,22 @@
         <f>AVERAGE(G13:I13)</f>
         <v>13.812566666666667</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="27">
+        <v>13.84</v>
+      </c>
+      <c r="M13" s="27">
+        <v>11.142099999999999</v>
+      </c>
+      <c r="N13" s="27">
+        <v>17.186900000000001</v>
+      </c>
+      <c r="O13" s="25">
+        <f>AVERAGE(L13:N13)</f>
+        <v>14.056333333333333</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1386,11 +1410,22 @@
         <f>AVERAGE(G14:I14)</f>
         <v>11.5358</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="27">
+        <v>12.22</v>
+      </c>
+      <c r="M14" s="27">
+        <v>12.486000000000001</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10.801600000000001</v>
+      </c>
+      <c r="O14" s="25">
+        <f>AVERAGE(L14:N14)</f>
+        <v>11.835866666666668</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1425,45 +1460,56 @@
         <f>AVERAGE(G15:I15)</f>
         <v>8.9565333333333346</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="27">
+        <v>9.3988999999999994</v>
+      </c>
+      <c r="M15" s="27">
+        <v>9.7456999999999994</v>
+      </c>
+      <c r="N15" s="27">
+        <v>8.5213999999999999</v>
+      </c>
+      <c r="O15" s="25">
+        <f>AVERAGE(L15:N15)</f>
+        <v>9.2219999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1675,7 +1721,7 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
@@ -1778,91 +1824,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="S3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="J4" s="50" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
       <c r="T4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1933,25 +1979,25 @@
       <c r="B6" s="1">
         <v>7.4242327387638293E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <f>AVERAGE(B6:B8)</f>
         <v>7.2516394779870999E-2</v>
       </c>
       <c r="D6" s="1">
         <v>6.1696994372274397E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <f>AVERAGE(D6:D8)</f>
         <v>6.5930201131281729E-2</v>
       </c>
       <c r="F6" s="1">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <f>AVERAGE(F6:F8)</f>
         <v>7.2886942724262813E-2</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="53">
         <f>($W$23*C6+$W$24*E6+$W$25*G6)/(SUM($W$23:$W$25))</f>
         <v>6.883485080431552E-2</v>
       </c>
@@ -1961,25 +2007,25 @@
       <c r="K6" s="1">
         <v>7.3257090143794099E-2</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="45">
         <f>MEDIAN(K6:K8)</f>
         <v>7.3257090143794099E-2</v>
       </c>
       <c r="M6" s="1">
         <v>6.0717728591802501E-2</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="45">
         <f>MEDIAN(M6:M8)</f>
         <v>6.0717728591802501E-2</v>
       </c>
       <c r="O6" s="1">
         <v>8.8653346922190901E-2</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="45">
         <f>MEDIAN(O6:O8)</f>
         <v>7.8717723527882505E-2</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="53">
         <f>($W$23*L6+$W$24*N6+$W$25*P6)/(SUM($W$23:$W$25))</f>
         <v>6.7237997700526811E-2</v>
       </c>
@@ -2004,30 +2050,30 @@
       <c r="B7" s="1">
         <v>6.9446403885711994E-2</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1">
         <v>5.9450284371242099E-2</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="1">
         <v>7.7228516504569605E-2</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="51"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="53"/>
       <c r="J7" s="22"/>
       <c r="K7" s="1">
         <v>7.0553584743528894E-2</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="1">
         <v>5.9046912536127198E-2</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="1">
         <v>7.8717723527882505E-2</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="51"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="53"/>
       <c r="S7" t="s">
         <v>40</v>
       </c>
@@ -2049,30 +2095,30 @@
       <c r="B8" s="1">
         <v>7.3860453066262696E-2</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1">
         <v>7.6643324650328706E-2</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="1">
         <v>6.7878392288932707E-2</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="51"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="53"/>
       <c r="J8" s="22"/>
       <c r="K8" s="1">
         <v>7.48587436488998E-2</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="1">
         <v>7.3918262792254302E-2</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="1">
         <v>7.38878226967003E-2</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="51"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="53"/>
       <c r="S8" t="s">
         <v>41</v>
       </c>
@@ -2096,25 +2142,25 @@
       <c r="B9" s="1">
         <v>7.1497860283077599E-2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <f>AVERAGE(B9:B11)</f>
         <v>7.0446168916473997E-2</v>
       </c>
       <c r="D9" s="1">
         <v>5.9349428534691002E-2</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <f>AVERAGE(D9:D11)</f>
         <v>6.3689579180170805E-2</v>
       </c>
       <c r="F9" s="1">
         <v>8.3560462216687698E-2</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <f>AVERAGE(F9:F11)</f>
         <v>7.332788940671893E-2</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="53">
         <f>($W$23*C9+$W$24*E9+$W$25*G9)/(SUM($W$23:$W$25))</f>
         <v>6.719027287084553E-2</v>
       </c>
@@ -2124,25 +2170,25 @@
       <c r="K9" s="1">
         <v>6.9393627994051105E-2</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="45">
         <f>MEDIAN(K9:K11)</f>
         <v>6.9567079570668794E-2</v>
       </c>
       <c r="M9" s="1">
         <v>6.0177999656592797E-2</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="45">
         <f>MEDIAN(M9:M11)</f>
         <v>6.0177999656592797E-2</v>
       </c>
       <c r="O9" s="1">
         <v>8.8443218396520598E-2</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="45">
         <f>MEDIAN(O9:O11)</f>
         <v>8.1712911887184297E-2</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="53">
         <f>($W$23*L9+$W$24*N9+$W$25*P9)/(SUM($W$23:$W$25))</f>
         <v>6.6737867942681356E-2</v>
       </c>
@@ -2152,66 +2198,66 @@
       <c r="B10" s="1">
         <v>6.7785441472090202E-2</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1">
         <v>5.8160575031858203E-2</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="1">
         <v>7.3461217334773302E-2</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="53"/>
       <c r="J10" s="22"/>
       <c r="K10" s="1">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="1">
         <v>5.7773532681844798E-2</v>
       </c>
-      <c r="N10" s="46"/>
+      <c r="N10" s="45"/>
       <c r="O10" s="1">
         <v>8.1712911887184297E-2</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="51"/>
-      <c r="S10" s="48" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="53"/>
+      <c r="S10" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="1">
         <v>7.2055204994254204E-2</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1">
         <v>7.3558733973963203E-2</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="1">
         <v>6.2961988668695804E-2</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="53"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="1">
         <v>7.28517551872397E-2</v>
       </c>
-      <c r="N11" s="46"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="1">
         <v>6.8611490882056494E-2</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="51"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="53"/>
       <c r="T11" s="14" t="s">
         <v>13</v>
       </c>
@@ -2229,25 +2275,25 @@
       <c r="B12" s="1">
         <v>6.8635828291996298E-2</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <f>AVERAGE(B12:B14)</f>
         <v>6.9421797639299634E-2</v>
       </c>
       <c r="D12" s="1">
         <v>5.9744135075925499E-2</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <f>AVERAGE(D12:D14)</f>
         <v>6.3787330498516662E-2</v>
       </c>
       <c r="F12" s="1">
         <v>8.0799485610991206E-2</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <f>AVERAGE(F12:F14)</f>
         <v>7.1930676177847139E-2</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="53">
         <f>($W$23*C12+$W$24*E12+$W$25*G12)/(SUM($W$23:$W$25))</f>
         <v>6.6728654853614608E-2</v>
       </c>
@@ -2257,25 +2303,25 @@
       <c r="K12" s="1">
         <v>7.0837146146167498E-2</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <f>MEDIAN(K12:K14)</f>
         <v>6.8346677336347805E-2</v>
       </c>
       <c r="M12" s="1">
         <v>5.96260758245062E-2</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="45">
         <f>MEDIAN(M12:M14)</f>
         <v>5.96260758245062E-2</v>
       </c>
       <c r="O12" s="1">
         <v>8.4834733054653999E-2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="45">
         <f>MEDIAN(O12:O14)</f>
         <v>7.7103854147694606E-2</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="53">
         <f>($W$23*L12+$W$24*N12+$W$25*P12)/(SUM($W$23:$W$25))</f>
         <v>6.5193355449690363E-2</v>
       </c>
@@ -2300,30 +2346,30 @@
       <c r="B13" s="1">
         <v>6.7532651859739001E-2</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1">
         <v>5.8063937040338402E-2</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1">
         <v>7.1556499938398493E-2</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="53"/>
       <c r="J13" s="22"/>
       <c r="K13" s="1">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="1">
         <v>5.8238875439599401E-2</v>
       </c>
-      <c r="N13" s="46"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="1">
         <v>7.7103854147694606E-2</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="51"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="53"/>
       <c r="S13" t="s">
         <v>39</v>
       </c>
@@ -2345,30 +2391,30 @@
       <c r="B14" s="1">
         <v>7.2096912766163604E-2</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="1">
         <v>6.3436042984151703E-2</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="53"/>
       <c r="J14" s="22"/>
       <c r="K14" s="1">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="1">
         <v>7.2202265989597197E-2</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="1">
         <v>6.5887080057770303E-2</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="51"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="53"/>
       <c r="S14" t="s">
         <v>40</v>
       </c>
@@ -2392,25 +2438,25 @@
       <c r="B15" s="11">
         <v>6.8018153232609693E-2</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <f>AVERAGE(B15:B17)</f>
         <v>6.8245163277658033E-2</v>
       </c>
       <c r="D15" s="11">
         <v>5.6742045286177198E-2</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <f>AVERAGE(D15:D17)</f>
         <v>6.1588040296811232E-2</v>
       </c>
       <c r="F15" s="11">
         <v>8.0371040183020395E-2</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <f>AVERAGE(F15:F17)</f>
         <v>7.1443284137181803E-2</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="53">
         <f>($W$23*C15+$W$24*E15+$W$25*G15)/(SUM($W$23:$W$25))</f>
         <v>6.5111915174504917E-2</v>
       </c>
@@ -2420,25 +2466,25 @@
       <c r="K15" s="11">
         <v>7.1379124139467398E-2</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <f>MEDIAN(K15:K17)</f>
         <v>7.1379124139467398E-2</v>
       </c>
       <c r="M15" s="11">
         <v>5.7886575281730801E-2</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="45">
         <f>MEDIAN(M15:M17)</f>
         <v>5.7886575281730801E-2</v>
       </c>
       <c r="O15" s="11">
         <v>8.7422888426353498E-2</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="45">
         <f>MEDIAN(O15:O17)</f>
         <v>7.6267651032206202E-2</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="53">
         <f>($W$23*L15+$W$24*N15+$W$25*P15)/(SUM($W$23:$W$25))</f>
         <v>6.4696925763874383E-2</v>
       </c>
@@ -2463,60 +2509,60 @@
       <c r="B16" s="11">
         <v>6.7058986223676606E-2</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="11">
         <v>5.6710587697820301E-2</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="11">
         <v>7.0830775711056101E-2</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="53"/>
       <c r="J16" s="3"/>
       <c r="K16" s="11">
         <v>6.7365718630171698E-2</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="11">
         <v>5.65006276602407E-2</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="11">
         <v>7.6267651032206202E-2</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="51"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="53"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="11">
         <v>6.96583503766878E-2</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="11">
         <v>7.1311487906436197E-2</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="11">
         <v>6.31280365174689E-2</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="53"/>
       <c r="J17" s="3"/>
       <c r="K17" s="11">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L17" s="46"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="11">
         <v>7.19986148306693E-2</v>
       </c>
-      <c r="N17" s="46"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="11">
         <v>6.7533900880955899E-2</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="51"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2525,25 +2571,25 @@
       <c r="B18" s="11">
         <v>6.8172071750927404E-2</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <f>AVERAGE(B18:B20)</f>
         <v>6.7709742313551161E-2</v>
       </c>
       <c r="D18" s="11">
         <v>5.7708708211640203E-2</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <f>AVERAGE(D18:D20)</f>
         <v>6.1429161048441171E-2</v>
       </c>
       <c r="F18" s="11">
         <v>7.9069769694414593E-2</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="45">
         <f>AVERAGE(F18:F20)</f>
         <v>7.1008744388667333E-2</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="53">
         <f>($W$23*C18+$W$24*E18+$W$25*G18)/(SUM($W$23:$W$25))</f>
         <v>6.4812390455530569E-2</v>
       </c>
@@ -2553,25 +2599,25 @@
       <c r="K18" s="11">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="45">
         <f>MEDIAN(K18:K20)</f>
         <v>7.1658949142852799E-2</v>
       </c>
       <c r="M18" s="11">
         <v>5.76888327677514E-2</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="45">
         <f>MEDIAN(M18:M20)</f>
         <v>5.76888327677514E-2</v>
       </c>
       <c r="O18" s="11">
         <v>8.6255822033710905E-2</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="45">
         <f>MEDIAN(O18:O20)</f>
         <v>7.53138680040491E-2</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="53">
         <f>($W$23*L18+$W$24*N18+$W$25*P18)/(SUM($W$23:$W$25))</f>
         <v>6.4447336270062036E-2</v>
       </c>
@@ -2581,60 +2627,60 @@
       <c r="B19" s="11">
         <v>6.5504229927947494E-2</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="11">
         <v>5.5397693556751101E-2</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="11">
         <v>7.0367067541821898E-2</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="53"/>
       <c r="J19" s="3"/>
       <c r="K19" s="11">
         <v>6.5486319201291499E-2</v>
       </c>
-      <c r="L19" s="46"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="11">
         <v>5.7002339182413403E-2</v>
       </c>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="11">
         <v>7.53138680040491E-2</v>
       </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="51"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="53"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="11">
         <v>6.9452925261778597E-2</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="11">
         <v>7.1181081376932201E-2</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="11">
         <v>6.3589395929765494E-2</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="53"/>
       <c r="J20" s="3"/>
       <c r="K20" s="11">
         <v>7.1861082574962404E-2</v>
       </c>
-      <c r="L20" s="46"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="11">
         <v>6.9973277500664802E-2</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="11">
         <v>6.2241632843124603E-2</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="51"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2643,25 +2689,25 @@
       <c r="B21" s="1">
         <v>6.7672302749483396E-2</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <f>AVERAGE(B21:B23)</f>
         <v>6.7092309798615538E-2</v>
       </c>
       <c r="D21" s="11">
         <v>5.6805382344526402E-2</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <f>AVERAGE(D21:D23)</f>
         <v>6.1138207157364004E-2</v>
       </c>
       <c r="F21" s="11">
         <v>7.8982865655960299E-2</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="45">
         <f>AVERAGE(F21:F23)</f>
         <v>6.8806777992149473E-2</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="53">
         <f>($W$23*C21+$W$24*E21+$W$25*G21)/(SUM($W$23:$W$25))</f>
         <v>6.405133585856003E-2</v>
       </c>
@@ -2671,25 +2717,25 @@
       <c r="K21" s="1">
         <v>6.6462238546876204E-2</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="54">
         <f>MEDIAN(K21:K23)</f>
         <v>6.6462238546876204E-2</v>
       </c>
       <c r="M21" s="11">
         <v>5.7014040575380003E-2</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="45">
         <f>MEDIAN(M21:M23)</f>
         <v>5.7014040575380003E-2</v>
       </c>
       <c r="O21" s="11">
         <v>8.6553946310278296E-2</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="45">
         <f>MEDIAN(O21:O23)</f>
         <v>7.5242262511045294E-2</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="53">
         <f>($W$23*L21+$W$24*N21+$W$25*P21)/(SUM($W$23:$W$25))</f>
         <v>6.2898439038972714E-2</v>
       </c>
@@ -2699,30 +2745,30 @@
       <c r="B22" s="1">
         <v>6.5652320155280802E-2</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="11">
         <v>5.4935696648041703E-2</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="11">
         <v>6.8325855507745503E-2</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="53"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1">
         <v>6.6204919313017696E-2</v>
       </c>
-      <c r="L22" s="47"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="11">
         <v>5.61563383079038E-2</v>
       </c>
-      <c r="N22" s="46"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="11">
         <v>7.5242262511045294E-2</v>
       </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="51"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="53"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
         <v>31</v>
@@ -2742,30 +2788,30 @@
       <c r="B23" s="1">
         <v>6.7952306491082401E-2</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="11">
         <v>7.16735424795239E-2</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="11">
         <v>5.9111612812742603E-2</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="53"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1">
         <v>7.0486874797991705E-2</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="11">
         <v>6.9927472235196506E-2</v>
       </c>
-      <c r="N23" s="46"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="11">
         <v>6.1573666728630599E-2</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="51"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="53"/>
       <c r="S23" t="s">
         <v>13</v>
       </c>
@@ -2791,25 +2837,25 @@
       <c r="B24" s="11">
         <v>6.5480329197946996E-2</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="54">
         <f>AVERAGE(B24:B26)</f>
         <v>6.628938904341497E-2</v>
       </c>
       <c r="D24" s="11">
         <v>5.6733444435602499E-2</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <f>AVERAGE(D24:D26)</f>
         <v>6.1258054748319336E-2</v>
       </c>
       <c r="F24" s="11">
         <v>7.6497532596067896E-2</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="45">
         <f>AVERAGE(F24:F26)</f>
         <v>6.7999791647574359E-2</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="53">
         <f>($W$23*C24+$W$24*E24+$W$25*G24)/(SUM($W$23:$W$25))</f>
         <v>6.3774186980241912E-2</v>
       </c>
@@ -2819,25 +2865,25 @@
       <c r="K24" s="11">
         <v>6.7789870614468006E-2</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="45">
         <f>MEDIAN(K24:K26)</f>
         <v>6.7789870614468006E-2</v>
       </c>
       <c r="M24" s="11">
         <v>5.6230371687358803E-2</v>
       </c>
-      <c r="N24" s="47">
+      <c r="N24" s="54">
         <f>MEDIAN(M24:M26)</f>
         <v>5.6230371687358803E-2</v>
       </c>
       <c r="O24" s="11">
         <v>8.3472339764663797E-2</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="54">
         <f>MEDIAN(O24:O26)</f>
         <v>7.3496751045362005E-2</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="53">
         <f>($W$23*L24+$W$24*N24+$W$25*P24)/(SUM($W$23:$W$25))</f>
         <v>6.2381255069697231E-2</v>
       </c>
@@ -2864,30 +2910,30 @@
       <c r="B25" s="11">
         <v>6.4225149226713601E-2</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="11">
         <v>5.5531520094898902E-2</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="11">
         <v>6.9118774544960696E-2</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="53"/>
       <c r="J25" s="3"/>
       <c r="K25" s="11">
         <v>6.4652019824830403E-2</v>
       </c>
-      <c r="L25" s="46"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="11">
         <v>5.5242675022226302E-2</v>
       </c>
-      <c r="N25" s="47"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="11">
         <v>7.3496751045362005E-2</v>
       </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="51"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="53"/>
       <c r="S25" t="s">
         <v>15</v>
       </c>
@@ -2911,30 +2957,30 @@
       <c r="B26" s="11">
         <v>6.9162688705584299E-2</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="11">
         <v>7.1509199714456601E-2</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="11">
         <v>5.8383067801694499E-2</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="53"/>
       <c r="J26" s="3"/>
       <c r="K26" s="11">
         <v>7.1048213073988106E-2</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="11">
         <v>7.0532955029596001E-2</v>
       </c>
-      <c r="N26" s="47"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="11">
         <v>6.2103065683624503E-2</v>
       </c>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="51"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="53"/>
       <c r="T26">
         <f>SUM(T23:T25)</f>
         <v>503</v>
@@ -2955,25 +3001,25 @@
       <c r="B27" s="1">
         <v>6.6909980328561602E-2</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <f>AVERAGE(B27:B29)</f>
         <v>6.5531730346049269E-2</v>
       </c>
       <c r="D27" s="1">
         <v>5.5495785432028301E-2</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="54">
         <f>AVERAGE(D27:D29)</f>
         <v>6.0899316163706807E-2</v>
       </c>
       <c r="F27" s="11">
         <v>7.8003634305718397E-2</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="55">
         <f>AVERAGE(F27:F29)</f>
         <v>6.8171580142263141E-2</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="53">
         <f>($W$23*C27+$W$24*E27+$W$25*G27)/(SUM($W$23:$W$25))</f>
         <v>6.3437724909065449E-2</v>
       </c>
@@ -2983,25 +3029,25 @@
       <c r="K27" s="11">
         <v>6.6176597216082503E-2</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="45">
         <f>MEDIAN(K27:K29)</f>
         <v>6.6176597216082503E-2</v>
       </c>
       <c r="M27" s="11">
         <v>5.7575047795679998E-2</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="45">
         <f>MEDIAN(M27:M29)</f>
         <v>5.7575047795679998E-2</v>
       </c>
       <c r="O27" s="11">
         <v>8.2114171097133398E-2</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="45">
         <f>MEDIAN(O27:O29)</f>
         <v>7.4565549814603699E-2</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="53">
         <f>($W$23*L27+$W$24*N27+$W$25*P27)/(SUM($W$23:$W$25))</f>
         <v>6.3014543717755667E-2</v>
       </c>
@@ -3011,60 +3057,60 @@
       <c r="B28" s="1">
         <v>6.24146687917446E-2</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1">
         <v>5.55611629388418E-2</v>
       </c>
-      <c r="E28" s="47"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="11">
         <v>6.8047748726138599E-2</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="53"/>
       <c r="J28" s="3"/>
       <c r="K28" s="11">
         <v>6.3928533087228206E-2</v>
       </c>
-      <c r="L28" s="46"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="11">
         <v>5.4487232520194502E-2</v>
       </c>
-      <c r="N28" s="46"/>
+      <c r="N28" s="45"/>
       <c r="O28" s="11">
         <v>7.4565549814603699E-2</v>
       </c>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="51"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>6.7270541917841598E-2</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="11">
         <v>7.1641000120250306E-2</v>
       </c>
-      <c r="E29" s="47"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="11">
         <v>5.84633573949324E-2</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="53"/>
       <c r="J29" s="3"/>
       <c r="K29" s="11">
         <v>7.0172159463732398E-2</v>
       </c>
-      <c r="L29" s="46"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="11">
         <v>7.0236956892604605E-2</v>
       </c>
-      <c r="N29" s="46"/>
+      <c r="N29" s="45"/>
       <c r="O29" s="11">
         <v>6.1236598919539302E-2</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="51"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3073,25 +3119,25 @@
       <c r="B30" s="1">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="45">
         <f>AVERAGE(B30:B32)</f>
         <v>6.6404203228736594E-2</v>
       </c>
       <c r="D30" s="1">
         <v>5.6267879886338898E-2</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <f>AVERAGE(D30:D32)</f>
         <v>6.0336784159349476E-2</v>
       </c>
       <c r="F30" s="11">
         <v>7.6961985529364396E-2</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="45">
         <f>AVERAGE(F30:F32)</f>
         <v>6.7663132924292504E-2</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="53">
         <f>($W$23*C30+$W$24*E30+$W$25*G30)/(SUM($W$23:$W$25))</f>
         <v>6.3203705213148123E-2</v>
       </c>
@@ -3099,12 +3145,12 @@
         <v>110</v>
       </c>
       <c r="K30" s="11"/>
-      <c r="L30" s="46"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="11"/>
       <c r="N30" s="12"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="51">
+      <c r="P30" s="45"/>
+      <c r="Q30" s="53">
         <f>($W$23*L30+$W$24*N30+$W$25*P30)/(SUM($W$23:$W$25))</f>
         <v>0</v>
       </c>
@@ -3114,109 +3160,109 @@
       <c r="B31" s="1">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="11">
         <v>5.3872718332262599E-2</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="11">
         <v>6.8306258858999797E-2</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
       <c r="J31" s="3"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="46"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="11"/>
       <c r="N31" s="12"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="51"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>6.7377805306874206E-2</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="11">
         <v>7.0869754259446902E-2</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="11">
         <v>5.77211543845133E-2</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="53"/>
       <c r="J32" s="3"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="46"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="11"/>
       <c r="N32" s="12"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="51"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="M33" s="57" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="M33" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="E34" s="53" t="s">
+      <c r="C34" s="48"/>
+      <c r="E34" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="H34" s="53" t="s">
+      <c r="F34" s="48"/>
+      <c r="H34" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="53"/>
+      <c r="I34" s="48"/>
       <c r="K34" s="15"/>
-      <c r="N34" s="53" t="s">
+      <c r="N34" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="Q34" s="53" t="s">
+      <c r="O34" s="48"/>
+      <c r="Q34" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="53"/>
+      <c r="R34" s="48"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="53" t="s">
+      <c r="T34" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="U34" s="53"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="1"/>
       <c r="W34" s="15"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="44">
+      <c r="A35" s="47">
         <v>0.5</v>
       </c>
       <c r="B35" s="1">
@@ -3225,7 +3271,7 @@
       <c r="C35" s="11">
         <v>6.6806397192799905E-2</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="45">
         <f>AVERAGE(C35:C37)</f>
         <v>7.0187427062153335E-2</v>
       </c>
@@ -3235,7 +3281,7 @@
       <c r="F35" s="11">
         <v>5.6371879850239302E-2</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="45">
         <f>AVERAGE(F35:F37)</f>
         <v>6.0890493895103537E-2</v>
       </c>
@@ -3245,12 +3291,12 @@
       <c r="I35" s="11">
         <v>8.0824444201257103E-2</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="45">
         <f>AVERAGE(I35:I37)</f>
         <v>6.8833524447829794E-2</v>
       </c>
       <c r="K35" s="38"/>
-      <c r="M35" s="44">
+      <c r="M35" s="47">
         <v>0.5</v>
       </c>
       <c r="N35" s="15">
@@ -3259,7 +3305,7 @@
       <c r="O35" s="15">
         <v>6.5036391270512098E-2</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="45">
         <f>AVERAGE(O35:O37)</f>
         <v>6.6914236613407896E-2</v>
       </c>
@@ -3269,7 +3315,7 @@
       <c r="R35" s="11">
         <v>5.6426274988917301E-2</v>
       </c>
-      <c r="S35" s="46">
+      <c r="S35" s="45">
         <f>AVERAGE(R35:R37)</f>
         <v>6.0742759570178662E-2</v>
       </c>
@@ -3279,110 +3325,110 @@
       <c r="U35" s="11">
         <v>7.9470710334137606E-2</v>
       </c>
-      <c r="V35" s="46">
+      <c r="V35" s="45">
         <f>AVERAGE(U35:U37)</f>
         <v>6.8312680917337026E-2</v>
       </c>
       <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1">
         <v>11</v>
       </c>
       <c r="C36" s="11">
         <v>7.2138421920273393E-2</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="15">
         <v>24</v>
       </c>
       <c r="F36" s="11">
         <v>5.3398720246436798E-2</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="15">
         <v>19</v>
       </c>
       <c r="I36" s="11">
         <v>6.7579705527433295E-2</v>
       </c>
-      <c r="J36" s="46"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="38"/>
-      <c r="M36" s="44"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="15">
         <v>0</v>
       </c>
       <c r="O36" s="15">
         <v>6.7858722202437896E-2</v>
       </c>
-      <c r="P36" s="46"/>
+      <c r="P36" s="45"/>
       <c r="Q36" s="15">
         <v>10</v>
       </c>
       <c r="R36" s="11">
         <v>5.3722419154450897E-2</v>
       </c>
-      <c r="S36" s="46"/>
+      <c r="S36" s="45"/>
       <c r="T36" s="15">
         <v>6</v>
       </c>
       <c r="U36" s="11">
         <v>6.8711118687654796E-2</v>
       </c>
-      <c r="V36" s="46"/>
+      <c r="V36" s="45"/>
       <c r="W36" s="38"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1">
         <v>10</v>
       </c>
       <c r="C37" s="11">
         <v>7.1617462073386706E-2</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="15">
         <v>51</v>
       </c>
       <c r="F37" s="11">
         <v>7.2900881588634503E-2</v>
       </c>
-      <c r="G37" s="46"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="15">
         <v>3</v>
       </c>
       <c r="I37" s="11">
         <v>5.8096423614798998E-2</v>
       </c>
-      <c r="J37" s="46"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="38"/>
-      <c r="M37" s="44"/>
+      <c r="M37" s="47"/>
       <c r="N37" s="15">
         <v>0</v>
       </c>
       <c r="O37" s="15">
         <v>6.7847596367273694E-2</v>
       </c>
-      <c r="P37" s="46"/>
+      <c r="P37" s="45"/>
       <c r="Q37" s="15">
         <v>7</v>
       </c>
       <c r="R37" s="11">
         <v>7.2079584567167801E-2</v>
       </c>
-      <c r="S37" s="46"/>
+      <c r="S37" s="45"/>
       <c r="T37" s="15">
         <v>0</v>
       </c>
       <c r="U37" s="11">
         <v>5.6756213730218698E-2</v>
       </c>
-      <c r="V37" s="46"/>
+      <c r="V37" s="45"/>
       <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="44">
+      <c r="A38" s="47">
         <v>0.7</v>
       </c>
       <c r="B38" s="15">
@@ -3391,7 +3437,7 @@
       <c r="C38" s="11">
         <v>6.7235106850283999E-2</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <f>AVERAGE(C38:C40)</f>
         <v>7.4662683647653869E-2</v>
       </c>
@@ -3401,7 +3447,7 @@
       <c r="F38" s="11">
         <v>5.5547796013478298E-2</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="45">
         <f>AVERAGE(F38:F40)</f>
         <v>6.0963376198093E-2</v>
       </c>
@@ -3411,12 +3457,12 @@
       <c r="I38" s="11">
         <v>8.0185321579367794E-2</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="45">
         <f>AVERAGE(I38:I40)</f>
         <v>6.8744780586681972E-2</v>
       </c>
       <c r="K38" s="38"/>
-      <c r="M38" s="44">
+      <c r="M38" s="47">
         <v>0.7</v>
       </c>
       <c r="N38" s="15">
@@ -3425,7 +3471,7 @@
       <c r="O38" s="11">
         <v>6.4963201462517398E-2</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="45">
         <f>AVERAGE(O38:O40)</f>
         <v>6.7210903648403639E-2</v>
       </c>
@@ -3435,7 +3481,7 @@
       <c r="R38" s="11">
         <v>5.6200141811319097E-2</v>
       </c>
-      <c r="S38" s="46">
+      <c r="S38" s="45">
         <f>AVERAGE(R38:R40)</f>
         <v>6.1254218989291363E-2</v>
       </c>
@@ -3445,69 +3491,69 @@
       <c r="U38" s="15">
         <v>7.7308006742691199E-2</v>
       </c>
-      <c r="V38" s="46">
+      <c r="V38" s="45">
         <f>AVERAGE(U38:U40)</f>
         <v>6.8454246790795939E-2</v>
       </c>
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="15">
         <v>16</v>
       </c>
       <c r="C39" s="11">
         <v>8.1706291912967799E-2</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="15">
         <v>38</v>
       </c>
       <c r="F39" s="11">
         <v>5.5301264208427202E-2</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="15">
         <v>29</v>
       </c>
       <c r="I39" s="11">
         <v>6.8862295411958097E-2</v>
       </c>
-      <c r="J39" s="46"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="38"/>
-      <c r="M39" s="44"/>
+      <c r="M39" s="47"/>
       <c r="N39" s="15">
         <v>4</v>
       </c>
       <c r="O39" s="11">
         <v>6.6303535322565596E-2</v>
       </c>
-      <c r="P39" s="46"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="15">
         <v>14</v>
       </c>
       <c r="R39" s="11">
         <v>5.4666167375379597E-2</v>
       </c>
-      <c r="S39" s="46"/>
+      <c r="S39" s="45"/>
       <c r="T39" s="15">
         <v>9</v>
       </c>
       <c r="U39" s="11">
         <v>6.8202025546046902E-2</v>
       </c>
-      <c r="V39" s="46"/>
+      <c r="V39" s="45"/>
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="15">
         <v>14</v>
       </c>
       <c r="C40" s="11">
         <v>7.5046652179709794E-2</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="15">
         <f>158/2</f>
         <v>79</v>
@@ -3515,41 +3561,41 @@
       <c r="F40" s="11">
         <v>7.2041068372373507E-2</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="15">
         <v>5</v>
       </c>
       <c r="I40" s="11">
         <v>5.7186724768719999E-2</v>
       </c>
-      <c r="J40" s="46"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="38"/>
-      <c r="M40" s="44"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="15">
         <v>3</v>
       </c>
       <c r="O40" s="11">
         <v>7.0365974160127895E-2</v>
       </c>
-      <c r="P40" s="46"/>
+      <c r="P40" s="45"/>
       <c r="Q40" s="15">
         <v>11</v>
       </c>
       <c r="R40" s="11">
         <v>7.2896347781175402E-2</v>
       </c>
-      <c r="S40" s="46"/>
+      <c r="S40" s="45"/>
       <c r="T40" s="15">
         <v>0</v>
       </c>
       <c r="U40" s="11">
         <v>5.9852708083649703E-2</v>
       </c>
-      <c r="V40" s="46"/>
+      <c r="V40" s="45"/>
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="44">
+      <c r="A41" s="47">
         <v>1</v>
       </c>
       <c r="B41" s="1">
@@ -3558,7 +3604,7 @@
       <c r="C41" s="11">
         <v>7.2948705018009499E-2</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="45">
         <f>AVERAGE(C41:C43)</f>
         <v>7.5693983546809229E-2</v>
       </c>
@@ -3569,7 +3615,7 @@
       <c r="F41" s="11">
         <v>5.53172922871683E-2</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="45">
         <f>AVERAGE(F41:F43)</f>
         <v>6.0997554055367602E-2</v>
       </c>
@@ -3579,12 +3625,12 @@
       <c r="I41" s="11">
         <v>7.92277283827999E-2</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="45">
         <f>AVERAGE(I41:I43)</f>
         <v>6.9232622479230246E-2</v>
       </c>
       <c r="K41" s="38"/>
-      <c r="M41" s="44">
+      <c r="M41" s="47">
         <v>1</v>
       </c>
       <c r="N41" s="15">
@@ -3593,7 +3639,7 @@
       <c r="O41" s="11">
         <v>6.5878245862859494E-2</v>
       </c>
-      <c r="P41" s="56">
+      <c r="P41" s="46">
         <f>AVERAGE(O41:O43)</f>
         <v>6.70016910642042E-2</v>
       </c>
@@ -3603,7 +3649,7 @@
       <c r="R41" s="11">
         <v>5.6229323568643998E-2</v>
       </c>
-      <c r="S41" s="56">
+      <c r="S41" s="46">
         <f>AVERAGE(R41:R43)</f>
         <v>6.0728277463775203E-2</v>
       </c>
@@ -3613,21 +3659,21 @@
       <c r="U41" s="11">
         <v>7.8034710699150397E-2</v>
       </c>
-      <c r="V41" s="56">
+      <c r="V41" s="46">
         <f>AVERAGE(U41:U43)</f>
         <v>6.7948957168824833E-2</v>
       </c>
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="1">
         <v>25</v>
       </c>
       <c r="C42" s="11">
         <v>7.8920769607244604E-2</v>
       </c>
-      <c r="D42" s="46"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="1">
         <f>112/2</f>
         <v>56</v>
@@ -3635,48 +3681,48 @@
       <c r="F42" s="11">
         <v>5.4264222451447998E-2</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="1">
         <v>45</v>
       </c>
       <c r="I42" s="11">
         <v>6.8102272288924001E-2</v>
       </c>
-      <c r="J42" s="46"/>
+      <c r="J42" s="45"/>
       <c r="K42" s="38"/>
-      <c r="M42" s="44"/>
+      <c r="M42" s="47"/>
       <c r="N42" s="15">
         <v>6</v>
       </c>
       <c r="O42" s="11">
         <v>6.50848234335374E-2</v>
       </c>
-      <c r="P42" s="56"/>
+      <c r="P42" s="46"/>
       <c r="Q42" s="15">
         <v>7</v>
       </c>
       <c r="R42" s="11">
         <v>5.5249343220708798E-2</v>
       </c>
-      <c r="S42" s="56"/>
+      <c r="S42" s="46"/>
       <c r="T42" s="15">
         <v>2</v>
       </c>
       <c r="U42" s="11">
         <v>6.8622127138108294E-2</v>
       </c>
-      <c r="V42" s="56"/>
+      <c r="V42" s="46"/>
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1">
         <v>23</v>
       </c>
       <c r="C43" s="11">
         <v>7.5212476015173599E-2</v>
       </c>
-      <c r="D43" s="46"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="1">
         <f>242/2</f>
         <v>121</v>
@@ -3684,48 +3730,48 @@
       <c r="F43" s="11">
         <v>7.3411147427486501E-2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="1">
         <v>9</v>
       </c>
       <c r="I43" s="11">
         <v>6.0367866765966803E-2</v>
       </c>
-      <c r="J43" s="46"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="38"/>
-      <c r="M43" s="44"/>
+      <c r="M43" s="47"/>
       <c r="N43" s="15">
         <v>5</v>
       </c>
       <c r="O43" s="11">
         <v>7.0042003896215704E-2</v>
       </c>
-      <c r="P43" s="56"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="15">
         <v>0</v>
       </c>
       <c r="R43" s="11">
         <v>7.0706165601972806E-2</v>
       </c>
-      <c r="S43" s="56"/>
+      <c r="S43" s="46"/>
       <c r="T43" s="15">
         <v>0</v>
       </c>
       <c r="U43" s="11">
         <v>5.7190033669215802E-2</v>
       </c>
-      <c r="V43" s="56"/>
+      <c r="V43" s="46"/>
       <c r="W43" s="38"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="44">
+      <c r="A44" s="47">
         <v>1.2</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="11">
         <v>6.9503285203305704E-2</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="45">
         <f>AVERAGE(C44:C46)</f>
         <v>7.5930225008503605E-2</v>
       </c>
@@ -3733,7 +3779,7 @@
       <c r="F44" s="11">
         <v>5.7055735255908201E-2</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="45">
         <f>AVERAGE(F44:F46)</f>
         <v>6.1538690244933331E-2</v>
       </c>
@@ -3741,12 +3787,12 @@
       <c r="I44" s="11">
         <v>8.2175312482866206E-2</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="45">
         <f>AVERAGE(I44:I46)</f>
         <v>6.8649956605932733E-2</v>
       </c>
       <c r="K44" s="38"/>
-      <c r="M44" s="44">
+      <c r="M44" s="47">
         <v>1.2</v>
       </c>
       <c r="N44" s="15">
@@ -3755,7 +3801,7 @@
       <c r="O44" s="11">
         <v>6.6633283515927302E-2</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="50">
         <f>AVERAGE(O44:O46)</f>
         <v>6.7644435570287334E-2</v>
       </c>
@@ -3765,7 +3811,7 @@
       <c r="R44" s="11">
         <v>5.69825721868088E-2</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="50">
         <f>AVERAGE(R44:R46)</f>
         <v>6.1353796617326629E-2</v>
       </c>
@@ -3775,114 +3821,114 @@
       <c r="U44" s="11">
         <v>7.8387624711468595E-2</v>
       </c>
-      <c r="V44" s="45">
+      <c r="V44" s="50">
         <f>AVERAGE(U44:U46)</f>
         <v>6.7935187044256232E-2</v>
       </c>
       <c r="W44" s="38"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="47"/>
       <c r="C45" s="1">
         <v>8.2544014718036102E-2</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="45"/>
       <c r="F45" s="1">
         <v>5.5563601418040301E-2</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="45"/>
       <c r="I45" s="1">
         <v>6.5133674708902897E-2</v>
       </c>
-      <c r="J45" s="46"/>
-      <c r="M45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="M45" s="47"/>
       <c r="N45" s="15">
         <v>7</v>
       </c>
       <c r="O45" s="11">
         <v>6.6647076502901595E-2</v>
       </c>
-      <c r="P45" s="45"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="15">
         <v>27</v>
       </c>
       <c r="R45" s="11">
         <v>5.4689835231897299E-2</v>
       </c>
-      <c r="S45" s="45"/>
+      <c r="S45" s="50"/>
       <c r="T45" s="15">
         <v>18</v>
       </c>
       <c r="U45" s="11">
         <v>6.67316008164512E-2</v>
       </c>
-      <c r="V45" s="45"/>
+      <c r="V45" s="50"/>
       <c r="W45" s="38"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="47"/>
       <c r="C46" s="1">
         <v>7.5743375104168995E-2</v>
       </c>
-      <c r="D46" s="46"/>
+      <c r="D46" s="45"/>
       <c r="F46" s="1">
         <v>7.1996734060851497E-2</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="45"/>
       <c r="I46" s="1">
         <v>5.8640882626029102E-2</v>
       </c>
-      <c r="J46" s="46"/>
-      <c r="M46" s="44"/>
+      <c r="J46" s="45"/>
+      <c r="M46" s="47"/>
       <c r="N46" s="15">
         <v>6</v>
       </c>
       <c r="O46" s="11">
         <v>6.9652946692033105E-2</v>
       </c>
-      <c r="P46" s="45"/>
+      <c r="P46" s="50"/>
       <c r="Q46" s="15">
         <v>21</v>
       </c>
       <c r="R46" s="11">
         <v>7.2388982433273796E-2</v>
       </c>
-      <c r="S46" s="45"/>
+      <c r="S46" s="50"/>
       <c r="T46" s="15">
         <v>2</v>
       </c>
       <c r="U46" s="11">
         <v>5.8686335604848899E-2</v>
       </c>
-      <c r="V46" s="45"/>
+      <c r="V46" s="50"/>
       <c r="W46" s="38"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="44">
+      <c r="A47" s="47">
         <v>1.5</v>
       </c>
       <c r="C47" s="1">
         <v>7.5683645246998194E-2</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="45">
         <f>AVERAGE(C47:C49)</f>
         <v>7.7470775812007897E-2</v>
       </c>
       <c r="F47" s="1">
         <v>5.6912279303189602E-2</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="45">
         <f>AVERAGE(F47:F49)</f>
         <v>6.0953216965779232E-2</v>
       </c>
       <c r="I47" s="1">
         <v>8.2315559672507699E-2</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="45">
         <f>AVERAGE(I47:I49)</f>
         <v>7.3874628754879351E-2</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="47">
         <v>1.5</v>
       </c>
       <c r="N47" s="15">
@@ -3891,7 +3937,7 @@
       <c r="O47" s="11">
         <v>6.9537868187763197E-2</v>
       </c>
-      <c r="P47" s="45">
+      <c r="P47" s="50">
         <f>AVERAGE(O47:O49)</f>
         <v>6.9950465285597535E-2</v>
       </c>
@@ -3901,7 +3947,7 @@
       <c r="R47" s="11">
         <v>5.6938411718859799E-2</v>
       </c>
-      <c r="S47" s="45">
+      <c r="S47" s="50">
         <f>AVERAGE(R47:R49)</f>
         <v>6.1099658609353236E-2</v>
       </c>
@@ -3911,104 +3957,104 @@
       <c r="U47" s="11">
         <v>7.9706294210901293E-2</v>
       </c>
-      <c r="V47" s="45">
+      <c r="V47" s="50">
         <f>AVERAGE(U47:U49)</f>
         <v>6.8692859889733504E-2</v>
       </c>
       <c r="W47" s="38"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="47"/>
       <c r="C48" s="1">
         <v>8.0870450534842098E-2</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="45"/>
       <c r="F48" s="1">
         <v>5.4506614622459197E-2</v>
       </c>
-      <c r="G48" s="46"/>
+      <c r="G48" s="45"/>
       <c r="I48" s="1">
         <v>6.5433697837251004E-2</v>
       </c>
-      <c r="J48" s="46"/>
-      <c r="M48" s="44"/>
+      <c r="J48" s="45"/>
+      <c r="M48" s="47"/>
       <c r="N48" s="15">
         <v>10</v>
       </c>
       <c r="O48" s="11">
         <v>7.1109476603882005E-2</v>
       </c>
-      <c r="P48" s="45"/>
+      <c r="P48" s="50"/>
       <c r="Q48" s="15">
         <v>34</v>
       </c>
       <c r="R48" s="11">
         <v>5.4391483163116101E-2</v>
       </c>
-      <c r="S48" s="45"/>
+      <c r="S48" s="50"/>
       <c r="T48" s="15">
         <v>23</v>
       </c>
       <c r="U48" s="11">
         <v>6.8614239231452101E-2</v>
       </c>
-      <c r="V48" s="45"/>
+      <c r="V48" s="50"/>
       <c r="W48" s="38"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="47"/>
       <c r="C49" s="1">
         <v>7.58582316541834E-2</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="45"/>
       <c r="F49" s="1">
         <v>7.1440756971688904E-2</v>
       </c>
-      <c r="G49" s="46"/>
+      <c r="G49" s="45"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="46"/>
-      <c r="M49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="M49" s="47"/>
       <c r="N49" s="15">
         <v>8</v>
       </c>
       <c r="O49" s="11">
         <v>6.9204051065147404E-2</v>
       </c>
-      <c r="P49" s="45"/>
+      <c r="P49" s="50"/>
       <c r="Q49" s="15">
         <v>27</v>
       </c>
       <c r="R49" s="11">
         <v>7.1969080946083799E-2</v>
       </c>
-      <c r="S49" s="45"/>
+      <c r="S49" s="50"/>
       <c r="T49" s="15">
         <v>2</v>
       </c>
       <c r="U49" s="11">
         <v>5.7758046226847097E-2</v>
       </c>
-      <c r="V49" s="45"/>
+      <c r="V49" s="50"/>
       <c r="W49" s="38"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="44">
+      <c r="A50" s="47">
         <v>1.7</v>
       </c>
-      <c r="D50" s="46" t="e">
+      <c r="D50" s="45" t="e">
         <f>AVERAGE(C50:C52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="46" t="e">
+      <c r="G50" s="45" t="e">
         <f>AVERAGE(F50:F52)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="42"/>
-      <c r="J50" s="46" t="e">
+      <c r="J50" s="45" t="e">
         <f>AVERAGE(I50:I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="44">
+      <c r="M50" s="47">
         <v>1.7</v>
       </c>
       <c r="N50" s="15">
@@ -4017,7 +4063,7 @@
       <c r="O50" s="11">
         <v>6.7278801378468006E-2</v>
       </c>
-      <c r="P50" s="45">
+      <c r="P50" s="50">
         <f>AVERAGE(O50:O52)</f>
         <v>7.1400612050443804E-2</v>
       </c>
@@ -4027,7 +4073,7 @@
       <c r="R50" s="11">
         <v>5.5260951818783897E-2</v>
       </c>
-      <c r="S50" s="45">
+      <c r="S50" s="50">
         <f>AVERAGE(R50:R52)</f>
         <v>6.0832309340733436E-2</v>
       </c>
@@ -4037,99 +4083,99 @@
       <c r="U50" s="11">
         <v>8.0642694264930703E-2</v>
       </c>
-      <c r="V50" s="45">
+      <c r="V50" s="50">
         <f>AVERAGE(U50:U52)</f>
         <v>6.8208604230275471E-2</v>
       </c>
       <c r="W50" s="38"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="D51" s="46"/>
+      <c r="A51" s="47"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="42"/>
-      <c r="G51" s="46"/>
+      <c r="G51" s="45"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="46"/>
-      <c r="M51" s="44"/>
+      <c r="J51" s="45"/>
+      <c r="M51" s="47"/>
       <c r="N51" s="1">
         <v>11</v>
       </c>
       <c r="O51" s="1">
         <v>7.575440468446E-2</v>
       </c>
-      <c r="P51" s="45"/>
+      <c r="P51" s="50"/>
       <c r="Q51" s="1">
         <v>40</v>
       </c>
       <c r="R51" s="1">
         <v>5.4996185422315297E-2</v>
       </c>
-      <c r="S51" s="45"/>
+      <c r="S51" s="50"/>
       <c r="T51" s="1">
         <v>27</v>
       </c>
       <c r="U51" s="1">
         <v>6.6099527204354802E-2</v>
       </c>
-      <c r="V51" s="45"/>
+      <c r="V51" s="50"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="D52" s="46"/>
+      <c r="A52" s="47"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="42"/>
-      <c r="G52" s="46"/>
+      <c r="G52" s="45"/>
       <c r="I52" s="42"/>
-      <c r="J52" s="46"/>
-      <c r="M52" s="44"/>
+      <c r="J52" s="45"/>
+      <c r="M52" s="47"/>
       <c r="N52" s="1">
         <v>9</v>
       </c>
       <c r="O52" s="1">
         <v>7.1168630088403406E-2</v>
       </c>
-      <c r="P52" s="45"/>
+      <c r="P52" s="50"/>
       <c r="Q52" s="1">
         <v>33</v>
       </c>
       <c r="R52" s="1">
         <v>7.2239790781101099E-2</v>
       </c>
-      <c r="S52" s="45"/>
+      <c r="S52" s="50"/>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1">
         <v>5.7883591221540902E-2</v>
       </c>
-      <c r="V52" s="45"/>
+      <c r="V52" s="50"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="44">
+      <c r="A53" s="47">
         <v>2</v>
       </c>
-      <c r="D53" s="46" t="e">
+      <c r="D53" s="45" t="e">
         <f>AVERAGE(C53:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="42"/>
-      <c r="G53" s="46" t="e">
+      <c r="G53" s="45" t="e">
         <f>AVERAGE(F53:F55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="42"/>
-      <c r="J53" s="46" t="e">
+      <c r="J53" s="45" t="e">
         <f>AVERAGE(I53:I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="44">
+      <c r="M53" s="47">
         <v>2</v>
       </c>
       <c r="O53" s="1">
         <v>7.0525855560078093E-2</v>
       </c>
-      <c r="P53" s="45">
+      <c r="P53" s="50">
         <f>AVERAGE(O53:O55)</f>
         <v>6.9490512225892795E-2</v>
       </c>
@@ -4139,7 +4185,7 @@
       <c r="R53" s="1">
         <v>5.67309228172337E-2</v>
       </c>
-      <c r="S53" s="45">
+      <c r="S53" s="50">
         <f>AVERAGE(R53:R55)</f>
         <v>6.1610069359005599E-2</v>
       </c>
@@ -4149,66 +4195,66 @@
       <c r="U53" s="1">
         <v>8.2203610508146702E-2</v>
       </c>
-      <c r="V53" s="45">
+      <c r="V53" s="50">
         <f>AVERAGE(U53:U55)</f>
         <v>6.9289106424540295E-2</v>
       </c>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="D54" s="46"/>
+      <c r="A54" s="47"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="42"/>
-      <c r="G54" s="46"/>
+      <c r="G54" s="45"/>
       <c r="I54" s="42"/>
-      <c r="J54" s="46"/>
-      <c r="M54" s="44"/>
+      <c r="J54" s="45"/>
+      <c r="M54" s="47"/>
       <c r="O54" s="1">
         <v>7.2793813151280196E-2</v>
       </c>
-      <c r="P54" s="45"/>
+      <c r="P54" s="50"/>
       <c r="Q54" s="1">
         <v>48</v>
       </c>
       <c r="R54" s="1">
         <v>5.5705042723388401E-2</v>
       </c>
-      <c r="S54" s="45"/>
+      <c r="S54" s="50"/>
       <c r="T54" s="1">
         <v>33</v>
       </c>
       <c r="U54" s="1">
         <v>6.7266358340107094E-2</v>
       </c>
-      <c r="V54" s="45"/>
+      <c r="V54" s="50"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="D55" s="46"/>
+      <c r="A55" s="47"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="42"/>
-      <c r="G55" s="46"/>
+      <c r="G55" s="45"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="46"/>
-      <c r="M55" s="44"/>
+      <c r="J55" s="45"/>
+      <c r="M55" s="47"/>
       <c r="O55" s="1">
         <v>6.5151867966320096E-2</v>
       </c>
-      <c r="P55" s="45"/>
+      <c r="P55" s="50"/>
       <c r="Q55" s="42">
         <v>3</v>
       </c>
       <c r="R55" s="42">
         <v>7.2394242536394704E-2</v>
       </c>
-      <c r="S55" s="45"/>
+      <c r="S55" s="50"/>
       <c r="T55" s="42">
         <v>3</v>
       </c>
       <c r="U55" s="42">
         <v>5.8397350425367103E-2</v>
       </c>
-      <c r="V55" s="45"/>
+      <c r="V55" s="50"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -4221,84 +4267,84 @@
     </row>
     <row r="58" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
@@ -5199,61 +5245,61 @@
       <c r="Q85" s="16"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="55"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="55"/>
-      <c r="Q90" s="55"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="52"/>
+      <c r="P91" s="52"/>
+      <c r="Q91" s="52"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="53" t="s">
+      <c r="G92" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
       <c r="L92" s="4"/>
       <c r="M92" s="41" t="s">
         <v>27</v>
@@ -6158,6 +6204,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="A1:Q3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A61:Q62"/>
+    <mergeCell ref="A63:Q64"/>
+    <mergeCell ref="A90:Q91"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="G38:G40"/>
@@ -6182,127 +6349,6 @@
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A61:Q62"/>
-    <mergeCell ref="A63:Q64"/>
-    <mergeCell ref="A90:Q91"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="A1:Q3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="P53:P55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6326,28 +6372,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="L1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
@@ -6680,28 +6726,28 @@
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="L10" s="58" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="L10" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">

--- a/results/final_results_general.xlsx
+++ b/results/final_results_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/Horse Project/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276904B7-4E62-4C47-BB6F-F2971B549831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8038C2-F8AE-8540-824D-43422FFA0656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
+    <workbookView xWindow="14200" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pose" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Sheep</t>
   </si>
   <si>
-    <t>Sheep + 0.5 data aug</t>
-  </si>
-  <si>
     <t>CROSS - VALIDATION</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t xml:space="preserve">ERT </t>
   </si>
   <si>
-    <t>Sheep + 0.7 data aug</t>
-  </si>
-  <si>
     <t>Sheep + 0.9 data aug</t>
   </si>
   <si>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>Sheep + 0.5 new formula data aug (propotional for pitch and roll)</t>
+  </si>
+  <si>
+    <t>Sheep + 0.5 data aug (inverse data aug for yaw and proportional for pitch and roll)</t>
+  </si>
+  <si>
+    <t>Sheep + 0.7 data aug (inverse data aug for yaw and proportional for pitch and roll)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -598,37 +598,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -640,8 +619,35 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -964,19 +970,20 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1008,15 +1015,19 @@
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F3" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1060,17 +1071,17 @@
         <v>2</v>
       </c>
       <c r="G5" s="30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="30">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I5" s="30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J5" s="29">
         <f>AVERAGE(G5:I5)</f>
-        <v>13.333333333333334</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
@@ -1110,17 +1121,17 @@
         <v>3</v>
       </c>
       <c r="G6" s="27">
-        <v>15.7355</v>
+        <v>14.316599999999999</v>
       </c>
       <c r="H6" s="27">
-        <v>14.516400000000001</v>
+        <v>11.9856</v>
       </c>
       <c r="I6" s="27">
-        <v>18.231300000000001</v>
+        <v>13.394299999999999</v>
       </c>
       <c r="J6" s="25">
         <f>AVERAGE(G6:I6)</f>
-        <v>16.161066666666667</v>
+        <v>13.232166666666666</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -1154,17 +1165,17 @@
         <v>4</v>
       </c>
       <c r="G7" s="27">
-        <v>11.5014</v>
+        <v>11.998900000000001</v>
       </c>
       <c r="H7" s="27">
-        <v>11.693099999999999</v>
+        <v>12.3451</v>
       </c>
       <c r="I7" s="27">
-        <v>11.48</v>
+        <v>12.0373</v>
       </c>
       <c r="J7" s="25">
         <f>AVERAGE(G7:I7)</f>
-        <v>11.558166666666665</v>
+        <v>12.1271</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -1198,17 +1209,17 @@
         <v>5</v>
       </c>
       <c r="G8" s="27">
-        <v>9.2944999999999993</v>
+        <v>9.3093000000000004</v>
       </c>
       <c r="H8" s="27">
-        <v>10.027799999999999</v>
+        <v>9.9164999999999992</v>
       </c>
       <c r="I8" s="27">
-        <v>9.4202999999999992</v>
+        <v>9.3561999999999994</v>
       </c>
       <c r="J8" s="25">
         <f>AVERAGE(G8:I8)</f>
-        <v>9.5808666666666653</v>
+        <v>9.527333333333333</v>
       </c>
       <c r="K8" t="s">
         <v>5</v>
@@ -1240,15 +1251,15 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="F10" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1298,17 +1309,17 @@
         <v>2</v>
       </c>
       <c r="G12" s="28">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H12" s="28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="28">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J12" s="29">
         <f>AVERAGE(G12:I12)</f>
-        <v>22.666666666666668</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -1348,17 +1359,17 @@
         <v>3</v>
       </c>
       <c r="G13" s="27">
-        <v>14.619300000000001</v>
+        <v>11.208500000000001</v>
       </c>
       <c r="H13" s="27">
-        <v>14.1859</v>
+        <v>12.5443</v>
       </c>
       <c r="I13" s="27">
-        <v>12.6325</v>
+        <v>12.8201</v>
       </c>
       <c r="J13" s="25">
         <f>AVERAGE(G13:I13)</f>
-        <v>13.812566666666667</v>
+        <v>12.190966666666668</v>
       </c>
       <c r="K13" t="s">
         <v>3</v>
@@ -1398,17 +1409,17 @@
         <v>4</v>
       </c>
       <c r="G14" s="27">
-        <v>11.494199999999999</v>
+        <v>12.625299999999999</v>
       </c>
       <c r="H14" s="27">
-        <v>11.6129</v>
+        <v>13.1472</v>
       </c>
       <c r="I14" s="27">
-        <v>11.500299999999999</v>
+        <v>12.756600000000001</v>
       </c>
       <c r="J14" s="25">
         <f>AVERAGE(G14:I14)</f>
-        <v>11.5358</v>
+        <v>12.843033333333333</v>
       </c>
       <c r="K14" t="s">
         <v>4</v>
@@ -1448,17 +1459,17 @@
         <v>5</v>
       </c>
       <c r="G15" s="27">
-        <v>8.9626999999999999</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="H15" s="27">
-        <v>8.8336000000000006</v>
+        <v>9.7505000000000006</v>
       </c>
       <c r="I15" s="27">
-        <v>9.0732999999999997</v>
+        <v>9.7103999999999999</v>
       </c>
       <c r="J15" s="25">
         <f>AVERAGE(G15:I15)</f>
-        <v>8.9565333333333346</v>
+        <v>9.739633333333332</v>
       </c>
       <c r="K15" t="s">
         <v>5</v>
@@ -1479,7 +1490,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -1519,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1544,36 +1555,36 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="G21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="L21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="N21" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="27">
         <v>23.407900000000001</v>
@@ -1589,7 +1600,7 @@
         <v>15.045266666666668</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="27">
         <v>9.1674000000000007</v>
@@ -1605,7 +1616,7 @@
         <v>8.5567333333333337</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" s="13">
         <v>10.9641</v>
@@ -1619,7 +1630,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="27">
         <v>0.755</v>
@@ -1635,7 +1646,7 @@
         <v>0.43110000000000004</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="27">
         <v>0.95640000000000003</v>
@@ -1651,7 +1662,7 @@
         <v>0.72223333333333339</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" s="13">
         <v>0.94440000000000002</v>
@@ -1665,7 +1676,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="27">
         <v>0.81910000000000005</v>
@@ -1681,7 +1692,7 @@
         <v>0.7627666666666667</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="27">
         <v>0.85289999999999999</v>
@@ -1697,7 +1708,7 @@
         <v>0.81510000000000005</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="13">
         <v>0.83899999999999997</v>
@@ -1711,7 +1722,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1719,24 +1730,24 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="27">
         <v>37.240700371936846</v>
@@ -1754,7 +1765,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="27">
         <v>0</v>
@@ -1772,7 +1783,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="27">
         <v>0.50894632206759438</v>
@@ -1789,9 +1800,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A17:N18"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1824,140 +1837,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="A1" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="S3" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="S3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="J4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="J4" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="T4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="18">
         <f>C15-C18</f>
@@ -1979,25 +1992,25 @@
       <c r="B6" s="1">
         <v>7.4242327387638293E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="47">
         <f>AVERAGE(B6:B8)</f>
         <v>7.2516394779870999E-2</v>
       </c>
       <c r="D6" s="1">
         <v>6.1696994372274397E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <f>AVERAGE(D6:D8)</f>
         <v>6.5930201131281729E-2</v>
       </c>
       <c r="F6" s="1">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="47">
         <f>AVERAGE(F6:F8)</f>
         <v>7.2886942724262813E-2</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <f>($W$23*C6+$W$24*E6+$W$25*G6)/(SUM($W$23:$W$25))</f>
         <v>6.883485080431552E-2</v>
       </c>
@@ -2007,30 +2020,30 @@
       <c r="K6" s="1">
         <v>7.3257090143794099E-2</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="47">
         <f>MEDIAN(K6:K8)</f>
         <v>7.3257090143794099E-2</v>
       </c>
       <c r="M6" s="1">
         <v>6.0717728591802501E-2</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="47">
         <f>MEDIAN(M6:M8)</f>
         <v>6.0717728591802501E-2</v>
       </c>
       <c r="O6" s="1">
         <v>8.8653346922190901E-2</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="47">
         <f>MEDIAN(O6:O8)</f>
         <v>7.8717723527882505E-2</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="52">
         <f>($W$23*L6+$W$24*N6+$W$25*P6)/(SUM($W$23:$W$25))</f>
         <v>6.7237997700526811E-2</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T6" s="18">
         <f>C18-C21</f>
@@ -2050,32 +2063,32 @@
       <c r="B7" s="1">
         <v>6.9446403885711994E-2</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="1">
         <v>5.9450284371242099E-2</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1">
         <v>7.7228516504569605E-2</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="53"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="52"/>
       <c r="J7" s="22"/>
       <c r="K7" s="1">
         <v>7.0553584743528894E-2</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="1">
         <v>5.9046912536127198E-2</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="1">
         <v>7.8717723527882505E-2</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="52"/>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T7" s="18">
         <f>C21-C24</f>
@@ -2095,32 +2108,32 @@
       <c r="B8" s="1">
         <v>7.3860453066262696E-2</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="1">
         <v>7.6643324650328706E-2</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="1">
         <v>6.7878392288932707E-2</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="53"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="52"/>
       <c r="J8" s="22"/>
       <c r="K8" s="1">
         <v>7.48587436488998E-2</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="1">
         <v>7.3918262792254302E-2</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="1">
         <v>7.38878226967003E-2</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="53"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="52"/>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" s="18">
         <f>C24-C27</f>
@@ -2142,25 +2155,25 @@
       <c r="B9" s="1">
         <v>7.1497860283077599E-2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="47">
         <f>AVERAGE(B9:B11)</f>
         <v>7.0446168916473997E-2</v>
       </c>
       <c r="D9" s="1">
         <v>5.9349428534691002E-2</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="47">
         <f>AVERAGE(D9:D11)</f>
         <v>6.3689579180170805E-2</v>
       </c>
       <c r="F9" s="1">
         <v>8.3560462216687698E-2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="47">
         <f>AVERAGE(F9:F11)</f>
         <v>7.332788940671893E-2</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <f>($W$23*C9+$W$24*E9+$W$25*G9)/(SUM($W$23:$W$25))</f>
         <v>6.719027287084553E-2</v>
       </c>
@@ -2170,25 +2183,25 @@
       <c r="K9" s="1">
         <v>6.9393627994051105E-2</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="47">
         <f>MEDIAN(K9:K11)</f>
         <v>6.9567079570668794E-2</v>
       </c>
       <c r="M9" s="1">
         <v>6.0177999656592797E-2</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="47">
         <f>MEDIAN(M9:M11)</f>
         <v>6.0177999656592797E-2</v>
       </c>
       <c r="O9" s="1">
         <v>8.8443218396520598E-2</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="47">
         <f>MEDIAN(O9:O11)</f>
         <v>8.1712911887184297E-2</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="52">
         <f>($W$23*L9+$W$24*N9+$W$25*P9)/(SUM($W$23:$W$25))</f>
         <v>6.6737867942681356E-2</v>
       </c>
@@ -2198,74 +2211,74 @@
       <c r="B10" s="1">
         <v>6.7785441472090202E-2</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="1">
         <v>5.8160575031858203E-2</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="1">
         <v>7.3461217334773302E-2</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="52"/>
       <c r="J10" s="22"/>
       <c r="K10" s="1">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="1">
         <v>5.7773532681844798E-2</v>
       </c>
-      <c r="N10" s="45"/>
+      <c r="N10" s="47"/>
       <c r="O10" s="1">
         <v>8.1712911887184297E-2</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="53"/>
-      <c r="S10" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="52"/>
+      <c r="S10" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="1">
         <v>7.2055204994254204E-2</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="1">
         <v>7.3558733973963203E-2</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="1">
         <v>6.2961988668695804E-2</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="53"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="52"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="1">
         <v>7.28517551872397E-2</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="1">
         <v>6.8611490882056494E-2</v>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="53"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="52"/>
       <c r="T11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="V11" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -2275,25 +2288,25 @@
       <c r="B12" s="1">
         <v>6.8635828291996298E-2</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="47">
         <f>AVERAGE(B12:B14)</f>
         <v>6.9421797639299634E-2</v>
       </c>
       <c r="D12" s="1">
         <v>5.9744135075925499E-2</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="47">
         <f>AVERAGE(D12:D14)</f>
         <v>6.3787330498516662E-2</v>
       </c>
       <c r="F12" s="1">
         <v>8.0799485610991206E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="47">
         <f>AVERAGE(F12:F14)</f>
         <v>7.1930676177847139E-2</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="52">
         <f>($W$23*C12+$W$24*E12+$W$25*G12)/(SUM($W$23:$W$25))</f>
         <v>6.6728654853614608E-2</v>
       </c>
@@ -2303,30 +2316,30 @@
       <c r="K12" s="1">
         <v>7.0837146146167498E-2</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="47">
         <f>MEDIAN(K12:K14)</f>
         <v>6.8346677336347805E-2</v>
       </c>
       <c r="M12" s="1">
         <v>5.96260758245062E-2</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="47">
         <f>MEDIAN(M12:M14)</f>
         <v>5.96260758245062E-2</v>
       </c>
       <c r="O12" s="1">
         <v>8.4834733054653999E-2</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="47">
         <f>MEDIAN(O12:O14)</f>
         <v>7.7103854147694606E-2</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="52">
         <f>($W$23*L12+$W$24*N12+$W$25*P12)/(SUM($W$23:$W$25))</f>
         <v>6.5193355449690363E-2</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T12" s="18">
         <f>L15-L18</f>
@@ -2346,32 +2359,32 @@
       <c r="B13" s="1">
         <v>6.7532651859739001E-2</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="1">
         <v>5.8063937040338402E-2</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="1">
         <v>7.1556499938398493E-2</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="52"/>
       <c r="J13" s="22"/>
       <c r="K13" s="1">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="1">
         <v>5.8238875439599401E-2</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="1">
         <v>7.7103854147694606E-2</v>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="53"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="52"/>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T13" s="18">
         <f>L18-L21</f>
@@ -2391,32 +2404,32 @@
       <c r="B14" s="1">
         <v>7.2096912766163604E-2</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="1">
         <v>6.3436042984151703E-2</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52"/>
       <c r="J14" s="22"/>
       <c r="K14" s="1">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="1">
         <v>7.2202265989597197E-2</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="47"/>
       <c r="O14" s="1">
         <v>6.5887080057770303E-2</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="53"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="52"/>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T14" s="18">
         <f>L21-L24</f>
@@ -2438,25 +2451,25 @@
       <c r="B15" s="11">
         <v>6.8018153232609693E-2</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="47">
         <f>AVERAGE(B15:B17)</f>
         <v>6.8245163277658033E-2</v>
       </c>
       <c r="D15" s="11">
         <v>5.6742045286177198E-2</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="47">
         <f>AVERAGE(D15:D17)</f>
         <v>6.1588040296811232E-2</v>
       </c>
       <c r="F15" s="11">
         <v>8.0371040183020395E-2</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="47">
         <f>AVERAGE(F15:F17)</f>
         <v>7.1443284137181803E-2</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <f>($W$23*C15+$W$24*E15+$W$25*G15)/(SUM($W$23:$W$25))</f>
         <v>6.5111915174504917E-2</v>
       </c>
@@ -2466,30 +2479,30 @@
       <c r="K15" s="11">
         <v>7.1379124139467398E-2</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="47">
         <f>MEDIAN(K15:K17)</f>
         <v>7.1379124139467398E-2</v>
       </c>
       <c r="M15" s="11">
         <v>5.7886575281730801E-2</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="47">
         <f>MEDIAN(M15:M17)</f>
         <v>5.7886575281730801E-2</v>
       </c>
       <c r="O15" s="11">
         <v>8.7422888426353498E-2</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="47">
         <f>MEDIAN(O15:O17)</f>
         <v>7.6267651032206202E-2</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="52">
         <f>($W$23*L15+$W$24*N15+$W$25*P15)/(SUM($W$23:$W$25))</f>
         <v>6.4696925763874383E-2</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" s="18">
         <f>L24-L27</f>
@@ -2509,60 +2522,60 @@
       <c r="B16" s="11">
         <v>6.7058986223676606E-2</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="11">
         <v>5.6710587697820301E-2</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="11">
         <v>7.0830775711056101E-2</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="53"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="52"/>
       <c r="J16" s="3"/>
       <c r="K16" s="11">
         <v>6.7365718630171698E-2</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="11">
         <v>5.65006276602407E-2</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="11">
         <v>7.6267651032206202E-2</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="53"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="11">
         <v>6.96583503766878E-2</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="11">
         <v>7.1311487906436197E-2</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="11">
         <v>6.31280365174689E-2</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="53"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="52"/>
       <c r="J17" s="3"/>
       <c r="K17" s="11">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="11">
         <v>7.19986148306693E-2</v>
       </c>
-      <c r="N17" s="45"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="11">
         <v>6.7533900880955899E-2</v>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="53"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2571,25 +2584,25 @@
       <c r="B18" s="11">
         <v>6.8172071750927404E-2</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="47">
         <f>AVERAGE(B18:B20)</f>
         <v>6.7709742313551161E-2</v>
       </c>
       <c r="D18" s="11">
         <v>5.7708708211640203E-2</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="47">
         <f>AVERAGE(D18:D20)</f>
         <v>6.1429161048441171E-2</v>
       </c>
       <c r="F18" s="11">
         <v>7.9069769694414593E-2</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="47">
         <f>AVERAGE(F18:F20)</f>
         <v>7.1008744388667333E-2</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="52">
         <f>($W$23*C18+$W$24*E18+$W$25*G18)/(SUM($W$23:$W$25))</f>
         <v>6.4812390455530569E-2</v>
       </c>
@@ -2599,25 +2612,25 @@
       <c r="K18" s="11">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="47">
         <f>MEDIAN(K18:K20)</f>
         <v>7.1658949142852799E-2</v>
       </c>
       <c r="M18" s="11">
         <v>5.76888327677514E-2</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="47">
         <f>MEDIAN(M18:M20)</f>
         <v>5.76888327677514E-2</v>
       </c>
       <c r="O18" s="11">
         <v>8.6255822033710905E-2</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="47">
         <f>MEDIAN(O18:O20)</f>
         <v>7.53138680040491E-2</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="52">
         <f>($W$23*L18+$W$24*N18+$W$25*P18)/(SUM($W$23:$W$25))</f>
         <v>6.4447336270062036E-2</v>
       </c>
@@ -2627,60 +2640,60 @@
       <c r="B19" s="11">
         <v>6.5504229927947494E-2</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="11">
         <v>5.5397693556751101E-2</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="11">
         <v>7.0367067541821898E-2</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="53"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="52"/>
       <c r="J19" s="3"/>
       <c r="K19" s="11">
         <v>6.5486319201291499E-2</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="11">
         <v>5.7002339182413403E-2</v>
       </c>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="11">
         <v>7.53138680040491E-2</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="53"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="11">
         <v>6.9452925261778597E-2</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="11">
         <v>7.1181081376932201E-2</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="11">
         <v>6.3589395929765494E-2</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="53"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="52"/>
       <c r="J20" s="3"/>
       <c r="K20" s="11">
         <v>7.1861082574962404E-2</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="11">
         <v>6.9973277500664802E-2</v>
       </c>
-      <c r="N20" s="45"/>
+      <c r="N20" s="47"/>
       <c r="O20" s="11">
         <v>6.2241632843124603E-2</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="53"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2689,25 +2702,25 @@
       <c r="B21" s="1">
         <v>6.7672302749483396E-2</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="47">
         <f>AVERAGE(B21:B23)</f>
         <v>6.7092309798615538E-2</v>
       </c>
       <c r="D21" s="11">
         <v>5.6805382344526402E-2</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="47">
         <f>AVERAGE(D21:D23)</f>
         <v>6.1138207157364004E-2</v>
       </c>
       <c r="F21" s="11">
         <v>7.8982865655960299E-2</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="47">
         <f>AVERAGE(F21:F23)</f>
         <v>6.8806777992149473E-2</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="52">
         <f>($W$23*C21+$W$24*E21+$W$25*G21)/(SUM($W$23:$W$25))</f>
         <v>6.405133585856003E-2</v>
       </c>
@@ -2717,25 +2730,25 @@
       <c r="K21" s="1">
         <v>6.6462238546876204E-2</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="48">
         <f>MEDIAN(K21:K23)</f>
         <v>6.6462238546876204E-2</v>
       </c>
       <c r="M21" s="11">
         <v>5.7014040575380003E-2</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="47">
         <f>MEDIAN(M21:M23)</f>
         <v>5.7014040575380003E-2</v>
       </c>
       <c r="O21" s="11">
         <v>8.6553946310278296E-2</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="47">
         <f>MEDIAN(O21:O23)</f>
         <v>7.5242262511045294E-2</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="52">
         <f>($W$23*L21+$W$24*N21+$W$25*P21)/(SUM($W$23:$W$25))</f>
         <v>6.2898439038972714E-2</v>
       </c>
@@ -2745,42 +2758,42 @@
       <c r="B22" s="1">
         <v>6.5652320155280802E-2</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="11">
         <v>5.4935696648041703E-2</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="11">
         <v>6.8325855507745503E-2</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="52"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1">
         <v>6.6204919313017696E-2</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="11">
         <v>5.61563383079038E-2</v>
       </c>
-      <c r="N22" s="45"/>
+      <c r="N22" s="47"/>
       <c r="O22" s="11">
         <v>7.5242262511045294E-2</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="53"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="52"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" t="s">
         <v>31</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>32</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>33</v>
-      </c>
-      <c r="X22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2788,32 +2801,32 @@
       <c r="B23" s="1">
         <v>6.7952306491082401E-2</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="11">
         <v>7.16735424795239E-2</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="11">
         <v>5.9111612812742603E-2</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="53"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="52"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1">
         <v>7.0486874797991705E-2</v>
       </c>
-      <c r="L23" s="54"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="11">
         <v>6.9927472235196506E-2</v>
       </c>
-      <c r="N23" s="45"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="11">
         <v>6.1573666728630599E-2</v>
       </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="53"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="52"/>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T23" s="1">
         <v>112</v>
@@ -2837,25 +2850,25 @@
       <c r="B24" s="11">
         <v>6.5480329197946996E-2</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="48">
         <f>AVERAGE(B24:B26)</f>
         <v>6.628938904341497E-2</v>
       </c>
       <c r="D24" s="11">
         <v>5.6733444435602499E-2</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="47">
         <f>AVERAGE(D24:D26)</f>
         <v>6.1258054748319336E-2</v>
       </c>
       <c r="F24" s="11">
         <v>7.6497532596067896E-2</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="47">
         <f>AVERAGE(F24:F26)</f>
         <v>6.7999791647574359E-2</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <f>($W$23*C24+$W$24*E24+$W$25*G24)/(SUM($W$23:$W$25))</f>
         <v>6.3774186980241912E-2</v>
       </c>
@@ -2865,30 +2878,30 @@
       <c r="K24" s="11">
         <v>6.7789870614468006E-2</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="47">
         <f>MEDIAN(K24:K26)</f>
         <v>6.7789870614468006E-2</v>
       </c>
       <c r="M24" s="11">
         <v>5.6230371687358803E-2</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="48">
         <f>MEDIAN(M24:M26)</f>
         <v>5.6230371687358803E-2</v>
       </c>
       <c r="O24" s="11">
         <v>8.3472339764663797E-2</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="48">
         <f>MEDIAN(O24:O26)</f>
         <v>7.3496751045362005E-2</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="52">
         <f>($W$23*L24+$W$24*N24+$W$25*P24)/(SUM($W$23:$W$25))</f>
         <v>6.2381255069697231E-2</v>
       </c>
       <c r="S24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T24" s="1">
         <v>286</v>
@@ -2910,32 +2923,32 @@
       <c r="B25" s="11">
         <v>6.4225149226713601E-2</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="11">
         <v>5.5531520094898902E-2</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="11">
         <v>6.9118774544960696E-2</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="52"/>
       <c r="J25" s="3"/>
       <c r="K25" s="11">
         <v>6.4652019824830403E-2</v>
       </c>
-      <c r="L25" s="45"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="11">
         <v>5.5242675022226302E-2</v>
       </c>
-      <c r="N25" s="54"/>
+      <c r="N25" s="48"/>
       <c r="O25" s="11">
         <v>7.3496751045362005E-2</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="53"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="52"/>
       <c r="S25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T25" s="1">
         <v>105</v>
@@ -2957,30 +2970,30 @@
       <c r="B26" s="11">
         <v>6.9162688705584299E-2</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="11">
         <v>7.1509199714456601E-2</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="11">
         <v>5.8383067801694499E-2</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="53"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="52"/>
       <c r="J26" s="3"/>
       <c r="K26" s="11">
         <v>7.1048213073988106E-2</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="11">
         <v>7.0532955029596001E-2</v>
       </c>
-      <c r="N26" s="54"/>
+      <c r="N26" s="48"/>
       <c r="O26" s="11">
         <v>6.2103065683624503E-2</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="53"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="52"/>
       <c r="T26">
         <f>SUM(T23:T25)</f>
         <v>503</v>
@@ -3001,25 +3014,25 @@
       <c r="B27" s="1">
         <v>6.6909980328561602E-2</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="47">
         <f>AVERAGE(B27:B29)</f>
         <v>6.5531730346049269E-2</v>
       </c>
       <c r="D27" s="1">
         <v>5.5495785432028301E-2</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="48">
         <f>AVERAGE(D27:D29)</f>
         <v>6.0899316163706807E-2</v>
       </c>
       <c r="F27" s="11">
         <v>7.8003634305718397E-2</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="53">
         <f>AVERAGE(F27:F29)</f>
         <v>6.8171580142263141E-2</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="52">
         <f>($W$23*C27+$W$24*E27+$W$25*G27)/(SUM($W$23:$W$25))</f>
         <v>6.3437724909065449E-2</v>
       </c>
@@ -3029,25 +3042,25 @@
       <c r="K27" s="11">
         <v>6.6176597216082503E-2</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="47">
         <f>MEDIAN(K27:K29)</f>
         <v>6.6176597216082503E-2</v>
       </c>
       <c r="M27" s="11">
         <v>5.7575047795679998E-2</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="47">
         <f>MEDIAN(M27:M29)</f>
         <v>5.7575047795679998E-2</v>
       </c>
       <c r="O27" s="11">
         <v>8.2114171097133398E-2</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="47">
         <f>MEDIAN(O27:O29)</f>
         <v>7.4565549814603699E-2</v>
       </c>
-      <c r="Q27" s="53">
+      <c r="Q27" s="52">
         <f>($W$23*L27+$W$24*N27+$W$25*P27)/(SUM($W$23:$W$25))</f>
         <v>6.3014543717755667E-2</v>
       </c>
@@ -3057,60 +3070,60 @@
       <c r="B28" s="1">
         <v>6.24146687917446E-2</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="1">
         <v>5.55611629388418E-2</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="11">
         <v>6.8047748726138599E-2</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="52"/>
       <c r="J28" s="3"/>
       <c r="K28" s="11">
         <v>6.3928533087228206E-2</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="11">
         <v>5.4487232520194502E-2</v>
       </c>
-      <c r="N28" s="45"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="11">
         <v>7.4565549814603699E-2</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="53"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>6.7270541917841598E-2</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="11">
         <v>7.1641000120250306E-2</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="11">
         <v>5.84633573949324E-2</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="52"/>
       <c r="J29" s="3"/>
       <c r="K29" s="11">
         <v>7.0172159463732398E-2</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="11">
         <v>7.0236956892604605E-2</v>
       </c>
-      <c r="N29" s="45"/>
+      <c r="N29" s="47"/>
       <c r="O29" s="11">
         <v>6.1236598919539302E-2</v>
       </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="53"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3119,25 +3132,25 @@
       <c r="B30" s="1">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="47">
         <f>AVERAGE(B30:B32)</f>
         <v>6.6404203228736594E-2</v>
       </c>
       <c r="D30" s="1">
         <v>5.6267879886338898E-2</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="47">
         <f>AVERAGE(D30:D32)</f>
         <v>6.0336784159349476E-2</v>
       </c>
       <c r="F30" s="11">
         <v>7.6961985529364396E-2</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="47">
         <f>AVERAGE(F30:F32)</f>
         <v>6.7663132924292504E-2</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <f>($W$23*C30+$W$24*E30+$W$25*G30)/(SUM($W$23:$W$25))</f>
         <v>6.3203705213148123E-2</v>
       </c>
@@ -3145,12 +3158,12 @@
         <v>110</v>
       </c>
       <c r="K30" s="11"/>
-      <c r="L30" s="45"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="11"/>
       <c r="N30" s="12"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="53">
+      <c r="P30" s="47"/>
+      <c r="Q30" s="52">
         <f>($W$23*L30+$W$24*N30+$W$25*P30)/(SUM($W$23:$W$25))</f>
         <v>0</v>
       </c>
@@ -3160,109 +3173,109 @@
       <c r="B31" s="1">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="11">
         <v>5.3872718332262599E-2</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="11">
         <v>6.8306258858999797E-2</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="52"/>
       <c r="J31" s="3"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="45"/>
+      <c r="L31" s="47"/>
       <c r="M31" s="11"/>
       <c r="N31" s="12"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="53"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>6.7377805306874206E-2</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="11">
         <v>7.0869754259446902E-2</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="11">
         <v>5.77211543845133E-2</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="53"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="52"/>
       <c r="J32" s="3"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="45"/>
+      <c r="L32" s="47"/>
       <c r="M32" s="11"/>
       <c r="N32" s="12"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="53"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="M33" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
+      <c r="A33" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="M33" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="E34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="E34" s="48" t="s">
+      <c r="F34" s="54"/>
+      <c r="H34" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="H34" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="48"/>
+      <c r="I34" s="54"/>
       <c r="K34" s="15"/>
-      <c r="N34" s="48" t="s">
+      <c r="N34" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="54"/>
+      <c r="Q34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="48"/>
-      <c r="Q34" s="48" t="s">
+      <c r="R34" s="54"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="48"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="U34" s="48"/>
+      <c r="U34" s="54"/>
       <c r="V34" s="1"/>
       <c r="W34" s="15"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
+      <c r="A35" s="45">
         <v>0.5</v>
       </c>
       <c r="B35" s="1">
@@ -3271,7 +3284,7 @@
       <c r="C35" s="11">
         <v>6.6806397192799905E-2</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="47">
         <f>AVERAGE(C35:C37)</f>
         <v>7.0187427062153335E-2</v>
       </c>
@@ -3281,7 +3294,7 @@
       <c r="F35" s="11">
         <v>5.6371879850239302E-2</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="47">
         <f>AVERAGE(F35:F37)</f>
         <v>6.0890493895103537E-2</v>
       </c>
@@ -3291,12 +3304,12 @@
       <c r="I35" s="11">
         <v>8.0824444201257103E-2</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="47">
         <f>AVERAGE(I35:I37)</f>
         <v>6.8833524447829794E-2</v>
       </c>
       <c r="K35" s="38"/>
-      <c r="M35" s="47">
+      <c r="M35" s="45">
         <v>0.5</v>
       </c>
       <c r="N35" s="15">
@@ -3305,7 +3318,7 @@
       <c r="O35" s="15">
         <v>6.5036391270512098E-2</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="47">
         <f>AVERAGE(O35:O37)</f>
         <v>6.6914236613407896E-2</v>
       </c>
@@ -3315,7 +3328,7 @@
       <c r="R35" s="11">
         <v>5.6426274988917301E-2</v>
       </c>
-      <c r="S35" s="45">
+      <c r="S35" s="47">
         <f>AVERAGE(R35:R37)</f>
         <v>6.0742759570178662E-2</v>
       </c>
@@ -3325,110 +3338,110 @@
       <c r="U35" s="11">
         <v>7.9470710334137606E-2</v>
       </c>
-      <c r="V35" s="45">
+      <c r="V35" s="47">
         <f>AVERAGE(U35:U37)</f>
         <v>6.8312680917337026E-2</v>
       </c>
       <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="1">
         <v>11</v>
       </c>
       <c r="C36" s="11">
         <v>7.2138421920273393E-2</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="15">
         <v>24</v>
       </c>
       <c r="F36" s="11">
         <v>5.3398720246436798E-2</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="15">
         <v>19</v>
       </c>
       <c r="I36" s="11">
         <v>6.7579705527433295E-2</v>
       </c>
-      <c r="J36" s="45"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="38"/>
-      <c r="M36" s="47"/>
+      <c r="M36" s="45"/>
       <c r="N36" s="15">
         <v>0</v>
       </c>
       <c r="O36" s="15">
         <v>6.7858722202437896E-2</v>
       </c>
-      <c r="P36" s="45"/>
+      <c r="P36" s="47"/>
       <c r="Q36" s="15">
         <v>10</v>
       </c>
       <c r="R36" s="11">
         <v>5.3722419154450897E-2</v>
       </c>
-      <c r="S36" s="45"/>
+      <c r="S36" s="47"/>
       <c r="T36" s="15">
         <v>6</v>
       </c>
       <c r="U36" s="11">
         <v>6.8711118687654796E-2</v>
       </c>
-      <c r="V36" s="45"/>
+      <c r="V36" s="47"/>
       <c r="W36" s="38"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="1">
         <v>10</v>
       </c>
       <c r="C37" s="11">
         <v>7.1617462073386706E-2</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="15">
         <v>51</v>
       </c>
       <c r="F37" s="11">
         <v>7.2900881588634503E-2</v>
       </c>
-      <c r="G37" s="45"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="15">
         <v>3</v>
       </c>
       <c r="I37" s="11">
         <v>5.8096423614798998E-2</v>
       </c>
-      <c r="J37" s="45"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="38"/>
-      <c r="M37" s="47"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="15">
         <v>0</v>
       </c>
       <c r="O37" s="15">
         <v>6.7847596367273694E-2</v>
       </c>
-      <c r="P37" s="45"/>
+      <c r="P37" s="47"/>
       <c r="Q37" s="15">
         <v>7</v>
       </c>
       <c r="R37" s="11">
         <v>7.2079584567167801E-2</v>
       </c>
-      <c r="S37" s="45"/>
+      <c r="S37" s="47"/>
       <c r="T37" s="15">
         <v>0</v>
       </c>
       <c r="U37" s="11">
         <v>5.6756213730218698E-2</v>
       </c>
-      <c r="V37" s="45"/>
+      <c r="V37" s="47"/>
       <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="47">
+      <c r="A38" s="45">
         <v>0.7</v>
       </c>
       <c r="B38" s="15">
@@ -3437,7 +3450,7 @@
       <c r="C38" s="11">
         <v>6.7235106850283999E-2</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="47">
         <f>AVERAGE(C38:C40)</f>
         <v>7.4662683647653869E-2</v>
       </c>
@@ -3447,7 +3460,7 @@
       <c r="F38" s="11">
         <v>5.5547796013478298E-2</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="47">
         <f>AVERAGE(F38:F40)</f>
         <v>6.0963376198093E-2</v>
       </c>
@@ -3457,12 +3470,12 @@
       <c r="I38" s="11">
         <v>8.0185321579367794E-2</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="47">
         <f>AVERAGE(I38:I40)</f>
         <v>6.8744780586681972E-2</v>
       </c>
       <c r="K38" s="38"/>
-      <c r="M38" s="47">
+      <c r="M38" s="45">
         <v>0.7</v>
       </c>
       <c r="N38" s="15">
@@ -3471,7 +3484,7 @@
       <c r="O38" s="11">
         <v>6.4963201462517398E-2</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="47">
         <f>AVERAGE(O38:O40)</f>
         <v>6.7210903648403639E-2</v>
       </c>
@@ -3481,7 +3494,7 @@
       <c r="R38" s="11">
         <v>5.6200141811319097E-2</v>
       </c>
-      <c r="S38" s="45">
+      <c r="S38" s="47">
         <f>AVERAGE(R38:R40)</f>
         <v>6.1254218989291363E-2</v>
       </c>
@@ -3491,69 +3504,69 @@
       <c r="U38" s="15">
         <v>7.7308006742691199E-2</v>
       </c>
-      <c r="V38" s="45">
+      <c r="V38" s="47">
         <f>AVERAGE(U38:U40)</f>
         <v>6.8454246790795939E-2</v>
       </c>
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="15">
         <v>16</v>
       </c>
       <c r="C39" s="11">
         <v>8.1706291912967799E-2</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="15">
         <v>38</v>
       </c>
       <c r="F39" s="11">
         <v>5.5301264208427202E-2</v>
       </c>
-      <c r="G39" s="45"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="15">
         <v>29</v>
       </c>
       <c r="I39" s="11">
         <v>6.8862295411958097E-2</v>
       </c>
-      <c r="J39" s="45"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="38"/>
-      <c r="M39" s="47"/>
+      <c r="M39" s="45"/>
       <c r="N39" s="15">
         <v>4</v>
       </c>
       <c r="O39" s="11">
         <v>6.6303535322565596E-2</v>
       </c>
-      <c r="P39" s="45"/>
+      <c r="P39" s="47"/>
       <c r="Q39" s="15">
         <v>14</v>
       </c>
       <c r="R39" s="11">
         <v>5.4666167375379597E-2</v>
       </c>
-      <c r="S39" s="45"/>
+      <c r="S39" s="47"/>
       <c r="T39" s="15">
         <v>9</v>
       </c>
       <c r="U39" s="11">
         <v>6.8202025546046902E-2</v>
       </c>
-      <c r="V39" s="45"/>
+      <c r="V39" s="47"/>
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="15">
         <v>14</v>
       </c>
       <c r="C40" s="11">
         <v>7.5046652179709794E-2</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="15">
         <f>158/2</f>
         <v>79</v>
@@ -3561,41 +3574,41 @@
       <c r="F40" s="11">
         <v>7.2041068372373507E-2</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="15">
         <v>5</v>
       </c>
       <c r="I40" s="11">
         <v>5.7186724768719999E-2</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="38"/>
-      <c r="M40" s="47"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="15">
         <v>3</v>
       </c>
       <c r="O40" s="11">
         <v>7.0365974160127895E-2</v>
       </c>
-      <c r="P40" s="45"/>
+      <c r="P40" s="47"/>
       <c r="Q40" s="15">
         <v>11</v>
       </c>
       <c r="R40" s="11">
         <v>7.2896347781175402E-2</v>
       </c>
-      <c r="S40" s="45"/>
+      <c r="S40" s="47"/>
       <c r="T40" s="15">
         <v>0</v>
       </c>
       <c r="U40" s="11">
         <v>5.9852708083649703E-2</v>
       </c>
-      <c r="V40" s="45"/>
+      <c r="V40" s="47"/>
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+      <c r="A41" s="45">
         <v>1</v>
       </c>
       <c r="B41" s="1">
@@ -3604,7 +3617,7 @@
       <c r="C41" s="11">
         <v>7.2948705018009499E-2</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="47">
         <f>AVERAGE(C41:C43)</f>
         <v>7.5693983546809229E-2</v>
       </c>
@@ -3615,7 +3628,7 @@
       <c r="F41" s="11">
         <v>5.53172922871683E-2</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="47">
         <f>AVERAGE(F41:F43)</f>
         <v>6.0997554055367602E-2</v>
       </c>
@@ -3625,12 +3638,12 @@
       <c r="I41" s="11">
         <v>7.92277283827999E-2</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="47">
         <f>AVERAGE(I41:I43)</f>
         <v>6.9232622479230246E-2</v>
       </c>
       <c r="K41" s="38"/>
-      <c r="M41" s="47">
+      <c r="M41" s="45">
         <v>1</v>
       </c>
       <c r="N41" s="15">
@@ -3639,7 +3652,7 @@
       <c r="O41" s="11">
         <v>6.5878245862859494E-2</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="57">
         <f>AVERAGE(O41:O43)</f>
         <v>6.70016910642042E-2</v>
       </c>
@@ -3649,7 +3662,7 @@
       <c r="R41" s="11">
         <v>5.6229323568643998E-2</v>
       </c>
-      <c r="S41" s="46">
+      <c r="S41" s="57">
         <f>AVERAGE(R41:R43)</f>
         <v>6.0728277463775203E-2</v>
       </c>
@@ -3659,21 +3672,21 @@
       <c r="U41" s="11">
         <v>7.8034710699150397E-2</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="57">
         <f>AVERAGE(U41:U43)</f>
         <v>6.7948957168824833E-2</v>
       </c>
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="1">
         <v>25</v>
       </c>
       <c r="C42" s="11">
         <v>7.8920769607244604E-2</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="1">
         <f>112/2</f>
         <v>56</v>
@@ -3681,48 +3694,48 @@
       <c r="F42" s="11">
         <v>5.4264222451447998E-2</v>
       </c>
-      <c r="G42" s="45"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="1">
         <v>45</v>
       </c>
       <c r="I42" s="11">
         <v>6.8102272288924001E-2</v>
       </c>
-      <c r="J42" s="45"/>
+      <c r="J42" s="47"/>
       <c r="K42" s="38"/>
-      <c r="M42" s="47"/>
+      <c r="M42" s="45"/>
       <c r="N42" s="15">
         <v>6</v>
       </c>
       <c r="O42" s="11">
         <v>6.50848234335374E-2</v>
       </c>
-      <c r="P42" s="46"/>
+      <c r="P42" s="57"/>
       <c r="Q42" s="15">
         <v>7</v>
       </c>
       <c r="R42" s="11">
         <v>5.5249343220708798E-2</v>
       </c>
-      <c r="S42" s="46"/>
+      <c r="S42" s="57"/>
       <c r="T42" s="15">
         <v>2</v>
       </c>
       <c r="U42" s="11">
         <v>6.8622127138108294E-2</v>
       </c>
-      <c r="V42" s="46"/>
+      <c r="V42" s="57"/>
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="1">
         <v>23</v>
       </c>
       <c r="C43" s="11">
         <v>7.5212476015173599E-2</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="1">
         <f>242/2</f>
         <v>121</v>
@@ -3730,48 +3743,48 @@
       <c r="F43" s="11">
         <v>7.3411147427486501E-2</v>
       </c>
-      <c r="G43" s="45"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="1">
         <v>9</v>
       </c>
       <c r="I43" s="11">
         <v>6.0367866765966803E-2</v>
       </c>
-      <c r="J43" s="45"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="38"/>
-      <c r="M43" s="47"/>
+      <c r="M43" s="45"/>
       <c r="N43" s="15">
         <v>5</v>
       </c>
       <c r="O43" s="11">
         <v>7.0042003896215704E-2</v>
       </c>
-      <c r="P43" s="46"/>
+      <c r="P43" s="57"/>
       <c r="Q43" s="15">
         <v>0</v>
       </c>
       <c r="R43" s="11">
         <v>7.0706165601972806E-2</v>
       </c>
-      <c r="S43" s="46"/>
+      <c r="S43" s="57"/>
       <c r="T43" s="15">
         <v>0</v>
       </c>
       <c r="U43" s="11">
         <v>5.7190033669215802E-2</v>
       </c>
-      <c r="V43" s="46"/>
+      <c r="V43" s="57"/>
       <c r="W43" s="38"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
+      <c r="A44" s="45">
         <v>1.2</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="11">
         <v>6.9503285203305704E-2</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="47">
         <f>AVERAGE(C44:C46)</f>
         <v>7.5930225008503605E-2</v>
       </c>
@@ -3779,7 +3792,7 @@
       <c r="F44" s="11">
         <v>5.7055735255908201E-2</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="47">
         <f>AVERAGE(F44:F46)</f>
         <v>6.1538690244933331E-2</v>
       </c>
@@ -3787,12 +3800,12 @@
       <c r="I44" s="11">
         <v>8.2175312482866206E-2</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="47">
         <f>AVERAGE(I44:I46)</f>
         <v>6.8649956605932733E-2</v>
       </c>
       <c r="K44" s="38"/>
-      <c r="M44" s="47">
+      <c r="M44" s="45">
         <v>1.2</v>
       </c>
       <c r="N44" s="15">
@@ -3801,7 +3814,7 @@
       <c r="O44" s="11">
         <v>6.6633283515927302E-2</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44" s="46">
         <f>AVERAGE(O44:O46)</f>
         <v>6.7644435570287334E-2</v>
       </c>
@@ -3811,7 +3824,7 @@
       <c r="R44" s="11">
         <v>5.69825721868088E-2</v>
       </c>
-      <c r="S44" s="50">
+      <c r="S44" s="46">
         <f>AVERAGE(R44:R46)</f>
         <v>6.1353796617326629E-2</v>
       </c>
@@ -3821,114 +3834,114 @@
       <c r="U44" s="11">
         <v>7.8387624711468595E-2</v>
       </c>
-      <c r="V44" s="50">
+      <c r="V44" s="46">
         <f>AVERAGE(U44:U46)</f>
         <v>6.7935187044256232E-2</v>
       </c>
       <c r="W44" s="38"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="45"/>
       <c r="C45" s="1">
         <v>8.2544014718036102E-2</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="47"/>
       <c r="F45" s="1">
         <v>5.5563601418040301E-2</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="47"/>
       <c r="I45" s="1">
         <v>6.5133674708902897E-2</v>
       </c>
-      <c r="J45" s="45"/>
-      <c r="M45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="M45" s="45"/>
       <c r="N45" s="15">
         <v>7</v>
       </c>
       <c r="O45" s="11">
         <v>6.6647076502901595E-2</v>
       </c>
-      <c r="P45" s="50"/>
+      <c r="P45" s="46"/>
       <c r="Q45" s="15">
         <v>27</v>
       </c>
       <c r="R45" s="11">
         <v>5.4689835231897299E-2</v>
       </c>
-      <c r="S45" s="50"/>
+      <c r="S45" s="46"/>
       <c r="T45" s="15">
         <v>18</v>
       </c>
       <c r="U45" s="11">
         <v>6.67316008164512E-2</v>
       </c>
-      <c r="V45" s="50"/>
+      <c r="V45" s="46"/>
       <c r="W45" s="38"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="45"/>
       <c r="C46" s="1">
         <v>7.5743375104168995E-2</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="47"/>
       <c r="F46" s="1">
         <v>7.1996734060851497E-2</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="47"/>
       <c r="I46" s="1">
         <v>5.8640882626029102E-2</v>
       </c>
-      <c r="J46" s="45"/>
-      <c r="M46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="M46" s="45"/>
       <c r="N46" s="15">
         <v>6</v>
       </c>
       <c r="O46" s="11">
         <v>6.9652946692033105E-2</v>
       </c>
-      <c r="P46" s="50"/>
+      <c r="P46" s="46"/>
       <c r="Q46" s="15">
         <v>21</v>
       </c>
       <c r="R46" s="11">
         <v>7.2388982433273796E-2</v>
       </c>
-      <c r="S46" s="50"/>
+      <c r="S46" s="46"/>
       <c r="T46" s="15">
         <v>2</v>
       </c>
       <c r="U46" s="11">
         <v>5.8686335604848899E-2</v>
       </c>
-      <c r="V46" s="50"/>
+      <c r="V46" s="46"/>
       <c r="W46" s="38"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+      <c r="A47" s="45">
         <v>1.5</v>
       </c>
       <c r="C47" s="1">
         <v>7.5683645246998194E-2</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="47">
         <f>AVERAGE(C47:C49)</f>
         <v>7.7470775812007897E-2</v>
       </c>
       <c r="F47" s="1">
         <v>5.6912279303189602E-2</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="47">
         <f>AVERAGE(F47:F49)</f>
         <v>6.0953216965779232E-2</v>
       </c>
       <c r="I47" s="1">
         <v>8.2315559672507699E-2</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="47">
         <f>AVERAGE(I47:I49)</f>
         <v>7.3874628754879351E-2</v>
       </c>
-      <c r="M47" s="47">
+      <c r="M47" s="45">
         <v>1.5</v>
       </c>
       <c r="N47" s="15">
@@ -3937,7 +3950,7 @@
       <c r="O47" s="11">
         <v>6.9537868187763197E-2</v>
       </c>
-      <c r="P47" s="50">
+      <c r="P47" s="46">
         <f>AVERAGE(O47:O49)</f>
         <v>6.9950465285597535E-2</v>
       </c>
@@ -3947,7 +3960,7 @@
       <c r="R47" s="11">
         <v>5.6938411718859799E-2</v>
       </c>
-      <c r="S47" s="50">
+      <c r="S47" s="46">
         <f>AVERAGE(R47:R49)</f>
         <v>6.1099658609353236E-2</v>
       </c>
@@ -3957,104 +3970,104 @@
       <c r="U47" s="11">
         <v>7.9706294210901293E-2</v>
       </c>
-      <c r="V47" s="50">
+      <c r="V47" s="46">
         <f>AVERAGE(U47:U49)</f>
         <v>6.8692859889733504E-2</v>
       </c>
       <c r="W47" s="38"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="45"/>
       <c r="C48" s="1">
         <v>8.0870450534842098E-2</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="47"/>
       <c r="F48" s="1">
         <v>5.4506614622459197E-2</v>
       </c>
-      <c r="G48" s="45"/>
+      <c r="G48" s="47"/>
       <c r="I48" s="1">
         <v>6.5433697837251004E-2</v>
       </c>
-      <c r="J48" s="45"/>
-      <c r="M48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="15">
         <v>10</v>
       </c>
       <c r="O48" s="11">
         <v>7.1109476603882005E-2</v>
       </c>
-      <c r="P48" s="50"/>
+      <c r="P48" s="46"/>
       <c r="Q48" s="15">
         <v>34</v>
       </c>
       <c r="R48" s="11">
         <v>5.4391483163116101E-2</v>
       </c>
-      <c r="S48" s="50"/>
+      <c r="S48" s="46"/>
       <c r="T48" s="15">
         <v>23</v>
       </c>
       <c r="U48" s="11">
         <v>6.8614239231452101E-2</v>
       </c>
-      <c r="V48" s="50"/>
+      <c r="V48" s="46"/>
       <c r="W48" s="38"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="A49" s="45"/>
       <c r="C49" s="1">
         <v>7.58582316541834E-2</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="47"/>
       <c r="F49" s="1">
         <v>7.1440756971688904E-2</v>
       </c>
-      <c r="G49" s="45"/>
+      <c r="G49" s="47"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="45"/>
-      <c r="M49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="15">
         <v>8</v>
       </c>
       <c r="O49" s="11">
         <v>6.9204051065147404E-2</v>
       </c>
-      <c r="P49" s="50"/>
+      <c r="P49" s="46"/>
       <c r="Q49" s="15">
         <v>27</v>
       </c>
       <c r="R49" s="11">
         <v>7.1969080946083799E-2</v>
       </c>
-      <c r="S49" s="50"/>
+      <c r="S49" s="46"/>
       <c r="T49" s="15">
         <v>2</v>
       </c>
       <c r="U49" s="11">
         <v>5.7758046226847097E-2</v>
       </c>
-      <c r="V49" s="50"/>
+      <c r="V49" s="46"/>
       <c r="W49" s="38"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="47">
+      <c r="A50" s="45">
         <v>1.7</v>
       </c>
-      <c r="D50" s="45" t="e">
+      <c r="D50" s="47" t="e">
         <f>AVERAGE(C50:C52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="45" t="e">
+      <c r="G50" s="47" t="e">
         <f>AVERAGE(F50:F52)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="42"/>
-      <c r="J50" s="45" t="e">
+      <c r="J50" s="47" t="e">
         <f>AVERAGE(I50:I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="47">
+      <c r="M50" s="45">
         <v>1.7</v>
       </c>
       <c r="N50" s="15">
@@ -4063,7 +4076,7 @@
       <c r="O50" s="11">
         <v>6.7278801378468006E-2</v>
       </c>
-      <c r="P50" s="50">
+      <c r="P50" s="46">
         <f>AVERAGE(O50:O52)</f>
         <v>7.1400612050443804E-2</v>
       </c>
@@ -4073,7 +4086,7 @@
       <c r="R50" s="11">
         <v>5.5260951818783897E-2</v>
       </c>
-      <c r="S50" s="50">
+      <c r="S50" s="46">
         <f>AVERAGE(R50:R52)</f>
         <v>6.0832309340733436E-2</v>
       </c>
@@ -4083,99 +4096,99 @@
       <c r="U50" s="11">
         <v>8.0642694264930703E-2</v>
       </c>
-      <c r="V50" s="50">
+      <c r="V50" s="46">
         <f>AVERAGE(U50:U52)</f>
         <v>6.8208604230275471E-2</v>
       </c>
       <c r="W50" s="38"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="45"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="42"/>
-      <c r="G51" s="45"/>
+      <c r="G51" s="47"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="45"/>
-      <c r="M51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="1">
         <v>11</v>
       </c>
       <c r="O51" s="1">
         <v>7.575440468446E-2</v>
       </c>
-      <c r="P51" s="50"/>
+      <c r="P51" s="46"/>
       <c r="Q51" s="1">
         <v>40</v>
       </c>
       <c r="R51" s="1">
         <v>5.4996185422315297E-2</v>
       </c>
-      <c r="S51" s="50"/>
+      <c r="S51" s="46"/>
       <c r="T51" s="1">
         <v>27</v>
       </c>
       <c r="U51" s="1">
         <v>6.6099527204354802E-2</v>
       </c>
-      <c r="V51" s="50"/>
+      <c r="V51" s="46"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
-      <c r="D52" s="45"/>
+      <c r="A52" s="45"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="42"/>
-      <c r="G52" s="45"/>
+      <c r="G52" s="47"/>
       <c r="I52" s="42"/>
-      <c r="J52" s="45"/>
-      <c r="M52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="M52" s="45"/>
       <c r="N52" s="1">
         <v>9</v>
       </c>
       <c r="O52" s="1">
         <v>7.1168630088403406E-2</v>
       </c>
-      <c r="P52" s="50"/>
+      <c r="P52" s="46"/>
       <c r="Q52" s="1">
         <v>33</v>
       </c>
       <c r="R52" s="1">
         <v>7.2239790781101099E-2</v>
       </c>
-      <c r="S52" s="50"/>
+      <c r="S52" s="46"/>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1">
         <v>5.7883591221540902E-2</v>
       </c>
-      <c r="V52" s="50"/>
+      <c r="V52" s="46"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="47">
+      <c r="A53" s="45">
         <v>2</v>
       </c>
-      <c r="D53" s="45" t="e">
+      <c r="D53" s="47" t="e">
         <f>AVERAGE(C53:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="42"/>
-      <c r="G53" s="45" t="e">
+      <c r="G53" s="47" t="e">
         <f>AVERAGE(F53:F55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="42"/>
-      <c r="J53" s="45" t="e">
+      <c r="J53" s="47" t="e">
         <f>AVERAGE(I53:I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="47">
+      <c r="M53" s="45">
         <v>2</v>
       </c>
       <c r="O53" s="1">
         <v>7.0525855560078093E-2</v>
       </c>
-      <c r="P53" s="50">
+      <c r="P53" s="46">
         <f>AVERAGE(O53:O55)</f>
         <v>6.9490512225892795E-2</v>
       </c>
@@ -4185,7 +4198,7 @@
       <c r="R53" s="1">
         <v>5.67309228172337E-2</v>
       </c>
-      <c r="S53" s="50">
+      <c r="S53" s="46">
         <f>AVERAGE(R53:R55)</f>
         <v>6.1610069359005599E-2</v>
       </c>
@@ -4195,66 +4208,66 @@
       <c r="U53" s="1">
         <v>8.2203610508146702E-2</v>
       </c>
-      <c r="V53" s="50">
+      <c r="V53" s="46">
         <f>AVERAGE(U53:U55)</f>
         <v>6.9289106424540295E-2</v>
       </c>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="45"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="42"/>
-      <c r="G54" s="45"/>
+      <c r="G54" s="47"/>
       <c r="I54" s="42"/>
-      <c r="J54" s="45"/>
-      <c r="M54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="M54" s="45"/>
       <c r="O54" s="1">
         <v>7.2793813151280196E-2</v>
       </c>
-      <c r="P54" s="50"/>
+      <c r="P54" s="46"/>
       <c r="Q54" s="1">
         <v>48</v>
       </c>
       <c r="R54" s="1">
         <v>5.5705042723388401E-2</v>
       </c>
-      <c r="S54" s="50"/>
+      <c r="S54" s="46"/>
       <c r="T54" s="1">
         <v>33</v>
       </c>
       <c r="U54" s="1">
         <v>6.7266358340107094E-2</v>
       </c>
-      <c r="V54" s="50"/>
+      <c r="V54" s="46"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="D55" s="45"/>
+      <c r="A55" s="45"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="42"/>
-      <c r="G55" s="45"/>
+      <c r="G55" s="47"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="45"/>
-      <c r="M55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="M55" s="45"/>
       <c r="O55" s="1">
         <v>6.5151867966320096E-2</v>
       </c>
-      <c r="P55" s="50"/>
+      <c r="P55" s="46"/>
       <c r="Q55" s="42">
         <v>3</v>
       </c>
       <c r="R55" s="42">
         <v>7.2394242536394704E-2</v>
       </c>
-      <c r="S55" s="50"/>
+      <c r="S55" s="46"/>
       <c r="T55" s="42">
         <v>3</v>
       </c>
       <c r="U55" s="42">
         <v>5.8397350425367103E-2</v>
       </c>
-      <c r="V55" s="50"/>
+      <c r="V55" s="46"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -4267,88 +4280,88 @@
     </row>
     <row r="58" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
+      <c r="A61" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
+      <c r="A63" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4356,7 +4369,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
       <c r="G65" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -4364,7 +4377,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="4"/>
       <c r="M65" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
@@ -4373,56 +4386,56 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N66" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O66" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P66" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="17">
         <v>6.4205137364492099E-2</v>
@@ -4439,7 +4452,7 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67" s="16">
         <v>6.4435660352339705E-2</v>
@@ -4456,7 +4469,7 @@
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N67" s="17">
         <v>9.5461617888562805E-2</v>
@@ -4474,7 +4487,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="16">
         <v>7.7200950299973994E-2</v>
@@ -4491,7 +4504,7 @@
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="16">
         <v>7.8411973020322795E-2</v>
@@ -4508,7 +4521,7 @@
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N68" s="17">
         <v>0.14920477585033301</v>
@@ -4526,7 +4539,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="16">
         <v>0.52060439560439498</v>
@@ -4543,7 +4556,7 @@
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69" s="16">
         <v>6.0033486407122201E-2</v>
@@ -4560,7 +4573,7 @@
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N69" s="17">
         <v>9.1801063236875605E-2</v>
@@ -4578,13 +4591,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="16">
         <v>5.1830543048671303E-2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16">
         <f>B70</f>
@@ -4592,13 +4605,13 @@
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H70" s="16">
         <v>5.6489620629774501E-2</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="24">
@@ -4607,13 +4620,13 @@
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N70" s="17">
         <v>9.2161794166827599E-2</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P70" s="17"/>
       <c r="Q70" s="24">
@@ -4623,7 +4636,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="1">
@@ -4638,7 +4651,7 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="1">
@@ -4653,10 +4666,10 @@
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O71" s="1">
         <v>9.9871830840606204E-2</v>
@@ -4671,11 +4684,11 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72" s="16">
         <f>D72</f>
@@ -4683,11 +4696,11 @@
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="24">
@@ -4696,16 +4709,16 @@
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q72" s="24" t="str">
         <f>P72</f>
@@ -4714,7 +4727,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="16">
         <v>6.8956902002724099E-2</v>
@@ -4731,7 +4744,7 @@
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" s="16">
         <v>7.11976491218589E-2</v>
@@ -4748,7 +4761,7 @@
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N73" s="17">
         <v>0.114238995745105</v>
@@ -4766,7 +4779,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" s="13">
         <v>6.4205137364492099E-2</v>
@@ -4783,7 +4796,7 @@
       </c>
       <c r="F74"/>
       <c r="G74" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H74" s="13">
         <v>6.6944127723381694E-2</v>
@@ -4800,7 +4813,7 @@
       </c>
       <c r="L74"/>
       <c r="M74" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N74" s="13">
         <v>0.11257732476549</v>
@@ -4818,7 +4831,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4826,7 +4839,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="4"/>
       <c r="G76" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -4834,7 +4847,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="4"/>
       <c r="M76" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N76" s="41"/>
       <c r="O76" s="41"/>
@@ -4843,56 +4856,56 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O77" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P77" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="17">
         <v>0.60699755899104901</v>
@@ -4909,7 +4922,7 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" s="16">
         <v>0.60048820179007301</v>
@@ -4926,7 +4939,7 @@
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N78" s="17">
         <v>0.327095199349064</v>
@@ -4944,7 +4957,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="16">
         <v>0.52060439560439498</v>
@@ -4961,7 +4974,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="16">
         <v>0.50068681318681296</v>
@@ -4978,7 +4991,7 @@
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N79" s="17">
         <v>0.130494505494505</v>
@@ -4996,7 +5009,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" s="16">
         <v>0.68239795918367296</v>
@@ -5013,7 +5026,7 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="16">
         <v>0.64285714285714202</v>
@@ -5030,7 +5043,7 @@
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N80" s="17">
         <v>0.34821428571428498</v>
@@ -5048,13 +5061,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="16">
         <v>0.71045918367346905</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="16">
         <f>B81</f>
@@ -5062,13 +5075,13 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="16">
         <v>0.66198979591836704</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="24">
@@ -5077,16 +5090,16 @@
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N81" s="17">
         <v>0.29591836734693799</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q81" s="24">
         <f>N81</f>
@@ -5095,7 +5108,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="1">
@@ -5110,7 +5123,7 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="1">
@@ -5125,10 +5138,10 @@
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O82" s="1">
         <v>0.29487179487179399</v>
@@ -5143,11 +5156,11 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="16">
         <f>D83</f>
@@ -5155,11 +5168,11 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="24">
@@ -5168,16 +5181,16 @@
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q83" s="24" t="str">
         <f>P83</f>
@@ -5186,7 +5199,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="13">
         <v>0.56095947063689</v>
@@ -5203,7 +5216,7 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H84" s="13">
         <v>0.54540942928039704</v>
@@ -5220,7 +5233,7 @@
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" s="13">
         <v>0.24582299421009099</v>
@@ -5245,64 +5258,64 @@
       <c r="Q85" s="16"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
+      <c r="A90" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
       <c r="L92" s="4"/>
       <c r="M92" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" s="41"/>
       <c r="O92" s="41"/>
@@ -5311,56 +5324,56 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N93" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O93" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P93" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="17">
         <v>6.7653340615458094E-2</v>
@@ -5377,7 +5390,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94" s="16">
         <v>6.6835536030820097E-2</v>
@@ -5394,7 +5407,7 @@
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N94" s="17">
         <v>9.6601241692864201E-2</v>
@@ -5412,7 +5425,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" s="16">
         <v>6.9214388343993502E-2</v>
@@ -5429,7 +5442,7 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="16">
         <v>7.4678242973854198E-2</v>
@@ -5446,7 +5459,7 @@
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N95" s="17">
         <v>0.15143556704970701</v>
@@ -5464,7 +5477,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="16">
         <v>4.9455805220286198E-2</v>
@@ -5481,7 +5494,7 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="16">
         <v>4.8491050285278899E-2</v>
@@ -5498,7 +5511,7 @@
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N96" s="17">
         <v>8.0907952173924894E-2</v>
@@ -5516,16 +5529,16 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" s="16">
         <v>4.6452883502081897E-2</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" s="16">
         <f>B97</f>
@@ -5533,13 +5546,13 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H97" s="16">
         <v>4.7031771657737899E-2</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="24">
@@ -5548,13 +5561,13 @@
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N97" s="17">
         <v>8.9480552387698406E-2</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P97" s="17"/>
       <c r="Q97" s="24">
@@ -5564,10 +5577,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" s="16">
         <v>6.8600444548765696E-2</v>
@@ -5581,7 +5594,7 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H98" s="16"/>
       <c r="I98" s="16">
@@ -5596,7 +5609,7 @@
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N98" s="17"/>
       <c r="O98" s="15">
@@ -5612,13 +5625,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" s="16">
         <v>5.4959634276458301E-2</v>
@@ -5629,11 +5642,11 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J99" s="16">
         <v>6.7716711473661303E-2</v>
@@ -5644,11 +5657,11 @@
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N99" s="17"/>
       <c r="O99" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P99" s="17">
         <v>0.111530807923978</v>
@@ -5660,7 +5673,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100" s="16">
         <v>6.1583429329644501E-2</v>
@@ -5677,7 +5690,7 @@
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H100" s="16">
         <v>6.2774043226858395E-2</v>
@@ -5694,7 +5707,7 @@
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N100" s="17">
         <v>0.11581195620423899</v>
@@ -5712,7 +5725,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" s="13">
         <v>6.0391677577450099E-2</v>
@@ -5729,7 +5742,7 @@
       </c>
       <c r="F101"/>
       <c r="G101" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H101" s="13">
         <v>6.2338953978905501E-2</v>
@@ -5746,7 +5759,7 @@
       </c>
       <c r="L101"/>
       <c r="M101" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N101" s="13">
         <v>0.11581195620423899</v>
@@ -5768,7 +5781,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B103" s="40"/>
       <c r="C103" s="40"/>
@@ -5776,7 +5789,7 @@
       <c r="E103" s="40"/>
       <c r="F103" s="4"/>
       <c r="G103" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H103" s="40"/>
       <c r="I103" s="40"/>
@@ -5784,7 +5797,7 @@
       <c r="K103" s="40"/>
       <c r="L103" s="4"/>
       <c r="M103" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
@@ -5793,56 +5806,56 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I104" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J104" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N104" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O104" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P104" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="17">
         <v>0.548579970104633</v>
@@ -5859,7 +5872,7 @@
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105" s="16">
         <v>0.59342301943198805</v>
@@ -5876,7 +5889,7 @@
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N105" s="17">
         <v>0.318385650224215</v>
@@ -5894,7 +5907,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" s="16">
         <v>0.57663690476190399</v>
@@ -5911,7 +5924,7 @@
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H106" s="16">
         <v>0.52008928571428503</v>
@@ -5928,7 +5941,7 @@
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N106" s="17">
         <v>0.12202380952380899</v>
@@ -5946,7 +5959,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="16">
         <v>0.72767857142857095</v>
@@ -5963,7 +5976,7 @@
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="16">
         <v>0.73065476190476097</v>
@@ -5980,7 +5993,7 @@
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N107" s="17">
         <v>0.398809523809523</v>
@@ -5998,13 +6011,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="16">
         <v>0.74255952380952295</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108" s="24">
         <f>B108</f>
@@ -6012,13 +6025,13 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" s="16">
         <v>0.75148809523809501</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="24">
@@ -6027,13 +6040,13 @@
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N108" s="17">
         <v>0.29910714285714202</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P108" s="17"/>
       <c r="Q108" s="24">
@@ -6043,7 +6056,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="1">
@@ -6058,7 +6071,7 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="1">
@@ -6073,7 +6086,7 @@
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N109" s="17"/>
       <c r="O109" s="1">
@@ -6089,11 +6102,11 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" s="1">
         <v>0.66666666666666596</v>
@@ -6104,11 +6117,11 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110" s="16">
         <v>0.54285714285714204</v>
@@ -6119,11 +6132,11 @@
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N110" s="17"/>
       <c r="O110" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P110" s="17">
         <v>0.15952380952380901</v>
@@ -6135,7 +6148,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111" s="13">
         <v>0.62759526938239096</v>
@@ -6152,7 +6165,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H111" s="13">
         <v>0.62128777923784495</v>
@@ -6169,7 +6182,7 @@
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N111" s="13">
         <v>0.24415243101182599</v>
@@ -6204,79 +6217,54 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="A1:Q3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="M33:W33"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A61:Q62"/>
+    <mergeCell ref="A63:Q64"/>
+    <mergeCell ref="A90:Q91"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="Q15:Q17"/>
     <mergeCell ref="Q18:Q20"/>
     <mergeCell ref="L30:L32"/>
@@ -6301,54 +6289,79 @@
     <mergeCell ref="P24:P26"/>
     <mergeCell ref="P27:P29"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A61:Q62"/>
-    <mergeCell ref="A63:Q64"/>
-    <mergeCell ref="A90:Q91"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="M33:W33"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="A1:Q3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="P53:P55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6373,7 +6386,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -6384,7 +6397,7 @@
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
       <c r="L1" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M1" s="59"/>
       <c r="N1" s="59"/>
@@ -6397,51 +6410,51 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="13">
         <v>0.66</v>
@@ -6456,7 +6469,7 @@
         <v>0.66</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6465,7 +6478,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="13">
         <v>0.72</v>
@@ -6480,15 +6493,15 @@
         <v>0.66</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="13">
         <v>0.59</v>
@@ -6503,7 +6516,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6512,7 +6525,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M4" s="13">
         <v>0.57999999999999996</v>
@@ -6527,15 +6540,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="13">
         <v>0.83</v>
@@ -6550,7 +6563,7 @@
         <v>0.83</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -6559,7 +6572,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M5" s="13">
         <v>0.81</v>
@@ -6574,15 +6587,15 @@
         <v>0.83</v>
       </c>
       <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s">
         <v>81</v>
-      </c>
-      <c r="S5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="13">
         <v>0.49</v>
@@ -6597,7 +6610,7 @@
         <v>0.37</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6606,7 +6619,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M6" s="13">
         <v>0.49</v>
@@ -6621,15 +6634,15 @@
         <v>0.37</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="13">
         <v>0.57999999999999996</v>
@@ -6644,7 +6657,7 @@
         <v>0.61</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -6653,7 +6666,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M7" s="13">
         <v>0.6</v>
@@ -6668,15 +6681,15 @@
         <v>0.61</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13">
         <v>0.59</v>
@@ -6691,7 +6704,7 @@
         <v>0.63</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -6700,7 +6713,7 @@
         <v>8</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="13">
         <v>0.65</v>
@@ -6715,10 +6728,10 @@
         <v>0.63</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -6727,7 +6740,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -6738,7 +6751,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
       <c r="L10" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M10" s="59"/>
       <c r="N10" s="59"/>
@@ -6751,49 +6764,49 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="N11" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="O11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="P11" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0.64</v>
@@ -6805,10 +6818,10 @@
         <v>0.65</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -6817,7 +6830,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="13">
         <v>0.65</v>
@@ -6829,18 +6842,18 @@
         <v>0.68</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>0.49</v>
@@ -6852,10 +6865,10 @@
         <v>0.47</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -6864,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M13" s="13">
         <v>0.5</v>
@@ -6876,18 +6889,18 @@
         <v>0.52</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>0.81</v>
@@ -6899,10 +6912,10 @@
         <v>0.68</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -6911,7 +6924,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" s="13">
         <v>0.79</v>
@@ -6923,18 +6936,18 @@
         <v>0.81</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.49</v>
@@ -6946,10 +6959,10 @@
         <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -6958,7 +6971,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="13">
         <v>0.44</v>
@@ -6970,18 +6983,18 @@
         <v>0.45</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>0.56999999999999995</v>
@@ -6993,10 +7006,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -7005,7 +7018,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="13">
         <v>0.59</v>
@@ -7017,18 +7030,18 @@
         <v>0.6</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0.61</v>
@@ -7040,10 +7053,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -7052,7 +7065,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="13">
         <v>0.61</v>
@@ -7064,13 +7077,13 @@
         <v>0.62</v>
       </c>
       <c r="P17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/results/final_results_general.xlsx
+++ b/results/final_results_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/Horse Project/pain_horses/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Documents/Research/Horse Project/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA026C78-AED2-5843-9DC1-0F3B65258B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA57F7D-1BCF-824A-A283-C63A6678EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0191389C-6AB9-A648-B9C7-C6F469575E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pose" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
   <si>
     <t>Hopenet</t>
   </si>
@@ -338,15 +338,6 @@
     <t>Sheep + best data aug (0.7 - inverted)</t>
   </si>
   <si>
-    <t>second formula</t>
-  </si>
-  <si>
-    <t>second formula - aug 0,3</t>
-  </si>
-  <si>
-    <t>error formula  (with mean)</t>
-  </si>
-  <si>
     <t>error formula  (with median)</t>
   </si>
   <si>
@@ -354,6 +345,12 @@
   </si>
   <si>
     <t>profile (100) - AUG 1,1</t>
+  </si>
+  <si>
+    <t>tilted (100) - 0.1</t>
+  </si>
+  <si>
+    <t>frontal (90) - 0.2</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -567,40 +564,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,17 +578,8 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -635,12 +596,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -662,12 +617,6 @@
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,6 +630,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A46036E-CB54-2C42-A95C-97C5483F5007}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,57 +1014,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1318,20 +1318,20 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1574,38 +1574,38 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1979,3994 +1979,3507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C4F4AF-9A48-0049-8D88-E613F789908B}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView topLeftCell="A27" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
-    <col min="2" max="2" width="11.1640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="32"/>
-    <col min="4" max="4" width="23.1640625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="32"/>
-    <col min="7" max="7" width="13" style="32" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="32"/>
-    <col min="10" max="10" width="20.1640625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="16" style="32" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="32"/>
-    <col min="13" max="13" width="13.83203125" style="32" customWidth="1"/>
-    <col min="14" max="16" width="10.83203125" style="32"/>
-    <col min="17" max="17" width="16.1640625" style="32" customWidth="1"/>
-    <col min="18" max="36" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="11.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="23.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="25"/>
+    <col min="7" max="7" width="13" style="25" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="25"/>
+    <col min="10" max="10" width="20.1640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="16" style="25" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="25"/>
+    <col min="13" max="13" width="13.83203125" style="25" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="25"/>
+    <col min="17" max="17" width="16.1640625" style="25" customWidth="1"/>
+    <col min="18" max="36" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="S3" s="30" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="S3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="J4" s="31" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="T4" s="33" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="T4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="24">
         <f>C15-C18</f>
         <v>-1.5391851831771108E-4</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="24">
         <f>E15-E18</f>
         <v>-9.6666292546300492E-4</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="24">
         <f>G15-G18</f>
         <v>4.6370816923420322E-4</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>30</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="25">
         <v>7.4242327387638293E-2</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="62">
         <f>MEDIAN(B6:B8)</f>
         <v>7.3860453066262696E-2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="25">
         <v>6.1696994372274397E-2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="62">
         <f>MEDIAN(D6:D8)</f>
         <v>6.1696994372274397E-2</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="25">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="62">
         <f>MEDIAN(F6:F8)</f>
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="69">
         <f>($W$23*C6+$W$24*E6+$W$25*G6)/(SUM($W$23:$W$25))</f>
         <v>6.6855010755952904E-2</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="28">
         <v>30</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="25">
         <v>7.3257090143794099E-2</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="62">
         <f>AVERAGE(K6:K8)</f>
         <v>7.2889806178740926E-2</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="25">
         <v>6.0717728591802501E-2</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="62">
         <f>AVERAGE(M6:M8)</f>
         <v>6.4560967973394667E-2</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="25">
         <v>8.8653346922190901E-2</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="62">
         <f>AVERAGE(O6:O8)</f>
         <v>8.0419631048924564E-2</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="69">
         <f>($W$23*L6+$W$24*N6+$W$25*P6)/(SUM($W$23:$W$25))</f>
         <v>6.9704494438118839E-2</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="24">
         <f>C18-C21</f>
         <v>4.9976900144400871E-4</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="24">
         <f>E18-E21</f>
         <v>9.0332586711380086E-4</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="24">
         <f>G18-G21</f>
         <v>2.0412120340763951E-3</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="32">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25">
         <v>6.9446403885711994E-2</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="32">
+      <c r="C7" s="62"/>
+      <c r="D7" s="25">
         <v>5.9450284371242099E-2</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32">
+      <c r="E7" s="62"/>
+      <c r="F7" s="25">
         <v>7.7228516504569605E-2</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="32">
+      <c r="G7" s="62"/>
+      <c r="H7" s="69"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="25">
         <v>7.0553584743528894E-2</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="32">
+      <c r="L7" s="62"/>
+      <c r="M7" s="25">
         <v>5.9046912536127198E-2</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="32">
+      <c r="N7" s="62"/>
+      <c r="O7" s="25">
         <v>7.8717723527882505E-2</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="S7" s="29" t="s">
+      <c r="P7" s="62"/>
+      <c r="Q7" s="69"/>
+      <c r="S7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="24">
         <f>C21-C24</f>
         <v>2.1919735515363997E-3</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="24">
         <f>E21-E24</f>
         <v>7.1937908923902505E-5</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="24">
         <f>G21-G24</f>
         <v>-7.929190372151923E-4</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25">
         <v>7.3860453066262696E-2</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="32">
+      <c r="C8" s="62"/>
+      <c r="D8" s="25">
         <v>7.6643324650328706E-2</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32">
+      <c r="E8" s="62"/>
+      <c r="F8" s="25">
         <v>6.7878392288932707E-2</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="32">
+      <c r="G8" s="62"/>
+      <c r="H8" s="69"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="25">
         <v>7.48587436488998E-2</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="32">
+      <c r="L8" s="62"/>
+      <c r="M8" s="25">
         <v>7.3918262792254302E-2</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="32">
+      <c r="N8" s="62"/>
+      <c r="O8" s="25">
         <v>7.38878226967003E-2</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="S8" s="29" t="s">
+      <c r="P8" s="62"/>
+      <c r="Q8" s="69"/>
+      <c r="S8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="24">
         <f>C24-C27</f>
         <v>-1.4296511306146065E-3</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="24">
         <f>E24-E27</f>
         <v>1.1722814967606993E-3</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="24">
         <f>G24-G27</f>
         <v>1.0710258188220967E-3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="28">
         <v>40</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="25">
         <v>7.1497860283077599E-2</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="62">
         <f t="shared" ref="C9" si="0">MEDIAN(B9:B11)</f>
         <v>7.1497860283077599E-2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="25">
         <v>5.9349428534691002E-2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="62">
         <f t="shared" ref="E9" si="1">MEDIAN(D9:D11)</f>
         <v>5.9349428534691002E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="25">
         <v>8.3560462216687698E-2</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="62">
         <f t="shared" ref="G9" si="2">MEDIAN(F9:F11)</f>
         <v>7.3461217334773302E-2</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="69">
         <f>($W$23*C9+$W$24*E9+$W$25*G9)/(SUM($W$23:$W$25))</f>
         <v>6.4973644532551958E-2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="28">
         <v>40</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="25">
         <v>6.9393627994051105E-2</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="62">
         <f t="shared" ref="L9" si="3">AVERAGE(K9:K11)</f>
         <v>6.9509262378462902E-2</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="25">
         <v>6.0177999656592797E-2</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="62">
         <f t="shared" ref="N9" si="4">AVERAGE(M9:M11)</f>
         <v>6.3601095841892427E-2</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="25">
         <v>8.8443218396520598E-2</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="62">
         <f t="shared" ref="P9" si="5">AVERAGE(O9:O11)</f>
         <v>7.9589207055253797E-2</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="69">
         <f>($W$23*L9+$W$24*N9+$W$25*P9)/(SUM($W$23:$W$25))</f>
         <v>6.8236415457386859E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="32">
+      <c r="A10" s="28"/>
+      <c r="B10" s="25">
         <v>6.7785441472090202E-2</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="32">
+      <c r="C10" s="62"/>
+      <c r="D10" s="25">
         <v>5.8160575031858203E-2</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32">
+      <c r="E10" s="62"/>
+      <c r="F10" s="25">
         <v>7.3461217334773302E-2</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="32">
+      <c r="G10" s="62"/>
+      <c r="H10" s="69"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="25">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="32">
+      <c r="L10" s="62"/>
+      <c r="M10" s="25">
         <v>5.7773532681844798E-2</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="32">
+      <c r="N10" s="62"/>
+      <c r="O10" s="25">
         <v>8.1712911887184297E-2</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="S10" s="30" t="s">
+      <c r="P10" s="62"/>
+      <c r="Q10" s="69"/>
+      <c r="S10" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="32">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25">
         <v>7.2055204994254204E-2</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="32">
+      <c r="C11" s="62"/>
+      <c r="D11" s="25">
         <v>7.3558733973963203E-2</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="32">
+      <c r="E11" s="62"/>
+      <c r="F11" s="25">
         <v>6.2961988668695804E-2</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="32">
+      <c r="G11" s="62"/>
+      <c r="H11" s="69"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="25">
         <v>6.9567079570668794E-2</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="32">
+      <c r="L11" s="62"/>
+      <c r="M11" s="25">
         <v>7.28517551872397E-2</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="32">
+      <c r="N11" s="62"/>
+      <c r="O11" s="25">
         <v>6.8611490882056494E-2</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="T11" s="33" t="s">
+      <c r="P11" s="62"/>
+      <c r="Q11" s="69"/>
+      <c r="T11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="33" t="s">
+      <c r="U11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="33" t="s">
+      <c r="V11" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="28">
         <v>50</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="25">
         <v>6.8635828291996298E-2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="62">
         <f t="shared" ref="C12" si="6">MEDIAN(B12:B14)</f>
         <v>6.8635828291996298E-2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="25">
         <v>5.9744135075925499E-2</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="62">
         <f t="shared" ref="E12" si="7">MEDIAN(D12:D14)</f>
         <v>5.9744135075925499E-2</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="25">
         <v>8.0799485610991206E-2</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="62">
         <f t="shared" ref="G12" si="8">MEDIAN(F12:F14)</f>
         <v>7.1556499938398493E-2</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="69">
         <f>($W$23*C12+$W$24*E12+$W$25*G12)/(SUM($W$23:$W$25))</f>
         <v>6.4169551966522936E-2</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="28">
         <v>50</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="25">
         <v>7.0837146146167498E-2</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="62">
         <f t="shared" ref="L12" si="9">AVERAGE(K12:K14)</f>
         <v>6.9176833606287694E-2</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="25">
         <v>5.96260758245062E-2</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="62">
         <f t="shared" ref="N12" si="10">AVERAGE(M12:M14)</f>
         <v>6.3355739084567597E-2</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="25">
         <v>8.4834733054653999E-2</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="62">
         <f t="shared" ref="P12" si="11">AVERAGE(O12:O14)</f>
         <v>7.5941889086706307E-2</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="69">
         <f>($W$23*L12+$W$24*N12+$W$25*P12)/(SUM($W$23:$W$25))</f>
         <v>6.7263431318606584E-2</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="24">
         <f>L15-L18</f>
         <v>4.6581366446174499E-4</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="24">
         <f>N15-N18</f>
         <v>5.7378944060373221E-4</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="24">
         <f>P15-P18</f>
         <v>2.471039152876997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="32">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25">
         <v>6.7532651859739001E-2</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="32">
+      <c r="C13" s="62"/>
+      <c r="D13" s="25">
         <v>5.8063937040338402E-2</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32">
+      <c r="E13" s="62"/>
+      <c r="F13" s="25">
         <v>7.1556499938398493E-2</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="32">
+      <c r="G13" s="62"/>
+      <c r="H13" s="69"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="25">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="32">
+      <c r="L13" s="62"/>
+      <c r="M13" s="25">
         <v>5.8238875439599401E-2</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="32">
+      <c r="N13" s="62"/>
+      <c r="O13" s="25">
         <v>7.7103854147694606E-2</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="S13" s="29" t="s">
+      <c r="P13" s="62"/>
+      <c r="Q13" s="69"/>
+      <c r="S13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="24">
         <f>L18-L21</f>
         <v>1.9507727537403652E-3</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="24">
         <f>N18-N21</f>
         <v>5.2219944411642516E-4</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="24">
         <f>P18-P21</f>
         <v>1.4714911031013522E-4</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="32">
+      <c r="A14" s="28"/>
+      <c r="B14" s="25">
         <v>7.2096912766163604E-2</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="32">
+      <c r="C14" s="62"/>
+      <c r="D14" s="25">
         <v>7.3553919379286098E-2</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32">
+      <c r="E14" s="62"/>
+      <c r="F14" s="25">
         <v>6.3436042984151703E-2</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="32">
+      <c r="G14" s="62"/>
+      <c r="H14" s="69"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="25">
         <v>6.8346677336347805E-2</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="32">
+      <c r="L14" s="62"/>
+      <c r="M14" s="25">
         <v>7.2202265989597197E-2</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="32">
+      <c r="N14" s="62"/>
+      <c r="O14" s="25">
         <v>6.5887080057770303E-2</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="S14" s="29" t="s">
+      <c r="P14" s="62"/>
+      <c r="Q14" s="69"/>
+      <c r="S14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="24">
         <f>L21-L24</f>
         <v>-1.1202361846696096E-4</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="24">
         <f>N21-N24</f>
         <v>3.6394979309974096E-4</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="24">
         <f>P21-P24-G31</f>
         <v>1.4325730187679658E-3</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="29">
         <v>60</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="30">
         <v>6.8018153232609693E-2</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="62">
         <f t="shared" ref="C15" si="12">MEDIAN(B15:B17)</f>
         <v>6.8018153232609693E-2</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="30">
         <v>5.6742045286177198E-2</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="62">
         <f t="shared" ref="E15" si="13">MEDIAN(D15:D17)</f>
         <v>5.6742045286177198E-2</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="30">
         <v>8.0371040183020395E-2</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="62">
         <f t="shared" ref="G15" si="14">MEDIAN(F15:F17)</f>
         <v>7.0830775711056101E-2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="69">
         <f>($W$23*C15+$W$24*E15+$W$25*G15)/(SUM($W$23:$W$25))</f>
         <v>6.2168606848666617E-2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="31">
         <v>60</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="30">
         <v>7.1379124139467398E-2</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="62">
         <f t="shared" ref="L15" si="15">AVERAGE(K15:K17)</f>
         <v>7.0134597304163979E-2</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="30">
         <v>5.7886575281730801E-2</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="62">
         <f t="shared" ref="N15" si="16">AVERAGE(M15:M17)</f>
         <v>6.2128605924213598E-2</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="30">
         <v>8.7422888426353498E-2</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="62">
         <f t="shared" ref="P15" si="17">AVERAGE(O15:O17)</f>
         <v>7.70748134465052E-2</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="69">
         <f>($W$23*L15+$W$24*N15+$W$25*P15)/(SUM($W$23:$W$25))</f>
         <v>6.7010760340618106E-2</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="24">
         <f>L24-L27</f>
         <v>1.0709379154144605E-3</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="24">
         <f>N24-N27</f>
         <v>-9.7745156432675617E-5</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="24">
         <f>P24-P27</f>
         <v>3.8527888745797101E-4</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30">
         <v>6.7058986223676606E-2</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39">
+      <c r="C16" s="62"/>
+      <c r="D16" s="30">
         <v>5.6710587697820301E-2</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="39">
+      <c r="E16" s="62"/>
+      <c r="F16" s="30">
         <v>7.0830775711056101E-2</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="39">
+      <c r="G16" s="62"/>
+      <c r="H16" s="69"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30">
         <v>6.7365718630171698E-2</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="39">
+      <c r="L16" s="62"/>
+      <c r="M16" s="30">
         <v>5.65006276602407E-2</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="39">
+      <c r="N16" s="62"/>
+      <c r="O16" s="30">
         <v>7.6267651032206202E-2</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30">
         <v>6.96583503766878E-2</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="39">
+      <c r="C17" s="62"/>
+      <c r="D17" s="30">
         <v>7.1311487906436197E-2</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="39">
+      <c r="E17" s="62"/>
+      <c r="F17" s="30">
         <v>6.31280365174689E-2</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="39">
+      <c r="G17" s="62"/>
+      <c r="H17" s="69"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="39">
+      <c r="L17" s="62"/>
+      <c r="M17" s="30">
         <v>7.19986148306693E-2</v>
       </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="39">
+      <c r="N17" s="62"/>
+      <c r="O17" s="30">
         <v>6.7533900880955899E-2</v>
       </c>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
+      <c r="A18" s="31">
         <v>70</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="30">
         <v>6.8172071750927404E-2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="62">
         <f t="shared" ref="C18" si="18">MEDIAN(B18:B20)</f>
         <v>6.8172071750927404E-2</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="30">
         <v>5.7708708211640203E-2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="62">
         <f t="shared" ref="E18" si="19">MEDIAN(D18:D20)</f>
         <v>5.7708708211640203E-2</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="30">
         <v>7.9069769694414593E-2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="62">
         <f t="shared" ref="G18" si="20">MEDIAN(F18:F20)</f>
         <v>7.0367067541821898E-2</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="69">
         <f>($W$23*C18+$W$24*E18+$W$25*G18)/(SUM($W$23:$W$25))</f>
         <v>6.26577477235256E-2</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="31">
         <v>70</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="30">
         <v>7.1658949142852799E-2</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="62">
         <f t="shared" ref="L18" si="21">AVERAGE(K18:K20)</f>
         <v>6.9668783639702234E-2</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="30">
         <v>5.76888327677514E-2</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="62">
         <f t="shared" ref="N18" si="22">AVERAGE(M18:M20)</f>
         <v>6.1554816483609866E-2</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="30">
         <v>8.6255822033710905E-2</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="62">
         <f t="shared" ref="P18" si="23">AVERAGE(O18:O20)</f>
         <v>7.4603774293628203E-2</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="69">
         <f>($W$23*L18+$W$24*N18+$W$25*P18)/(SUM($W$23:$W$25))</f>
         <v>6.606578501326392E-2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30">
         <v>6.5504229927947494E-2</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="39">
+      <c r="C19" s="62"/>
+      <c r="D19" s="30">
         <v>5.5397693556751101E-2</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39">
+      <c r="E19" s="62"/>
+      <c r="F19" s="30">
         <v>7.0367067541821898E-2</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="39">
+      <c r="G19" s="62"/>
+      <c r="H19" s="69"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30">
         <v>6.5486319201291499E-2</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="39">
+      <c r="L19" s="62"/>
+      <c r="M19" s="30">
         <v>5.7002339182413403E-2</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="39">
+      <c r="N19" s="62"/>
+      <c r="O19" s="30">
         <v>7.53138680040491E-2</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30">
         <v>6.9452925261778597E-2</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="39">
+      <c r="C20" s="62"/>
+      <c r="D20" s="30">
         <v>7.1181081376932201E-2</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="39">
+      <c r="E20" s="62"/>
+      <c r="F20" s="30">
         <v>6.3589395929765494E-2</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="39">
+      <c r="G20" s="62"/>
+      <c r="H20" s="69"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30">
         <v>7.1861082574962404E-2</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="39">
+      <c r="L20" s="62"/>
+      <c r="M20" s="30">
         <v>6.9973277500664802E-2</v>
       </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="39">
+      <c r="N20" s="62"/>
+      <c r="O20" s="30">
         <v>6.2241632843124603E-2</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
+      <c r="A21" s="31">
         <v>80</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="25">
         <v>6.7672302749483396E-2</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="62">
         <f t="shared" ref="C21" si="24">MEDIAN(B21:B23)</f>
         <v>6.7672302749483396E-2</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="30">
         <v>5.6805382344526402E-2</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="62">
         <f t="shared" ref="E21" si="25">MEDIAN(D21:D23)</f>
         <v>5.6805382344526402E-2</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="30">
         <v>7.8982865655960299E-2</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="62">
         <f t="shared" ref="G21" si="26">MEDIAN(F21:F23)</f>
         <v>6.8325855507745503E-2</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="69">
         <f>($W$23*C21+$W$24*E21+$W$25*G21)/(SUM($W$23:$W$25))</f>
         <v>6.1606702347218038E-2</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="31">
         <v>80</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="25">
         <v>6.6462238546876204E-2</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="62">
         <f t="shared" ref="L21" si="27">AVERAGE(K21:K23)</f>
         <v>6.7718010885961868E-2</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="30">
         <v>5.7014040575380003E-2</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="62">
         <f t="shared" ref="N21" si="28">AVERAGE(M21:M23)</f>
         <v>6.1032617039493441E-2</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="30">
         <v>8.6553946310278296E-2</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="62">
         <f t="shared" ref="P21" si="29">AVERAGE(O21:O23)</f>
         <v>7.4456625183318068E-2</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="69">
         <f>($W$23*L21+$W$24*N21+$W$25*P21)/(SUM($W$23:$W$25))</f>
         <v>6.5305852336269996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="32">
+      <c r="A22" s="31"/>
+      <c r="B22" s="25">
         <v>6.5652320155280802E-2</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="39">
+      <c r="C22" s="62"/>
+      <c r="D22" s="30">
         <v>5.4935696648041703E-2</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="39">
+      <c r="E22" s="62"/>
+      <c r="F22" s="30">
         <v>6.8325855507745503E-2</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="32">
+      <c r="G22" s="62"/>
+      <c r="H22" s="69"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="25">
         <v>6.6204919313017696E-2</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="39">
+      <c r="L22" s="62"/>
+      <c r="M22" s="30">
         <v>5.61563383079038E-2</v>
       </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="39">
+      <c r="N22" s="62"/>
+      <c r="O22" s="30">
         <v>7.5242262511045294E-2</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32" t="s">
+      <c r="P22" s="62"/>
+      <c r="Q22" s="69"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="29" t="s">
+      <c r="U22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="W22" s="29" t="s">
+      <c r="W22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="X22" s="29" t="s">
+      <c r="X22" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="32">
+      <c r="A23" s="31"/>
+      <c r="B23" s="25">
         <v>6.7952306491082401E-2</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="39">
+      <c r="C23" s="62"/>
+      <c r="D23" s="30">
         <v>7.16735424795239E-2</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="39">
+      <c r="E23" s="62"/>
+      <c r="F23" s="30">
         <v>5.9111612812742603E-2</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="32">
+      <c r="G23" s="62"/>
+      <c r="H23" s="69"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="25">
         <v>7.0486874797991705E-2</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="39">
+      <c r="L23" s="62"/>
+      <c r="M23" s="30">
         <v>6.9927472235196506E-2</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="39">
+      <c r="N23" s="62"/>
+      <c r="O23" s="30">
         <v>6.1573666728630599E-2</v>
       </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-      <c r="S23" s="29" t="s">
+      <c r="P23" s="62"/>
+      <c r="Q23" s="69"/>
+      <c r="S23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="32">
+      <c r="T23" s="25">
         <v>112</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="24">
         <v>258</v>
       </c>
-      <c r="W23" s="29">
+      <c r="W23" s="24">
         <f>U23/3</f>
         <v>86</v>
       </c>
-      <c r="X23" s="29">
+      <c r="X23" s="24">
         <f>(SUM(T23:U23)*0.3)</f>
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+      <c r="A24" s="31">
         <v>90</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="30">
         <v>6.5480329197946996E-2</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="61">
         <f t="shared" ref="C24" si="30">MEDIAN(B24:B26)</f>
         <v>6.5480329197946996E-2</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="30">
         <v>5.6733444435602499E-2</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="62">
         <f t="shared" ref="E24" si="31">MEDIAN(D24:D26)</f>
         <v>5.6733444435602499E-2</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="30">
         <v>7.6497532596067896E-2</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="62">
         <f t="shared" ref="G24" si="32">MEDIAN(F24:F26)</f>
         <v>6.9118774544960696E-2</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="69">
         <f>($W$23*C24+$W$24*E24+$W$25*G24)/(SUM($W$23:$W$25))</f>
         <v>6.1246153506090015E-2</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="31">
         <v>90</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="30">
         <v>6.7789870614468006E-2</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="70">
         <f t="shared" ref="L24" si="33">AVERAGE(K24:K26)</f>
         <v>6.7830034504428829E-2</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="30">
         <v>5.6230371687358803E-2</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="62">
         <f t="shared" ref="N24" si="34">AVERAGE(M24:M26)</f>
         <v>6.06686672463937E-2</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="30">
         <v>8.3472339764663797E-2</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="62">
         <f t="shared" ref="P24" si="35">AVERAGE(O24:O26)</f>
         <v>7.3024052164550102E-2</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="69">
         <f>($W$23*L24+$W$24*N24+$W$25*P24)/(SUM($W$23:$W$25))</f>
         <v>6.4824615222130691E-2</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T24" s="25">
         <v>286</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="24">
         <v>666</v>
       </c>
-      <c r="W24" s="29">
+      <c r="W24" s="24">
         <f>U24/3</f>
         <v>222</v>
       </c>
-      <c r="X24" s="29">
+      <c r="X24" s="24">
         <f>(SUM(T24:U24)*0.3)</f>
         <v>285.59999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39">
+      <c r="A25" s="31"/>
+      <c r="B25" s="30">
         <v>6.4225149226713601E-2</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="39">
+      <c r="C25" s="61"/>
+      <c r="D25" s="30">
         <v>5.5531520094898902E-2</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="39">
+      <c r="E25" s="62"/>
+      <c r="F25" s="30">
         <v>6.9118774544960696E-2</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="39">
+      <c r="G25" s="62"/>
+      <c r="H25" s="69"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30">
         <v>6.4652019824830403E-2</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="39">
+      <c r="L25" s="70"/>
+      <c r="M25" s="30">
         <v>5.5242675022226302E-2</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="39">
+      <c r="N25" s="62"/>
+      <c r="O25" s="30">
         <v>7.3496751045362005E-2</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="S25" s="29" t="s">
+      <c r="P25" s="62"/>
+      <c r="Q25" s="69"/>
+      <c r="S25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T25" s="25">
         <v>105</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="24">
         <v>243</v>
       </c>
-      <c r="W25" s="29">
+      <c r="W25" s="24">
         <f>U25/3</f>
         <v>81</v>
       </c>
-      <c r="X25" s="29">
+      <c r="X25" s="24">
         <f>(SUM(T25:U25)*0.3)</f>
         <v>104.39999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30">
         <v>6.9162688705584299E-2</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39">
+      <c r="C26" s="61"/>
+      <c r="D26" s="30">
         <v>7.1509199714456601E-2</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="39">
+      <c r="E26" s="62"/>
+      <c r="F26" s="30">
         <v>5.8383067801694499E-2</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="39">
+      <c r="G26" s="62"/>
+      <c r="H26" s="69"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="30">
         <v>7.1048213073988106E-2</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="39">
+      <c r="L26" s="70"/>
+      <c r="M26" s="30">
         <v>7.0532955029596001E-2</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="39">
+      <c r="N26" s="62"/>
+      <c r="O26" s="30">
         <v>6.2103065683624503E-2</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="T26" s="29">
+      <c r="P26" s="62"/>
+      <c r="Q26" s="69"/>
+      <c r="T26" s="24">
         <f>SUM(T23:T25)</f>
         <v>503</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="24">
         <f>SUM(U23:U25)</f>
         <v>1167</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="24">
         <f>SUM(T23:U25)</f>
         <v>1670</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
+      <c r="A27" s="31">
         <v>100</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="25">
         <v>6.6909980328561602E-2</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="62">
         <f t="shared" ref="C27" si="36">MEDIAN(B27:B29)</f>
         <v>6.6909980328561602E-2</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="25">
         <v>5.5495785432028301E-2</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="61">
         <f t="shared" ref="E27" si="37">MEDIAN(D27:D29)</f>
         <v>5.55611629388418E-2</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="30">
         <v>7.8003634305718397E-2</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="61">
         <f t="shared" ref="G27" si="38">MEDIAN(F27:F29)</f>
         <v>6.8047748726138599E-2</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="69">
         <f>($W$23*C27+$W$24*E27+$W$25*G27)/(SUM($W$23:$W$25))</f>
         <v>6.0670190559116717E-2</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="31">
         <v>100</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="30">
         <v>6.6176597216082503E-2</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="62">
         <f t="shared" ref="L27" si="39">AVERAGE(K27:K29)</f>
         <v>6.6759096589014369E-2</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="30">
         <v>5.7575047795679998E-2</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="70">
         <f t="shared" ref="N27" si="40">AVERAGE(M27:M29)</f>
         <v>6.0766412402826375E-2</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="30">
         <v>8.2114171097133398E-2</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="70">
         <f t="shared" ref="P27" si="41">AVERAGE(O27:O29)</f>
         <v>7.2638773277092131E-2</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="69">
         <f>($W$23*L27+$W$24*N27+$W$25*P27)/(SUM($W$23:$W$25))</f>
         <v>6.4563410014208622E-2</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="32">
+      <c r="A28" s="31"/>
+      <c r="B28" s="25">
         <v>6.24146687917446E-2</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="32">
+      <c r="C28" s="62"/>
+      <c r="D28" s="25">
         <v>5.55611629388418E-2</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="39">
+      <c r="E28" s="61"/>
+      <c r="F28" s="30">
         <v>6.8047748726138599E-2</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="37"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="39">
+      <c r="G28" s="61"/>
+      <c r="H28" s="69"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="30">
         <v>6.3928533087228206E-2</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="39">
+      <c r="L28" s="62"/>
+      <c r="M28" s="30">
         <v>5.4487232520194502E-2</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="39">
+      <c r="N28" s="70"/>
+      <c r="O28" s="30">
         <v>7.4565549814603699E-2</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="37"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="32">
+      <c r="A29" s="31"/>
+      <c r="B29" s="25">
         <v>6.7270541917841598E-2</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="39">
+      <c r="C29" s="62"/>
+      <c r="D29" s="30">
         <v>7.1641000120250306E-2</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="39">
+      <c r="E29" s="61"/>
+      <c r="F29" s="30">
         <v>5.84633573949324E-2</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="37"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39">
+      <c r="G29" s="61"/>
+      <c r="H29" s="69"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="30">
         <v>7.0172159463732398E-2</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="39">
+      <c r="L29" s="62"/>
+      <c r="M29" s="30">
         <v>7.0236956892604605E-2</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="39">
+      <c r="N29" s="70"/>
+      <c r="O29" s="30">
         <v>6.1236598919539302E-2</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="37"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+      <c r="A30" s="31">
         <v>110</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="25">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="62">
         <f t="shared" ref="C30" si="42">MEDIAN(B30:B32)</f>
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="25">
         <v>5.6267879886338898E-2</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="62">
         <f t="shared" ref="E30" si="43">MEDIAN(D30:D32)</f>
         <v>5.6267879886338898E-2</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="30">
         <v>7.6961985529364396E-2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="62">
         <f t="shared" ref="G30" si="44">MEDIAN(F30:F32)</f>
         <v>6.8306258858999797E-2</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="69">
         <f>($W$23*C30+$W$24*E30+$W$25*G30)/(SUM($W$23:$W$25))</f>
         <v>6.0907899461844855E-2</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="31">
         <v>110</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37">
+      <c r="K30" s="30"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="69">
         <f>($W$23*L30+$W$24*N30+$W$25*P30)/(SUM($W$23:$W$25))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="32">
+      <c r="A31" s="31"/>
+      <c r="B31" s="25">
         <v>6.5917402189667795E-2</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="39">
+      <c r="C31" s="62"/>
+      <c r="D31" s="30">
         <v>5.3872718332262599E-2</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="39">
+      <c r="E31" s="62"/>
+      <c r="F31" s="30">
         <v>6.8306258858999797E-2</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="37"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="69"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="32">
+      <c r="A32" s="31"/>
+      <c r="B32" s="25">
         <v>6.7377805306874206E-2</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="39">
+      <c r="C32" s="62"/>
+      <c r="D32" s="30">
         <v>7.0869754259446902E-2</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="39">
+      <c r="E32" s="62"/>
+      <c r="F32" s="30">
         <v>5.77211543845133E-2</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="69"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="45"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="33"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="45"/>
+      <c r="A34" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="33"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
+      <c r="A35" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="24">
+        <v>6.4927241297216706E-2</v>
+      </c>
+      <c r="C35" s="62">
+        <f>AVERAGE(B35:B37)</f>
+        <v>6.6296919392409906E-2</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="30">
+        <v>5.6004931798926801E-2</v>
+      </c>
+      <c r="F35" s="39">
+        <f>AVERAGE(E35:E37)</f>
+        <v>6.0531387301384069E-2</v>
+      </c>
+      <c r="G35" s="30">
         <v>0.3</v>
       </c>
-      <c r="B35" s="39">
-        <v>6.4660911966909901E-2</v>
-      </c>
-      <c r="C35" s="36">
-        <f>AVERAGE(B35:B37)</f>
-        <v>6.7543291076595902E-2</v>
-      </c>
-      <c r="D35" s="48">
-        <v>5.66012066882043E-2</v>
-      </c>
-      <c r="E35" s="36">
-        <f>AVERAGE(D35:D37)</f>
-        <v>6.0352895245870231E-2</v>
-      </c>
-      <c r="F35" s="39">
-        <v>7.9958393444346507E-2</v>
-      </c>
-      <c r="G35" s="36">
-        <f>AVERAGE(F35:F37)</f>
-        <v>7.3355351242501268E-2</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="45"/>
+      <c r="H35" s="36">
+        <v>7.77527790046455E-2</v>
+      </c>
+      <c r="I35" s="62">
+        <f>AVERAGE(H35:H37)</f>
+        <v>6.7949838880448532E-2</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="33"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="39">
-        <v>6.6640949906789204E-2</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="48">
-        <v>5.6388618130922399E-2</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="39">
-        <v>7.2437955298153403E-2</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="45"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24">
+        <v>6.4718449850807006E-2</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="30">
+        <v>5.54156830056491E-2</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="36">
+        <v>6.9513057117465499E-2</v>
+      </c>
+      <c r="I36" s="62"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="33"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="39">
-        <v>7.13280113560886E-2</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="48">
-        <v>6.8068860918484006E-2</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="39">
-        <v>6.7669704985003895E-2</v>
-      </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="45"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24">
+        <v>6.9245067029206006E-2</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="30">
+        <v>7.0173547099576294E-2</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="36">
+        <v>5.6583680519234597E-2</v>
+      </c>
+      <c r="I37" s="62"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="33"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="47">
+      <c r="A38" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="B38" s="24">
+        <v>6.7084376161189702E-2</v>
+      </c>
+      <c r="C38" s="64">
+        <f>AVERAGE(B38:B40)</f>
+        <v>6.6266153585599327E-2</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="30">
+        <v>5.6803344090789701E-2</v>
+      </c>
+      <c r="F38" s="32">
+        <f t="shared" ref="F38" si="45">AVERAGE(E38:E40)</f>
+        <v>6.2385925856165335E-2</v>
+      </c>
+      <c r="G38" s="30">
         <v>0.5</v>
       </c>
-      <c r="B38" s="39">
-        <v>6.8068860918484006E-2</v>
-      </c>
-      <c r="C38" s="36">
-        <f>AVERAGE(B38:B40)</f>
-        <v>6.7424803391808966E-2</v>
-      </c>
-      <c r="D38" s="48">
-        <v>5.3971933205843599E-2</v>
-      </c>
-      <c r="E38" s="36">
-        <f>AVERAGE(D38:D40)</f>
-        <v>5.9610603360443305E-2</v>
-      </c>
-      <c r="F38" s="39">
-        <v>8.8500757811272104E-2</v>
-      </c>
-      <c r="G38" s="36">
-        <f>AVERAGE(F38:F40)</f>
-        <v>7.7133233005592702E-2</v>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="45"/>
+      <c r="H38" s="36">
+        <v>7.5180664038819095E-2</v>
+      </c>
+      <c r="I38" s="62">
+        <f>AVERAGE(H38:H40)</f>
+        <v>6.6525425957722942E-2</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="33"/>
     </row>
     <row r="39" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="39">
-        <v>6.5756335149275494E-2</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="48">
-        <v>5.6040899413874398E-2</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="39">
-        <v>7.1449470602753001E-2</v>
-      </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="45"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="24">
+        <v>6.4528765203787697E-2</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="30">
+        <v>5.6329819088449098E-2</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="36">
+        <v>6.7254273268407397E-2</v>
+      </c>
+      <c r="I39" s="62"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="33"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="39">
-        <v>6.8449214107667397E-2</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="48">
-        <v>6.8818977461611905E-2</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="39">
-        <v>7.1449470602753001E-2</v>
-      </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="49"/>
-      <c r="AJ40" s="45"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="24">
+        <v>6.7185319391820597E-2</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="30">
+        <v>7.4024614389257198E-2</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="36">
+        <v>5.7141340565942299E-2</v>
+      </c>
+      <c r="I40" s="62"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="33"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+      <c r="A41" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="B41" s="30">
+        <v>6.4746769881807095E-2</v>
+      </c>
+      <c r="C41" s="62">
+        <f>AVERAGE(B41:B43)</f>
+        <v>6.6565488454171734E-2</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="30">
+        <v>5.6845317585489302E-2</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" ref="F41" si="46">AVERAGE(E41:E43)</f>
+        <v>6.1832375846760858E-2</v>
+      </c>
+      <c r="G41" s="30">
         <v>0.7</v>
       </c>
-      <c r="B41" s="39">
-        <v>6.5936791291674998E-2</v>
-      </c>
-      <c r="C41" s="36">
-        <f>AVERAGE(B41:B43)</f>
-        <v>6.7568298942736096E-2</v>
-      </c>
-      <c r="D41" s="48">
-        <v>5.7472136643404302E-2</v>
-      </c>
-      <c r="E41" s="36">
-        <f>AVERAGE(D41:D43)</f>
-        <v>6.1311141110829005E-2</v>
-      </c>
-      <c r="F41" s="39">
-        <v>9.0717233934835995E-2</v>
-      </c>
-      <c r="G41" s="36">
-        <f>AVERAGE(F41:F43)</f>
-        <v>7.9056308444812137E-2</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="45"/>
+      <c r="H41" s="36">
+        <v>7.5032509866874403E-2</v>
+      </c>
+      <c r="I41" s="62">
+        <f>AVERAGE(H41:H43)</f>
+        <v>6.7450528222832276E-2</v>
+      </c>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="33"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="39">
-        <v>6.7393152347987206E-2</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="48">
-        <v>5.6233978585202099E-2</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="39">
-        <v>7.6224383295719803E-2</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="45"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="30">
+        <v>6.5057417051323896E-2</v>
+      </c>
+      <c r="C42" s="62"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="30">
+        <v>5.6221816016071298E-2</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="36">
+        <v>6.7939338645913505E-2</v>
+      </c>
+      <c r="I42" s="62"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="33"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="39">
-        <v>6.9374953188546098E-2</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="48">
-        <v>7.0227308103880601E-2</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="39">
-        <v>7.0227308103880601E-2</v>
-      </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="45"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="24">
+        <v>6.9892278429384197E-2</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="30">
+        <v>7.2429993938722001E-2</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="36">
+        <v>5.93797361557089E-2</v>
+      </c>
+      <c r="I43" s="62"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="33"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="45"/>
+      <c r="A44" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="38">
+        <v>6.8296853704746599E-2</v>
+      </c>
+      <c r="C44" s="62">
+        <f>AVERAGE(B44:B46)</f>
+        <v>6.892263477501967E-2</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="H44" s="36">
+        <v>7.6210327871177597E-2</v>
+      </c>
+      <c r="I44" s="62">
+        <f>AVERAGE(H44:H46)</f>
+        <v>6.5309930612045666E-2</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="33"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="48"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="45"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30">
+        <v>6.7981985411000395E-2</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33">
+        <v>6.4829654413491297E-2</v>
+      </c>
+      <c r="I45" s="62"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="33"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A46" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="B46" s="39">
-        <v>6.3972273464490303E-2</v>
-      </c>
-      <c r="C46" s="51">
-        <f>AVERAGE(B46:B48)</f>
-        <v>6.5844801290510804E-2</v>
-      </c>
-      <c r="D46" s="48">
-        <v>5.6381464904288803E-2</v>
-      </c>
-      <c r="E46" s="51">
-        <f>AVERAGE(D46:D48)</f>
-        <v>5.9649371193487899E-2</v>
-      </c>
-      <c r="F46" s="39">
-        <v>8.4311760144423195E-2</v>
-      </c>
-      <c r="G46" s="36">
-        <f>AVERAGE(F46:F48)</f>
-        <v>7.4639560081369891E-2</v>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="47">
-        <v>60</v>
-      </c>
-      <c r="K46" s="39">
-        <v>6.7758773944899195E-2</v>
-      </c>
-      <c r="L46" s="36">
-        <f>AVERAGE(K46:K48)</f>
-        <v>6.8785975747318873E-2</v>
-      </c>
-      <c r="M46" s="48">
-        <v>5.5851672205385998E-2</v>
-      </c>
-      <c r="N46" s="36">
-        <f>AVERAGE(M46:M48)</f>
-        <v>6.1185643426760271E-2</v>
-      </c>
-      <c r="O46" s="39">
-        <v>8.7576269314875096E-2</v>
-      </c>
-      <c r="P46" s="36">
-        <f>AVERAGE(O46:O48)</f>
-        <v>7.652547364339278E-2</v>
-      </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="S46" s="29">
-        <v>6.7452758396014098E-2</v>
-      </c>
-      <c r="T46" s="36">
-        <f>AVERAGE(S46:S48)</f>
-        <v>6.7605417210432936E-2</v>
-      </c>
-      <c r="U46" s="48">
-        <v>5.7112720765056399E-2</v>
-      </c>
-      <c r="V46" s="36">
-        <f>AVERAGE(U46:U48)</f>
-        <v>6.192764414365387E-2</v>
-      </c>
-      <c r="W46" s="39">
-        <v>7.6142166538122599E-2</v>
-      </c>
-      <c r="X46" s="36">
-        <f>AVERAGE(W46:W48)</f>
-        <v>6.7696121703660864E-2</v>
-      </c>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AA46" s="29">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33">
+        <v>7.0489065209312002E-2</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33">
+        <v>5.4889809551468098E-2</v>
+      </c>
+      <c r="I46" s="62"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B47" s="24">
         <v>6.4927241297216706E-2</v>
       </c>
-      <c r="AB46" s="41">
-        <f>MEDIAN(AA46:AA48)</f>
+      <c r="C47" s="62">
+        <f>AVERAGE(B47:B49)</f>
+        <v>6.636651654121313E-2</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H47" s="24">
+        <v>7.4202233558286201E-2</v>
+      </c>
+      <c r="I47" s="64">
+        <f>AVERAGE(H47:H49)</f>
+        <v>6.4996972382093857E-2</v>
+      </c>
+      <c r="J47" s="35"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24">
         <v>6.4927241297216706E-2</v>
       </c>
-      <c r="AC46" s="41">
-        <f>AVERAGE(AA46:AA48)</f>
-        <v>6.6296919392409906E-2</v>
-      </c>
-      <c r="AD46" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="AE46" s="39">
-        <v>5.6004931798926801E-2</v>
-      </c>
-      <c r="AF46" s="36">
-        <f>AVERAGE(AE46:AE48)</f>
-        <v>6.0531387301384069E-2</v>
-      </c>
-      <c r="AG46" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="AH46" s="48">
-        <v>7.77527790046455E-2</v>
-      </c>
-      <c r="AI46" s="36">
-        <f>MEDIAN(AH46:AH48)</f>
-        <v>6.9513057117465499E-2</v>
-      </c>
-      <c r="AJ46" s="41">
-        <f>AVERAGE(AH46:AH48)</f>
-        <v>6.7949838880448532E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="39">
-        <v>6.6534564529910398E-2</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="48">
-        <v>5.4352393383253997E-2</v>
-      </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="39">
-        <v>7.0941480474162905E-2</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="39">
-        <v>6.8984618819643795E-2</v>
-      </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="48">
-        <v>5.7427931995609402E-2</v>
-      </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="39">
-        <v>6.99989312892495E-2</v>
-      </c>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="39"/>
-      <c r="S47" s="29">
-        <v>6.9454946355322303E-2</v>
-      </c>
-      <c r="T47" s="36"/>
-      <c r="U47" s="48">
-        <v>5.54493972911436E-2</v>
-      </c>
-      <c r="V47" s="36"/>
-      <c r="W47" s="39">
-        <v>6.96467154642951E-2</v>
-      </c>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="47"/>
-      <c r="AA47" s="29">
-        <v>6.4718449850807006E-2</v>
-      </c>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="39">
-        <v>5.54156830056491E-2</v>
-      </c>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="48">
-        <v>6.9513057117465499E-2</v>
-      </c>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="41"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="39">
-        <v>6.7027565877131698E-2</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48">
-        <v>6.8214255292920897E-2</v>
-      </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="39">
-        <v>6.86654396255236E-2</v>
-      </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="39">
-        <v>6.96145344774136E-2</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="48">
-        <v>7.0277326079285399E-2</v>
-      </c>
-      <c r="N48" s="36"/>
-      <c r="O48" s="39">
-        <v>7.2001220326053703E-2</v>
-      </c>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="39"/>
-      <c r="S48" s="29">
-        <v>6.5908546879962407E-2</v>
-      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24">
+        <v>6.5605161705994397E-2</v>
+      </c>
+      <c r="I48" s="64"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="36"/>
-      <c r="U48" s="48">
-        <v>7.3220814374761606E-2</v>
-      </c>
-      <c r="V48" s="36"/>
-      <c r="W48" s="39">
-        <v>5.7299483108564898E-2</v>
-      </c>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="47"/>
-      <c r="AA48" s="29">
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24">
         <v>6.9245067029206006E-2</v>
       </c>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="39">
-        <v>7.0173547099576294E-2</v>
-      </c>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="48">
-        <v>5.6583680519234597E-2</v>
-      </c>
-      <c r="AI48" s="36"/>
-      <c r="AJ48" s="41"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="B49" s="39">
-        <v>6.5598159024996494E-2</v>
-      </c>
-      <c r="C49" s="36">
-        <f>AVERAGE(B49:B51)</f>
-        <v>6.7310268700512432E-2</v>
-      </c>
-      <c r="D49" s="48">
-        <v>5.6847125297210498E-2</v>
-      </c>
-      <c r="E49" s="36">
-        <f>AVERAGE(D49:D51)</f>
-        <v>6.1209206851434661E-2</v>
-      </c>
-      <c r="F49" s="39">
-        <v>0.10340955983532001</v>
-      </c>
-      <c r="G49" s="36">
-        <f>AVERAGE(F49:F51)</f>
-        <v>8.7399937312378898E-2</v>
-      </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="47">
-        <v>70</v>
-      </c>
-      <c r="K49" s="39">
-        <v>6.50255706349704E-2</v>
-      </c>
-      <c r="L49" s="36">
-        <f>AVERAGE(K49:K51)</f>
-        <v>6.6489442635343468E-2</v>
-      </c>
-      <c r="M49" s="48">
-        <v>5.6825343346335801E-2</v>
-      </c>
-      <c r="N49" s="36">
-        <f>AVERAGE(M49:M51)</f>
-        <v>6.0870475204039064E-2</v>
-      </c>
-      <c r="O49" s="39">
-        <v>8.8191275711622302E-2</v>
-      </c>
-      <c r="P49" s="36">
-        <f>AVERAGE(O49:O51)</f>
-        <v>7.7906294082524932E-2</v>
-      </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="S49" s="39">
-        <v>6.7352318435679598E-2</v>
-      </c>
-      <c r="T49" s="36">
-        <f>AVERAGE(S49:S51)</f>
-        <v>6.7318499188726566E-2</v>
-      </c>
-      <c r="U49" s="48"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="39">
-        <v>7.4919204263610303E-2</v>
-      </c>
-      <c r="X49" s="36">
-        <f>AVERAGE(W49:W51)</f>
-        <v>6.6866432123077801E-2</v>
-      </c>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="AA49" s="29">
-        <v>6.7084376161189702E-2</v>
-      </c>
-      <c r="AB49" s="36">
-        <f>AVERAGE(AA49:AA51)</f>
-        <v>6.6266153585599327E-2</v>
-      </c>
-      <c r="AC49" s="41">
-        <f t="shared" ref="AC49" si="45">AVERAGE(AA49:AA51)</f>
-        <v>6.6266153585599327E-2</v>
-      </c>
-      <c r="AD49" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="AE49" s="39">
-        <v>5.6803344090789701E-2</v>
-      </c>
-      <c r="AF49" s="36">
-        <f t="shared" ref="AF49" si="46">AVERAGE(AE49:AE51)</f>
-        <v>6.2385925856165335E-2</v>
-      </c>
-      <c r="AG49" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="AH49" s="48">
-        <v>7.5180664038819095E-2</v>
-      </c>
-      <c r="AI49" s="36">
-        <f t="shared" ref="AI49" si="47">MEDIAN(AH49:AH51)</f>
-        <v>6.7254273268407397E-2</v>
-      </c>
-      <c r="AJ49" s="41">
-        <f t="shared" ref="AJ49" si="48">AVERAGE(AH49:AH51)</f>
-        <v>6.6525425957722942E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="39">
-        <v>6.7047775676566196E-2</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="48">
-        <v>5.6713742487327599E-2</v>
-      </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="39">
-        <v>8.3067993623154604E-2</v>
-      </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="39">
-        <v>6.5525613561013898E-2</v>
-      </c>
-      <c r="L50" s="36"/>
-      <c r="M50" s="48">
-        <v>5.4785728381250502E-2</v>
-      </c>
-      <c r="N50" s="36"/>
-      <c r="O50" s="39">
-        <v>7.5370244010002793E-2</v>
-      </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="39">
-        <v>6.5682399308945802E-2</v>
-      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24">
+        <v>5.5183521882000999E-2</v>
+      </c>
+      <c r="I49" s="64"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="H50" s="24">
+        <v>7.45136561117207E-2</v>
+      </c>
+      <c r="I50" s="32">
+        <f t="shared" ref="I50" si="47">MEDIAN(H50:H52)</f>
+        <v>6.8070017350483999E-2</v>
+      </c>
+      <c r="J50" s="35"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="30"/>
       <c r="T50" s="36"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="39">
-        <v>6.7515761298073004E-2</v>
-      </c>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="29">
-        <v>6.4528765203787697E-2</v>
-      </c>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="39">
-        <v>5.6329819088449098E-2</v>
-      </c>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="48">
-        <v>6.7254273268407397E-2</v>
-      </c>
-      <c r="AI50" s="36"/>
-      <c r="AJ50" s="41"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="39">
-        <v>6.9284871399974607E-2</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="48">
-        <v>7.00667527697659E-2</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="39">
-        <v>7.5722258478662097E-2</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="39">
-        <v>6.8917143710046105E-2</v>
-      </c>
-      <c r="L51" s="36"/>
-      <c r="M51" s="48">
-        <v>7.1000353884530895E-2</v>
-      </c>
-      <c r="N51" s="36"/>
-      <c r="O51" s="39">
-        <v>7.0157362525949701E-2</v>
-      </c>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="39">
-        <v>6.8920779821554298E-2</v>
-      </c>
-      <c r="T51" s="36"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="39">
-        <v>5.8164330807550103E-2</v>
-      </c>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="29">
-        <v>6.7185319391820597E-2</v>
-      </c>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="39">
-        <v>7.4024614389257198E-2</v>
-      </c>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="48">
-        <v>5.7141340565942299E-2</v>
-      </c>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="41"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A52" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="B52" s="39">
-        <v>6.6393145344304696E-2</v>
-      </c>
-      <c r="C52" s="36">
-        <f>AVERAGE(B52:B54)</f>
-        <v>6.735224468586859E-2</v>
-      </c>
-      <c r="D52" s="48">
-        <v>5.9808317988712598E-2</v>
-      </c>
-      <c r="E52" s="36">
-        <f>AVERAGE(D52:D54)</f>
-        <v>6.5243831033704E-2</v>
-      </c>
-      <c r="F52" s="39">
-        <v>0.112915781107974</v>
-      </c>
-      <c r="G52" s="36">
-        <f>AVERAGE(F52:F54)</f>
-        <v>9.9208876227425594E-2</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="47">
-        <v>80</v>
-      </c>
-      <c r="K52" s="39">
-        <v>6.4378278849915996E-2</v>
-      </c>
-      <c r="L52" s="36">
-        <f>AVERAGE(K52:K54)</f>
-        <v>6.6512157759267929E-2</v>
-      </c>
-      <c r="M52" s="48"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="S52" s="39">
-        <v>6.7345598797543094E-2</v>
-      </c>
-      <c r="T52" s="36">
-        <f>AVERAGE(S52:S54)</f>
-        <v>6.8749021320395468E-2</v>
-      </c>
-      <c r="U52" s="48"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="39">
-        <v>7.5260729620811095E-2</v>
-      </c>
-      <c r="X52" s="36">
-        <f>AVERAGE(W52:W54)</f>
-        <v>6.6511523989251531E-2</v>
-      </c>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="AA52" s="39">
-        <v>6.4746769881807095E-2</v>
-      </c>
-      <c r="AB52" s="36">
-        <f>AVERAGE(AA52:AA54)</f>
-        <v>6.6565488454171734E-2</v>
-      </c>
-      <c r="AC52" s="41">
-        <f t="shared" ref="AC52" si="49">AVERAGE(AA52:AA54)</f>
-        <v>6.6565488454171734E-2</v>
-      </c>
-      <c r="AD52" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="AE52" s="39">
-        <v>5.6845317585489302E-2</v>
-      </c>
-      <c r="AF52" s="36">
-        <f t="shared" ref="AF52" si="50">AVERAGE(AE52:AE54)</f>
-        <v>6.1832375846760858E-2</v>
-      </c>
-      <c r="AG52" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="AH52" s="48">
-        <v>7.5032509866874403E-2</v>
-      </c>
-      <c r="AI52" s="36">
-        <f t="shared" ref="AI52" si="51">MEDIAN(AH52:AH54)</f>
-        <v>6.7939338645913505E-2</v>
-      </c>
-      <c r="AJ52" s="41">
-        <f t="shared" ref="AJ52" si="52">AVERAGE(AH52:AH54)</f>
-        <v>6.7450528222832276E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="39">
-        <v>6.7464766933658604E-2</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="48">
-        <v>6.1858812466039997E-2</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="39">
-        <v>9.8370058064914501E-2</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="39">
-        <v>6.8289643336995207E-2</v>
-      </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="39">
-        <v>6.68895107169135E-2</v>
-      </c>
-      <c r="T53" s="36"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="39">
-        <v>6.8218080250864302E-2</v>
-      </c>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="39">
-        <v>6.5057417051323896E-2</v>
-      </c>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="39">
-        <v>5.6221816016071298E-2</v>
-      </c>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="48">
-        <v>6.7939338645913505E-2</v>
-      </c>
-      <c r="AI53" s="36"/>
-      <c r="AJ53" s="41"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="39">
-        <v>6.8198821779642496E-2</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="48">
-        <v>7.4064362646359405E-2</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="39">
-        <v>8.6340789509388297E-2</v>
-      </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="39">
-        <v>6.6868551090892597E-2</v>
-      </c>
-      <c r="L54" s="36"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="39">
-        <v>7.2011954446729795E-2</v>
-      </c>
-      <c r="T54" s="36"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="39">
-        <v>5.6055762096079202E-2</v>
-      </c>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="29">
-        <v>6.9892278429384197E-2</v>
-      </c>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="39">
-        <v>7.2429993938722001E-2</v>
-      </c>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="48">
-        <v>5.93797361557089E-2</v>
-      </c>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="41"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="39">
-        <v>7.5537453589389097E-2</v>
-      </c>
-      <c r="X55" s="51">
-        <f>AVERAGE(W55:W57)</f>
-        <v>6.5680743542268161E-2</v>
-      </c>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="AA55" s="50">
-        <v>6.8296853704746599E-2</v>
-      </c>
-      <c r="AB55" s="36">
-        <f>AVERAGE(AA55:AA57)</f>
-        <v>6.892263477501967E-2</v>
-      </c>
-      <c r="AC55" s="41">
-        <f t="shared" ref="AC55" si="53">AVERAGE(AA55:AA57)</f>
-        <v>6.892263477501967E-2</v>
-      </c>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="AH55" s="48">
-        <v>7.6210327871177597E-2</v>
-      </c>
-      <c r="AI55" s="41">
-        <f t="shared" ref="AI55" si="54">MEDIAN(AH55:AH57)</f>
-        <v>6.4829654413491297E-2</v>
-      </c>
-      <c r="AJ55" s="41">
-        <f t="shared" ref="AJ55" si="55">AVERAGE(AH55:AH57)</f>
-        <v>6.5309930612045666E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39">
-        <v>6.6306898986436796E-2</v>
-      </c>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39">
-        <v>6.7981985411000395E-2</v>
-      </c>
-      <c r="AB56" s="36"/>
-      <c r="AC56" s="41"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="36"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45">
-        <v>6.4829654413491297E-2</v>
-      </c>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="41"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-      <c r="W57" s="45">
-        <v>5.5197878050978602E-2</v>
-      </c>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45">
-        <v>7.0489065209312002E-2</v>
-      </c>
-      <c r="AB57" s="36"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="36"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45">
-        <v>5.4889809551468098E-2</v>
-      </c>
-      <c r="AI57" s="41"/>
-      <c r="AJ57" s="41"/>
-    </row>
-    <row r="58" spans="1:36" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z58" s="29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA58" s="29">
-        <v>6.4927241297216706E-2</v>
-      </c>
-      <c r="AB58" s="36">
-        <f>AVERAGE(AA58:AA60)</f>
-        <v>6.636651654121313E-2</v>
-      </c>
-      <c r="AC58" s="41">
-        <f t="shared" ref="AC58" si="56">AVERAGE(AA58:AA60)</f>
-        <v>6.636651654121313E-2</v>
-      </c>
-      <c r="AG58" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH58" s="29">
-        <v>7.4202233558286201E-2</v>
-      </c>
-      <c r="AI58" s="36">
-        <f t="shared" ref="AI58" si="57">MEDIAN(AH58:AH60)</f>
-        <v>6.5605161705994397E-2</v>
-      </c>
-      <c r="AJ58" s="41">
-        <f t="shared" ref="AJ58" si="58">AVERAGE(AH58:AH60)</f>
-        <v>6.4996972382093857E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AA59" s="29">
-        <v>6.4927241297216706E-2</v>
-      </c>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="41"/>
-      <c r="AH59" s="29">
-        <v>6.5605161705994397E-2</v>
-      </c>
-      <c r="AI59" s="36"/>
-      <c r="AJ59" s="41"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AA60" s="29">
-        <v>6.9245067029206006E-2</v>
-      </c>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="41"/>
-      <c r="AH60" s="29">
-        <v>5.5183521882000999E-2</v>
-      </c>
-      <c r="AI60" s="36"/>
-      <c r="AJ60" s="41"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A61" s="52" t="s">
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24">
+        <v>6.8070017350483999E-2</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24">
+        <v>6.0261777771677898E-2</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+    </row>
+    <row r="58" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="30"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="AG61" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="AH61" s="29">
-        <v>7.45136561117207E-2</v>
-      </c>
-      <c r="AI61" s="36">
-        <f t="shared" ref="AI61" si="59">MEDIAN(AH61:AH63)</f>
-        <v>6.8070017350483999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="AH62" s="29">
-        <v>6.8070017350483999E-2</v>
-      </c>
-      <c r="AI62" s="36"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="AH63" s="29">
-        <v>6.0261777771677898E-2</v>
-      </c>
-      <c r="AI63" s="36"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="54" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="56" t="s">
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="59" t="s">
+      <c r="E66" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="57" t="s">
+      <c r="F66" s="41"/>
+      <c r="G66" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="58" t="s">
+      <c r="H66" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="I66" s="58" t="s">
+      <c r="I66" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="J66" s="58" t="s">
+      <c r="J66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K66" s="59" t="s">
+      <c r="K66" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="55"/>
-      <c r="M66" s="57" t="s">
+      <c r="L66" s="41"/>
+      <c r="M66" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N66" s="58" t="s">
+      <c r="N66" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O66" s="58" t="s">
+      <c r="O66" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="P66" s="58" t="s">
+      <c r="P66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Q66" s="59" t="s">
+      <c r="Q66" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="61">
+      <c r="B67" s="47">
         <v>6.4205137364492099E-2</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="25">
         <v>5.7844751809826803E-2</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="25">
         <v>7.6844604007573203E-2</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="47">
         <f>(B67*$T$23+C67*$T$24+D67*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.3227152730077063E-2</v>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="60" t="s">
+      <c r="F67" s="41"/>
+      <c r="G67" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="61">
+      <c r="H67" s="47">
         <v>6.4435660352339705E-2</v>
       </c>
-      <c r="I67" s="32">
+      <c r="I67" s="25">
         <v>6.3155908887902304E-2</v>
       </c>
-      <c r="J67" s="61">
+      <c r="J67" s="47">
         <v>9.7835050547354196E-2</v>
       </c>
-      <c r="K67" s="62">
+      <c r="K67" s="48">
         <f>(H67*$T$23+I67*$T$24+J67*$T$25)/(SUM($T$23:$T$25))</f>
         <v>7.0680048128974743E-2</v>
       </c>
-      <c r="L67" s="55"/>
-      <c r="M67" s="60" t="s">
+      <c r="L67" s="41"/>
+      <c r="M67" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N67" s="61">
+      <c r="N67" s="47">
         <v>9.5461617888562805E-2</v>
       </c>
-      <c r="O67" s="32">
+      <c r="O67" s="25">
         <v>0.122199214216098</v>
       </c>
-      <c r="P67" s="61">
+      <c r="P67" s="47">
         <v>0.18652783807262899</v>
       </c>
-      <c r="Q67" s="62">
+      <c r="Q67" s="48">
         <f>(N67*$T$23+O67*$T$24+P67*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.12967415400983917</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="61">
+      <c r="B68" s="47">
         <v>7.7200950299973994E-2</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="25">
         <v>6.6498750093666001E-2</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="25">
         <v>4.2380429544479702E-2</v>
       </c>
-      <c r="E68" s="61">
-        <f t="shared" ref="E68:E74" si="60">(B68*$T$23+C68*$T$24+D68*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="E68" s="47">
+        <f t="shared" ref="E68:E74" si="48">(B68*$T$23+C68*$T$24+D68*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.3847105492158912E-2</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="60" t="s">
+      <c r="F68" s="41"/>
+      <c r="G68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="47">
         <v>7.8411973020322795E-2</v>
       </c>
-      <c r="I68" s="32">
+      <c r="I68" s="25">
         <v>7.0116192864105406E-2</v>
       </c>
-      <c r="J68" s="61">
+      <c r="J68" s="47">
         <v>5.1497389229123398E-2</v>
       </c>
-      <c r="K68" s="62">
-        <f t="shared" ref="K68:K74" si="61">(H68*$T$23+I68*$T$24+J68*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="K68" s="48">
+        <f t="shared" ref="K68:K74" si="49">(H68*$T$23+I68*$T$24+J68*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.8076735599340465E-2</v>
       </c>
-      <c r="L68" s="55"/>
-      <c r="M68" s="60" t="s">
+      <c r="L68" s="41"/>
+      <c r="M68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="61">
+      <c r="N68" s="47">
         <v>0.14920477585033301</v>
       </c>
-      <c r="O68" s="32">
+      <c r="O68" s="25">
         <v>0.12776913666304199</v>
       </c>
-      <c r="P68" s="61">
+      <c r="P68" s="47">
         <v>0.100450162781632</v>
       </c>
-      <c r="Q68" s="62">
-        <f t="shared" ref="Q68:Q74" si="62">(N68*$T$23+O68*$T$24+P68*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="Q68" s="48">
+        <f t="shared" ref="Q68:Q74" si="50">(N68*$T$23+O68*$T$24+P68*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.12683931426031544</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="61">
+      <c r="B69" s="47">
         <v>0.52060439560439498</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="25">
         <v>3.9238538581672602E-2</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="25">
         <v>4.9808877628240503E-2</v>
       </c>
-      <c r="E69" s="61">
-        <f t="shared" si="60"/>
+      <c r="E69" s="47">
+        <f t="shared" si="48"/>
         <v>0.14862792543343112</v>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="60" t="s">
+      <c r="F69" s="41"/>
+      <c r="G69" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H69" s="47">
         <v>6.0033486407122201E-2</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="25">
         <v>4.4193111172540399E-2</v>
       </c>
-      <c r="J69" s="61">
+      <c r="J69" s="47">
         <v>5.1596795700995603E-2</v>
       </c>
-      <c r="K69" s="62">
-        <f t="shared" si="61"/>
+      <c r="K69" s="48">
+        <f t="shared" si="49"/>
         <v>4.9265693482204331E-2</v>
       </c>
-      <c r="L69" s="55"/>
-      <c r="M69" s="60" t="s">
+      <c r="L69" s="41"/>
+      <c r="M69" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="61">
+      <c r="N69" s="47">
         <v>9.1801063236875605E-2</v>
       </c>
-      <c r="O69" s="32">
+      <c r="O69" s="25">
         <v>9.8764642796873595E-2</v>
       </c>
-      <c r="P69" s="61">
+      <c r="P69" s="47">
         <v>0.12054727420566499</v>
       </c>
-      <c r="Q69" s="62">
-        <f t="shared" si="62"/>
+      <c r="Q69" s="48">
+        <f t="shared" si="50"/>
         <v>0.10176117438177086</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="61">
+      <c r="B70" s="47">
         <v>5.1830543048671303E-2</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="61">
+      <c r="E70" s="47">
         <f>B70</f>
         <v>5.1830543048671303E-2</v>
       </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="60" t="s">
+      <c r="F70" s="41"/>
+      <c r="G70" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="61">
+      <c r="H70" s="47">
         <v>5.6489620629774501E-2</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62">
+      <c r="J70" s="47"/>
+      <c r="K70" s="48">
         <f>H70</f>
         <v>5.6489620629774501E-2</v>
       </c>
-      <c r="L70" s="55"/>
-      <c r="M70" s="60" t="s">
+      <c r="L70" s="41"/>
+      <c r="M70" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N70" s="61">
+      <c r="N70" s="47">
         <v>9.2161794166827599E-2</v>
       </c>
-      <c r="O70" s="32" t="s">
+      <c r="O70" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="62">
+      <c r="P70" s="47"/>
+      <c r="Q70" s="48">
         <f>N70</f>
         <v>9.2161794166827599E-2</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="32">
+      <c r="B71" s="30"/>
+      <c r="C71" s="25">
         <v>6.06780256377253E-2</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="25">
         <v>4.0078335870020201E-2</v>
       </c>
-      <c r="E71" s="61">
+      <c r="E71" s="47">
         <f>(C71*$T$24+D71*$T$25)/(SUM($T$24:$T$25))</f>
         <v>5.5146139638725208E-2</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="60" t="s">
+      <c r="F71" s="41"/>
+      <c r="G71" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="61"/>
-      <c r="I71" s="32">
+      <c r="H71" s="47"/>
+      <c r="I71" s="25">
         <v>5.6615836449412697E-2</v>
       </c>
-      <c r="J71" s="61">
+      <c r="J71" s="47">
         <v>5.0408679349661298E-2</v>
       </c>
-      <c r="K71" s="62">
+      <c r="K71" s="48">
         <f>(I71*$T$24+J71*$T$25)/(SUM($T$24:$T$25))</f>
         <v>5.4948952829274852E-2</v>
       </c>
-      <c r="L71" s="55"/>
-      <c r="M71" s="60" t="s">
+      <c r="L71" s="41"/>
+      <c r="M71" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N71" s="39" t="s">
+      <c r="N71" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="32">
+      <c r="O71" s="25">
         <v>9.9871830840606204E-2</v>
       </c>
-      <c r="P71" s="61">
+      <c r="P71" s="47">
         <v>0.106377692350755</v>
       </c>
-      <c r="Q71" s="62">
+      <c r="Q71" s="48">
         <f>(O71*$T$24+P71*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.10161892920010909</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="60" t="s">
+      <c r="A72" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="47"/>
+      <c r="C72" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="61">
+      <c r="E72" s="47">
         <f>D72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="60" t="s">
+      <c r="F72" s="41"/>
+      <c r="G72" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H72" s="61"/>
-      <c r="I72" s="32" t="s">
+      <c r="H72" s="47"/>
+      <c r="I72" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62">
+      <c r="J72" s="47"/>
+      <c r="K72" s="48">
         <f>J72</f>
         <v>0</v>
       </c>
-      <c r="L72" s="55"/>
-      <c r="M72" s="60" t="s">
+      <c r="L72" s="41"/>
+      <c r="M72" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="61" t="s">
+      <c r="N72" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O72" s="32" t="s">
+      <c r="O72" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P72" s="61" t="s">
+      <c r="P72" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="62" t="str">
+      <c r="Q72" s="48" t="str">
         <f>P72</f>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="61">
+      <c r="B73" s="47">
         <v>6.8956902002724099E-2</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="25">
         <v>5.8453664690762797E-2</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="25">
         <v>6.1707027550872998E-2</v>
       </c>
-      <c r="E73" s="63">
-        <f t="shared" si="60"/>
+      <c r="E73" s="49">
+        <f t="shared" si="48"/>
         <v>6.1471489102793098E-2</v>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="60" t="s">
+      <c r="F73" s="41"/>
+      <c r="G73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="61">
+      <c r="H73" s="47">
         <v>7.11976491218589E-2</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="25">
         <v>6.3783609532034602E-2</v>
       </c>
-      <c r="J73" s="61">
+      <c r="J73" s="47">
         <v>7.1345315701488804E-2</v>
       </c>
-      <c r="K73" s="63">
-        <f t="shared" si="61"/>
+      <c r="K73" s="49">
+        <f t="shared" si="49"/>
         <v>6.7012936732537623E-2</v>
       </c>
-      <c r="L73" s="55"/>
-      <c r="M73" s="60" t="s">
+      <c r="L73" s="41"/>
+      <c r="M73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="61">
+      <c r="N73" s="47">
         <v>0.114238995745105</v>
       </c>
-      <c r="O73" s="32">
+      <c r="O73" s="25">
         <v>0.11010349042654199</v>
       </c>
-      <c r="P73" s="61">
+      <c r="P73" s="47">
         <v>0.13622761986791301</v>
       </c>
-      <c r="Q73" s="63">
-        <f t="shared" si="62"/>
+      <c r="Q73" s="49">
+        <f t="shared" si="50"/>
         <v>0.11647766574865535</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="60" t="s">
+      <c r="A74" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="45">
+      <c r="B74" s="33">
         <v>6.4205137364492099E-2</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="25">
         <v>5.5654519510567803E-2</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="25">
         <v>5.4083588520135499E-2</v>
       </c>
-      <c r="E74" s="61">
-        <f t="shared" si="60"/>
+      <c r="E74" s="47">
+        <f t="shared" si="48"/>
         <v>5.7230506480039238E-2</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="60" t="s">
+      <c r="F74" s="24"/>
+      <c r="G74" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="33">
         <v>6.6944127723381694E-2</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="25">
         <v>5.9444826546845603E-2</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="33">
         <v>6.5039657724573E-2</v>
       </c>
-      <c r="K74" s="62">
-        <f t="shared" si="61"/>
+      <c r="K74" s="48">
+        <f t="shared" si="49"/>
         <v>6.2282558167985599E-2</v>
       </c>
-      <c r="L74" s="29"/>
-      <c r="M74" s="60" t="s">
+      <c r="L74" s="24"/>
+      <c r="M74" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N74" s="45">
+      <c r="N74" s="33">
         <v>0.11257732476549</v>
       </c>
-      <c r="O74" s="32">
+      <c r="O74" s="25">
         <v>0.115322799770289</v>
       </c>
-      <c r="P74" s="45">
+      <c r="P74" s="33">
         <v>0.13622761986791301</v>
       </c>
-      <c r="Q74" s="62">
-        <f t="shared" si="62"/>
+      <c r="Q74" s="48">
+        <f t="shared" si="50"/>
         <v>0.11907531052518568</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="54" t="s">
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="56" t="s">
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="59" t="s">
+      <c r="E77" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="64" t="s">
+      <c r="F77" s="41"/>
+      <c r="G77" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="58" t="s">
+      <c r="H77" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="I77" s="58" t="s">
+      <c r="I77" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="J77" s="58" t="s">
+      <c r="J77" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K77" s="59" t="s">
+      <c r="K77" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="55"/>
-      <c r="M77" s="64" t="s">
+      <c r="L77" s="41"/>
+      <c r="M77" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N77" s="58" t="s">
+      <c r="N77" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O77" s="58" t="s">
+      <c r="O77" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="P77" s="58" t="s">
+      <c r="P77" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Q77" s="59" t="s">
+      <c r="Q77" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="61">
+      <c r="B78" s="47">
         <v>0.60699755899104901</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="25">
         <v>0.68832000000000004</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="25">
         <v>0.558998808104886</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="47">
         <f>(B78*$T$23+C78*$T$24+D78*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.64321694126841056</v>
       </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="60" t="s">
+      <c r="F78" s="41"/>
+      <c r="G78" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="61">
+      <c r="H78" s="47">
         <v>0.60048820179007301</v>
       </c>
-      <c r="I78" s="32">
+      <c r="I78" s="25">
         <v>0.62656000000000001</v>
       </c>
-      <c r="J78" s="61">
+      <c r="J78" s="47">
         <v>0.41001191895113198</v>
       </c>
-      <c r="K78" s="62">
+      <c r="K78" s="48">
         <f>(H78*$T$23+I78*$T$24+J78*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.57555087493112722</v>
       </c>
-      <c r="L78" s="55"/>
-      <c r="M78" s="60" t="s">
+      <c r="L78" s="41"/>
+      <c r="M78" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N78" s="61">
+      <c r="N78" s="47">
         <v>0.327095199349064</v>
       </c>
-      <c r="O78" s="32">
+      <c r="O78" s="25">
         <v>0.23136000000000001</v>
       </c>
-      <c r="P78" s="61">
+      <c r="P78" s="47">
         <v>8.5816448152562494E-2</v>
       </c>
-      <c r="Q78" s="62">
+      <c r="Q78" s="48">
         <f>(N78*$T$23+O78*$T$24+P78*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.22229492919108199</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="60" t="s">
+      <c r="A79" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="61">
+      <c r="B79" s="47">
         <v>0.52060439560439498</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="25">
         <v>0.55444555444555399</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="25">
         <v>0.78911564625850295</v>
       </c>
-      <c r="E79" s="61">
-        <f t="shared" ref="E79:E85" si="63">(B79*$T$23+C79*$T$24+D79*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="E79" s="47">
+        <f t="shared" ref="E79:E85" si="51">(B79*$T$23+C79*$T$24+D79*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.59589714460489762</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="60" t="s">
+      <c r="F79" s="41"/>
+      <c r="G79" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="61">
+      <c r="H79" s="47">
         <v>0.50068681318681296</v>
       </c>
-      <c r="I79" s="32">
+      <c r="I79" s="25">
         <v>0.52747252747252704</v>
       </c>
-      <c r="J79" s="61">
+      <c r="J79" s="47">
         <v>0.69251700680272099</v>
       </c>
-      <c r="K79" s="62">
-        <f t="shared" ref="K79:K84" si="64">(H79*$T$23+I79*$T$24+J79*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="K79" s="48">
+        <f t="shared" ref="K79:K84" si="52">(H79*$T$23+I79*$T$24+J79*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.555960937670679</v>
       </c>
-      <c r="L79" s="55"/>
-      <c r="M79" s="60" t="s">
+      <c r="L79" s="41"/>
+      <c r="M79" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="61">
+      <c r="N79" s="47">
         <v>0.130494505494505</v>
       </c>
-      <c r="O79" s="32">
+      <c r="O79" s="25">
         <v>0.17932067932067899</v>
       </c>
-      <c r="P79" s="61">
+      <c r="P79" s="47">
         <v>0.24761904761904699</v>
       </c>
-      <c r="Q79" s="62">
-        <f t="shared" ref="Q79:Q84" si="65">(N79*$T$23+O79*$T$24+P79*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="Q79" s="48">
+        <f t="shared" ref="Q79:Q84" si="53">(N79*$T$23+O79*$T$24+P79*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.18270596203001724</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="61">
+      <c r="B80" s="47">
         <v>0.68239795918367296</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="25">
         <v>0.80919080919080899</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="25">
         <v>0.74557823129251699</v>
       </c>
-      <c r="E80" s="61">
-        <f t="shared" si="63"/>
+      <c r="E80" s="47">
+        <f t="shared" si="51"/>
         <v>0.76767963646691251</v>
       </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="60" t="s">
+      <c r="F80" s="41"/>
+      <c r="G80" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="61">
+      <c r="H80" s="47">
         <v>0.64285714285714202</v>
       </c>
-      <c r="I80" s="32">
+      <c r="I80" s="25">
         <v>0.77772227772227698</v>
       </c>
-      <c r="J80" s="61">
+      <c r="J80" s="47">
         <v>0.68843537414965905</v>
       </c>
-      <c r="K80" s="62">
-        <f t="shared" si="64"/>
+      <c r="K80" s="48">
+        <f t="shared" si="52"/>
         <v>0.72905424595285351</v>
       </c>
-      <c r="L80" s="55"/>
-      <c r="M80" s="60" t="s">
+      <c r="L80" s="41"/>
+      <c r="M80" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="61">
+      <c r="N80" s="47">
         <v>0.34821428571428498</v>
       </c>
-      <c r="O80" s="32">
+      <c r="O80" s="25">
         <v>0.304195804195804</v>
       </c>
-      <c r="P80" s="61">
+      <c r="P80" s="47">
         <v>0.1578231292517</v>
       </c>
-      <c r="Q80" s="62">
-        <f t="shared" si="65"/>
+      <c r="Q80" s="48">
+        <f t="shared" si="53"/>
         <v>0.28344220391934066</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="60" t="s">
+      <c r="A81" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="61">
+      <c r="B81" s="47">
         <v>0.71045918367346905</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="61">
+      <c r="E81" s="47">
         <f>B81</f>
         <v>0.71045918367346905</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="60" t="s">
+      <c r="F81" s="41"/>
+      <c r="G81" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="61">
+      <c r="H81" s="47">
         <v>0.66198979591836704</v>
       </c>
-      <c r="I81" s="32" t="s">
+      <c r="I81" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="61"/>
-      <c r="K81" s="62">
+      <c r="J81" s="47"/>
+      <c r="K81" s="48">
         <f>H81</f>
         <v>0.66198979591836704</v>
       </c>
-      <c r="L81" s="55"/>
-      <c r="M81" s="60" t="s">
+      <c r="L81" s="41"/>
+      <c r="M81" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N81" s="61">
+      <c r="N81" s="47">
         <v>0.29591836734693799</v>
       </c>
-      <c r="O81" s="32" t="s">
+      <c r="O81" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P81" s="61" t="s">
+      <c r="P81" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q81" s="62">
+      <c r="Q81" s="48">
         <f>N81</f>
         <v>0.29591836734693799</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="60" t="s">
+      <c r="A82" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="32">
+      <c r="B82" s="47"/>
+      <c r="C82" s="25">
         <v>0.62820512820512797</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="25">
         <v>0.80571428571428505</v>
       </c>
-      <c r="E82" s="61">
+      <c r="E82" s="47">
         <f>(C82*$T$24+D82*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.67587382779198601</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="60" t="s">
+      <c r="F82" s="41"/>
+      <c r="G82" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H82" s="61"/>
-      <c r="I82" s="32">
+      <c r="H82" s="47"/>
+      <c r="I82" s="25">
         <v>0.66200466200466201</v>
       </c>
-      <c r="J82" s="61">
+      <c r="J82" s="47">
         <v>0.68952380952380898</v>
       </c>
-      <c r="K82" s="62">
+      <c r="K82" s="48">
         <f>(I82*$T$24+J82*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.66939471440750198</v>
       </c>
-      <c r="L82" s="55"/>
-      <c r="M82" s="60" t="s">
+      <c r="L82" s="41"/>
+      <c r="M82" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N82" s="61" t="s">
+      <c r="N82" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O82" s="32">
+      <c r="O82" s="25">
         <v>0.29487179487179399</v>
       </c>
-      <c r="P82" s="61">
+      <c r="P82" s="47">
         <v>0.196190476190476</v>
       </c>
-      <c r="Q82" s="62">
+      <c r="Q82" s="48">
         <f>(O82*$T$24+P82*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.26837169650468817</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="32" t="s">
+      <c r="B83" s="47"/>
+      <c r="C83" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="61">
+      <c r="E83" s="47">
         <f>D83</f>
         <v>0</v>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="60" t="s">
+      <c r="F83" s="41"/>
+      <c r="G83" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="61"/>
-      <c r="I83" s="32" t="s">
+      <c r="H83" s="47"/>
+      <c r="I83" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="61"/>
-      <c r="K83" s="62">
+      <c r="J83" s="47"/>
+      <c r="K83" s="48">
         <f>J83</f>
         <v>0</v>
       </c>
-      <c r="L83" s="55"/>
-      <c r="M83" s="60" t="s">
+      <c r="L83" s="41"/>
+      <c r="M83" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O83" s="32" t="s">
+      <c r="O83" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P83" s="61" t="s">
+      <c r="P83" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q83" s="62" t="str">
+      <c r="Q83" s="48" t="str">
         <f>P83</f>
         <v>-</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="60" t="s">
+      <c r="A84" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="33">
         <v>0.56095947063689</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="25">
         <v>0.64946647555343195</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="25">
         <v>0.64662290916790099</v>
       </c>
-      <c r="E84" s="63">
-        <f t="shared" si="63"/>
+      <c r="E84" s="49">
+        <f t="shared" si="51"/>
         <v>0.62916556298656634</v>
       </c>
-      <c r="F84" s="55"/>
-      <c r="G84" s="60" t="s">
+      <c r="F84" s="41"/>
+      <c r="G84" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="33">
         <v>0.54540942928039704</v>
       </c>
-      <c r="I84" s="32">
+      <c r="I84" s="25">
         <v>0.60049370918936096</v>
       </c>
-      <c r="J84" s="61">
+      <c r="J84" s="47">
         <v>0.54901545627778903</v>
       </c>
-      <c r="K84" s="63">
-        <f t="shared" si="64"/>
+      <c r="K84" s="49">
+        <f t="shared" si="52"/>
         <v>0.5774824648443927</v>
       </c>
-      <c r="L84" s="55"/>
-      <c r="M84" s="60" t="s">
+      <c r="L84" s="41"/>
+      <c r="M84" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="45">
+      <c r="N84" s="33">
         <v>0.24582299421009099</v>
       </c>
-      <c r="O84" s="32">
+      <c r="O84" s="25">
         <v>0.26349737219302399</v>
       </c>
-      <c r="P84" s="61">
+      <c r="P84" s="47">
         <v>0.15117510057167</v>
       </c>
-      <c r="Q84" s="63">
-        <f t="shared" si="65"/>
+      <c r="Q84" s="49">
+        <f t="shared" si="53"/>
         <v>0.23611492914266483</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E85" s="61">
-        <f t="shared" si="63"/>
+      <c r="E85" s="47">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="K85" s="61"/>
-      <c r="Q85" s="61"/>
+      <c r="K85" s="47"/>
+      <c r="Q85" s="47"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="53"/>
-      <c r="P90" s="53"/>
-      <c r="Q90" s="53"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="53"/>
-      <c r="N91" s="53"/>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="53"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="68"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="66" t="s">
+      <c r="A92" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="65" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="56" t="s">
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="67" t="s">
+      <c r="A93" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D93" s="68" t="s">
+      <c r="D93" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="57" t="s">
+      <c r="F93" s="41"/>
+      <c r="G93" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="58" t="s">
+      <c r="H93" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I93" s="58" t="s">
+      <c r="I93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J93" s="58" t="s">
+      <c r="J93" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K93" s="59" t="s">
+      <c r="K93" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="55"/>
-      <c r="M93" s="57" t="s">
+      <c r="L93" s="41"/>
+      <c r="M93" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N93" s="58" t="s">
+      <c r="N93" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O93" s="58" t="s">
+      <c r="O93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="P93" s="58" t="s">
+      <c r="P93" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q93" s="59" t="s">
+      <c r="Q93" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5987,37 +5500,37 @@
         <f>(B94*$T$23+C94*$T$24+D94*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.7344356530752561E-2</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="60" t="s">
+      <c r="F94" s="23"/>
+      <c r="G94" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="61">
+      <c r="H94" s="47">
         <v>6.6835536030820097E-2</v>
       </c>
-      <c r="I94" s="61">
+      <c r="I94" s="47">
         <v>6.69235232610743E-2</v>
       </c>
-      <c r="J94" s="61">
+      <c r="J94" s="47">
         <v>0.106192209379457</v>
       </c>
-      <c r="K94" s="62">
+      <c r="K94" s="48">
         <f>(H94*$T$23+I94*$T$24+J94*$T$25)/(SUM($T$23:$T$25))</f>
         <v>7.5101172312051864E-2</v>
       </c>
-      <c r="L94" s="55"/>
-      <c r="M94" s="60" t="s">
+      <c r="L94" s="41"/>
+      <c r="M94" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="61">
+      <c r="N94" s="47">
         <v>9.6601241692864201E-2</v>
       </c>
-      <c r="O94" s="39">
+      <c r="O94" s="30">
         <v>0.123358358500628</v>
       </c>
-      <c r="P94" s="61">
+      <c r="P94" s="47">
         <v>0.198284756320174</v>
       </c>
-      <c r="Q94" s="62">
+      <c r="Q94" s="48">
         <f>(N94*$T$23+O94*$T$24+P94*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.13304121076421208</v>
       </c>
@@ -6036,41 +5549,41 @@
         <v>3.8930792633318501E-2</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" ref="E95:E101" si="66">(B95*$T$23+C95*$T$24+D95*$T$25)/(SUM($T$23:$T$25))</f>
+        <f t="shared" ref="E95:E101" si="54">(B95*$T$23+C95*$T$24+D95*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.511622600415834E-2</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="60" t="s">
+      <c r="F95" s="23"/>
+      <c r="G95" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="61">
+      <c r="H95" s="47">
         <v>7.4678242973854198E-2</v>
       </c>
-      <c r="I95" s="61">
+      <c r="I95" s="47">
         <v>7.1149563381005004E-2</v>
       </c>
-      <c r="J95" s="61">
+      <c r="J95" s="47">
         <v>4.8758607886198797E-2</v>
       </c>
-      <c r="K95" s="62">
-        <f t="shared" ref="K95:K101" si="67">(H95*$T$23+I95*$T$24+J95*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="K95" s="48">
+        <f t="shared" ref="K95:K101" si="55">(H95*$T$23+I95*$T$24+J95*$T$25)/(SUM($T$23:$T$25))</f>
         <v>6.7261217033976098E-2</v>
       </c>
-      <c r="L95" s="55"/>
-      <c r="M95" s="60" t="s">
+      <c r="L95" s="41"/>
+      <c r="M95" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N95" s="61">
+      <c r="N95" s="47">
         <v>0.15143556704970701</v>
       </c>
-      <c r="O95" s="39">
+      <c r="O95" s="30">
         <v>0.126751481286101</v>
       </c>
-      <c r="P95" s="61">
+      <c r="P95" s="47">
         <v>9.8432939107381406E-2</v>
       </c>
-      <c r="Q95" s="62">
-        <f t="shared" ref="Q95:Q101" si="68">(N95*$T$23+O95*$T$24+P95*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="Q95" s="48">
+        <f t="shared" ref="Q95:Q101" si="56">(N95*$T$23+O95*$T$24+P95*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.12633631364546147</v>
       </c>
     </row>
@@ -6088,41 +5601,41 @@
         <v>4.7142340599380897E-2</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3.8653815309328161E-2</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="60" t="s">
+      <c r="F96" s="23"/>
+      <c r="G96" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H96" s="61">
+      <c r="H96" s="47">
         <v>4.8491050285278899E-2</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="47">
         <v>3.6949501174113102E-2</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="47">
         <v>4.6713239589906003E-2</v>
       </c>
-      <c r="K96" s="62">
-        <f t="shared" si="67"/>
+      <c r="K96" s="48">
+        <f t="shared" si="55"/>
         <v>4.1557544979498436E-2</v>
       </c>
-      <c r="L96" s="55"/>
-      <c r="M96" s="60" t="s">
+      <c r="L96" s="41"/>
+      <c r="M96" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N96" s="61">
+      <c r="N96" s="47">
         <v>8.0907952173924894E-2</v>
       </c>
-      <c r="O96" s="39">
+      <c r="O96" s="30">
         <v>9.4204477137518394E-2</v>
       </c>
-      <c r="P96" s="61">
+      <c r="P96" s="47">
         <v>0.11873931675935399</v>
       </c>
-      <c r="Q96" s="62">
-        <f t="shared" si="68"/>
+      <c r="Q96" s="48">
+        <f t="shared" si="56"/>
         <v>9.6365406291336025E-2</v>
       </c>
     </row>
@@ -6143,33 +5656,33 @@
         <f>B97</f>
         <v>4.6452883502081897E-2</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="60" t="s">
+      <c r="F97" s="23"/>
+      <c r="G97" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H97" s="61">
+      <c r="H97" s="47">
         <v>4.7031771657737899E-2</v>
       </c>
-      <c r="I97" s="61" t="s">
+      <c r="I97" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J97" s="61"/>
-      <c r="K97" s="62">
+      <c r="J97" s="47"/>
+      <c r="K97" s="48">
         <f>H97</f>
         <v>4.7031771657737899E-2</v>
       </c>
-      <c r="L97" s="55"/>
-      <c r="M97" s="60" t="s">
+      <c r="L97" s="41"/>
+      <c r="M97" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N97" s="61">
+      <c r="N97" s="47">
         <v>8.9480552387698406E-2</v>
       </c>
-      <c r="O97" s="39" t="s">
+      <c r="O97" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="62">
+      <c r="P97" s="47"/>
+      <c r="Q97" s="48">
         <f>N97</f>
         <v>8.9480552387698406E-2</v>
       </c>
@@ -6191,33 +5704,33 @@
         <f>(C98*$T$24+D98*$T$25)/(SUM($T$24:$T$25))</f>
         <v>6.0665931868862322E-2</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="60" t="s">
+      <c r="F98" s="23"/>
+      <c r="G98" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>5.7662513946730498E-2</v>
       </c>
-      <c r="J98" s="61">
+      <c r="J98" s="47">
         <v>4.3719246331091401E-2</v>
       </c>
-      <c r="K98" s="62">
+      <c r="K98" s="48">
         <f>(I98*$T$24+J98*$T$25)/(SUM($T$24:$T$25))</f>
         <v>5.391815819317012E-2</v>
       </c>
-      <c r="L98" s="55"/>
-      <c r="M98" s="60" t="s">
+      <c r="L98" s="41"/>
+      <c r="M98" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N98" s="61"/>
-      <c r="O98" s="39">
+      <c r="N98" s="47"/>
+      <c r="O98" s="30">
         <v>9.9871830840606204E-2</v>
       </c>
-      <c r="P98" s="61">
+      <c r="P98" s="47">
         <v>0.105164446962128</v>
       </c>
-      <c r="Q98" s="62">
+      <c r="Q98" s="48">
         <f>(O98*$T$24+P98*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.1012931216149279</v>
       </c>
@@ -6239,33 +5752,33 @@
         <f>D99</f>
         <v>5.4959634276458301E-2</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="60" t="s">
+      <c r="F99" s="23"/>
+      <c r="G99" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H99" s="61"/>
-      <c r="I99" s="61" t="s">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="61">
+      <c r="J99" s="47">
         <v>6.7716711473661303E-2</v>
       </c>
-      <c r="K99" s="62">
+      <c r="K99" s="48">
         <f>J99</f>
         <v>6.7716711473661303E-2</v>
       </c>
-      <c r="L99" s="55"/>
-      <c r="M99" s="60" t="s">
+      <c r="L99" s="41"/>
+      <c r="M99" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="N99" s="61"/>
-      <c r="O99" s="39" t="s">
+      <c r="N99" s="47"/>
+      <c r="O99" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P99" s="61">
+      <c r="P99" s="47">
         <v>0.111530807923978</v>
       </c>
-      <c r="Q99" s="62">
+      <c r="Q99" s="48">
         <f>P99</f>
         <v>0.111530807923978</v>
       </c>
@@ -6284,41 +5797,41 @@
         <v>5.1634170315597201E-2</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>5.9937888767661374E-2</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="60" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H100" s="61">
+      <c r="H100" s="47">
         <v>6.2774043226858395E-2</v>
       </c>
-      <c r="I100" s="61">
+      <c r="I100" s="47">
         <v>6.4398990707753206E-2</v>
       </c>
-      <c r="J100" s="61">
+      <c r="J100" s="47">
         <v>6.08597065069671E-2</v>
       </c>
-      <c r="K100" s="63">
-        <f t="shared" si="67"/>
+      <c r="K100" s="49">
+        <f t="shared" si="55"/>
         <v>6.3298356594546926E-2</v>
       </c>
-      <c r="L100" s="55"/>
-      <c r="M100" s="60" t="s">
+      <c r="L100" s="41"/>
+      <c r="M100" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N100" s="61">
+      <c r="N100" s="47">
         <v>0.11581195620423899</v>
       </c>
-      <c r="O100" s="39">
+      <c r="O100" s="30">
         <v>0.11141312348076</v>
       </c>
-      <c r="P100" s="61">
+      <c r="P100" s="47">
         <v>0.124131616401305</v>
       </c>
-      <c r="Q100" s="63">
-        <f t="shared" si="68"/>
+      <c r="Q100" s="49">
+        <f t="shared" si="56"/>
         <v>0.1150475390308333</v>
       </c>
     </row>
@@ -6326,134 +5839,134 @@
       <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="69">
+      <c r="B101" s="53">
         <v>6.0391677577450099E-2</v>
       </c>
-      <c r="C101" s="69">
+      <c r="C101" s="53">
         <v>6.2342049238027199E-2</v>
       </c>
-      <c r="D101" s="69">
+      <c r="D101" s="53">
         <v>4.8444336248292301E-2</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>5.9006658602029589E-2</v>
       </c>
       <c r="F101" s="6"/>
-      <c r="G101" s="60" t="s">
+      <c r="G101" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="33">
         <v>6.2338953978905501E-2</v>
       </c>
-      <c r="I101" s="45">
+      <c r="I101" s="33">
         <v>5.8214956096501798E-2</v>
       </c>
-      <c r="J101" s="45">
+      <c r="J101" s="33">
         <v>6.08597065069671E-2</v>
       </c>
-      <c r="K101" s="62">
-        <f t="shared" si="67"/>
+      <c r="K101" s="48">
+        <f t="shared" si="55"/>
         <v>5.9685307102323011E-2</v>
       </c>
-      <c r="L101" s="29"/>
-      <c r="M101" s="60" t="s">
+      <c r="L101" s="24"/>
+      <c r="M101" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N101" s="45">
+      <c r="N101" s="33">
         <v>0.11581195620423899</v>
       </c>
-      <c r="O101" s="39">
+      <c r="O101" s="30">
         <v>0.112607121873243</v>
       </c>
-      <c r="P101" s="45">
+      <c r="P101" s="33">
         <v>0.12199047262019599</v>
       </c>
-      <c r="Q101" s="62">
-        <f t="shared" si="68"/>
+      <c r="Q101" s="48">
+        <f t="shared" si="56"/>
         <v>0.11527947430565177</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="26"/>
-      <c r="I102" s="39"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="22"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="72" t="s">
+      <c r="A103" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B103" s="72"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="54" t="s">
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="55"/>
-      <c r="M103" s="56" t="s">
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N103" s="56"/>
-      <c r="O103" s="56"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="56"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="73" t="s">
+      <c r="A104" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="68" t="s">
+      <c r="C104" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="64" t="s">
+      <c r="F104" s="23"/>
+      <c r="G104" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H104" s="58" t="s">
+      <c r="H104" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I104" s="58" t="s">
+      <c r="I104" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J104" s="58" t="s">
+      <c r="J104" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K104" s="59" t="s">
+      <c r="K104" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L104" s="55"/>
-      <c r="M104" s="64" t="s">
+      <c r="L104" s="41"/>
+      <c r="M104" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N104" s="58" t="s">
+      <c r="N104" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O104" s="58" t="s">
+      <c r="O104" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="P104" s="58" t="s">
+      <c r="P104" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q104" s="59" t="s">
+      <c r="Q104" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6464,47 +5977,47 @@
       <c r="B105" s="5">
         <v>0.548579970104633</v>
       </c>
-      <c r="C105" s="70">
+      <c r="C105" s="54">
         <v>0.64917452830188604</v>
       </c>
-      <c r="D105" s="70">
+      <c r="D105" s="54">
         <v>0.53821656050955402</v>
       </c>
       <c r="E105" s="7">
         <f>(B105*$T$23+C105*$T$24+D105*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.60361353995936673</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="60" t="s">
+      <c r="F105" s="23"/>
+      <c r="G105" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="61">
+      <c r="H105" s="47">
         <v>0.59342301943198805</v>
       </c>
-      <c r="I105" s="32">
+      <c r="I105" s="25">
         <v>0.57134433962264097</v>
       </c>
-      <c r="J105" s="61">
+      <c r="J105" s="47">
         <v>0.353503184713375</v>
       </c>
-      <c r="K105" s="62">
+      <c r="K105" s="48">
         <f>(H105*$T$23+I105*$T$24+J105*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.53078666740231084</v>
       </c>
-      <c r="L105" s="55"/>
-      <c r="M105" s="60" t="s">
+      <c r="L105" s="41"/>
+      <c r="M105" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N105" s="61">
+      <c r="N105" s="47">
         <v>0.318385650224215</v>
       </c>
-      <c r="O105" s="32">
+      <c r="O105" s="25">
         <v>0.23113207547169801</v>
       </c>
-      <c r="P105" s="61">
+      <c r="P105" s="47">
         <v>7.9617834394904399E-2</v>
       </c>
-      <c r="Q105" s="62">
+      <c r="Q105" s="48">
         <f>(N105*$T$23+O105*$T$24+P105*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.2189320855297866</v>
       </c>
@@ -6516,48 +6029,48 @@
       <c r="B106" s="5">
         <v>0.57663690476190399</v>
       </c>
-      <c r="C106" s="70">
+      <c r="C106" s="54">
         <v>0.52214452214452201</v>
       </c>
-      <c r="D106" s="70">
+      <c r="D106" s="54">
         <v>0.82222222222222197</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" ref="E106:E111" si="69">(B106*$T$23+C106*$T$24+D106*$T$25)/(SUM($T$23:$T$25))</f>
+        <f t="shared" ref="E106:E111" si="57">(B106*$T$23+C106*$T$24+D106*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.59691848906560607</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="60" t="s">
+      <c r="F106" s="23"/>
+      <c r="G106" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H106" s="61">
+      <c r="H106" s="47">
         <v>0.52008928571428503</v>
       </c>
-      <c r="I106" s="32">
+      <c r="I106" s="25">
         <v>0.52797202797202802</v>
       </c>
-      <c r="J106" s="61">
+      <c r="J106" s="47">
         <v>0.715873015873015</v>
       </c>
-      <c r="K106" s="62">
-        <f t="shared" ref="K106:K111" si="70">(H106*$T$23+I106*$T$24+J106*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="K106" s="48">
+        <f t="shared" ref="K106:K111" si="58">(H106*$T$23+I106*$T$24+J106*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.56544068919814416</v>
       </c>
-      <c r="L106" s="55"/>
-      <c r="M106" s="60" t="s">
+      <c r="L106" s="41"/>
+      <c r="M106" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N106" s="61">
+      <c r="N106" s="47">
         <v>0.12202380952380899</v>
       </c>
-      <c r="O106" s="32">
+      <c r="O106" s="25">
         <v>0.18298368298368201</v>
       </c>
-      <c r="P106" s="61">
+      <c r="P106" s="47">
         <v>0.26031746031746</v>
       </c>
-      <c r="Q106" s="62">
-        <f t="shared" ref="Q106:Q111" si="71">(N106*$T$23+O106*$T$24+P106*$T$25)/(SUM($T$23:$T$25))</f>
+      <c r="Q106" s="48">
+        <f t="shared" ref="Q106:Q111" si="59">(N106*$T$23+O106*$T$24+P106*$T$25)/(SUM($T$23:$T$25))</f>
         <v>0.18555334658714306</v>
       </c>
     </row>
@@ -6568,48 +6081,48 @@
       <c r="B107" s="5">
         <v>0.72767857142857095</v>
       </c>
-      <c r="C107" s="70">
+      <c r="C107" s="54">
         <v>0.893356643356643</v>
       </c>
-      <c r="D107" s="70">
+      <c r="D107" s="54">
         <v>0.82857142857142796</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.84294234592445283</v>
       </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="60" t="s">
+      <c r="F107" s="23"/>
+      <c r="G107" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H107" s="61">
+      <c r="H107" s="47">
         <v>0.73065476190476097</v>
       </c>
-      <c r="I107" s="32">
+      <c r="I107" s="25">
         <v>0.84149184149184098</v>
       </c>
-      <c r="J107" s="61">
+      <c r="J107" s="47">
         <v>0.71746031746031702</v>
       </c>
-      <c r="K107" s="62">
-        <f t="shared" si="70"/>
+      <c r="K107" s="48">
+        <f t="shared" si="58"/>
         <v>0.79092113982769985</v>
       </c>
-      <c r="L107" s="55"/>
-      <c r="M107" s="60" t="s">
+      <c r="L107" s="41"/>
+      <c r="M107" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N107" s="61">
+      <c r="N107" s="47">
         <v>0.398809523809523</v>
       </c>
-      <c r="O107" s="32">
+      <c r="O107" s="25">
         <v>0.32226107226107198</v>
       </c>
-      <c r="P107" s="61">
+      <c r="P107" s="47">
         <v>0.157142857142857</v>
       </c>
-      <c r="Q107" s="62">
-        <f t="shared" si="71"/>
+      <c r="Q107" s="48">
+        <f t="shared" si="59"/>
         <v>0.30483764082173587</v>
       </c>
     </row>
@@ -6620,41 +6133,41 @@
       <c r="B108" s="5">
         <v>0.74255952380952295</v>
       </c>
-      <c r="C108" s="70" t="s">
+      <c r="C108" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="70"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="7">
         <f>B108</f>
         <v>0.74255952380952295</v>
       </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="60" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="61">
+      <c r="H108" s="47">
         <v>0.75148809523809501</v>
       </c>
-      <c r="I108" s="32" t="s">
+      <c r="I108" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J108" s="61"/>
-      <c r="K108" s="62">
+      <c r="J108" s="47"/>
+      <c r="K108" s="48">
         <f>H108</f>
         <v>0.75148809523809501</v>
       </c>
-      <c r="L108" s="55"/>
-      <c r="M108" s="60" t="s">
+      <c r="L108" s="41"/>
+      <c r="M108" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N108" s="61">
+      <c r="N108" s="47">
         <v>0.29910714285714202</v>
       </c>
-      <c r="O108" s="32" t="s">
+      <c r="O108" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P108" s="61"/>
-      <c r="Q108" s="62">
+      <c r="P108" s="47"/>
+      <c r="Q108" s="48">
         <f>N108</f>
         <v>0.29910714285714202</v>
       </c>
@@ -6664,43 +6177,43 @@
         <v>24</v>
       </c>
       <c r="B109" s="5"/>
-      <c r="C109" s="70">
+      <c r="C109" s="54">
         <v>0.52913752913752898</v>
       </c>
-      <c r="D109" s="70">
+      <c r="D109" s="54">
         <v>0.82142857142857095</v>
       </c>
       <c r="E109" s="7">
         <f>(C109*$T$24+D109*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.60763000852514892</v>
       </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="60" t="s">
+      <c r="F109" s="23"/>
+      <c r="G109" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H109" s="61"/>
-      <c r="I109" s="32">
+      <c r="H109" s="47"/>
+      <c r="I109" s="25">
         <v>0.64568764568764503</v>
       </c>
-      <c r="J109" s="61">
+      <c r="J109" s="47">
         <v>0.77857142857142803</v>
       </c>
-      <c r="K109" s="62">
+      <c r="K109" s="48">
         <f>(I109*$T$24+J109*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.6813725490196072</v>
       </c>
-      <c r="L109" s="55"/>
-      <c r="M109" s="60" t="s">
+      <c r="L109" s="41"/>
+      <c r="M109" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N109" s="61"/>
-      <c r="O109" s="32">
+      <c r="N109" s="47"/>
+      <c r="O109" s="25">
         <v>0.29487179487179399</v>
       </c>
-      <c r="P109" s="61">
+      <c r="P109" s="47">
         <v>0.21190476190476101</v>
       </c>
-      <c r="Q109" s="62">
+      <c r="Q109" s="48">
         <f>(O109*$T$24+P109*$T$25)/(SUM($T$24:$T$25))</f>
         <v>0.27259164535379282</v>
       </c>
@@ -6710,43 +6223,43 @@
         <v>25</v>
       </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="70" t="s">
+      <c r="C110" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="70">
+      <c r="D110" s="54">
         <v>0.66666666666666596</v>
       </c>
       <c r="E110" s="7">
         <f>D110</f>
         <v>0.66666666666666596</v>
       </c>
-      <c r="F110" s="27"/>
-      <c r="G110" s="60" t="s">
+      <c r="F110" s="23"/>
+      <c r="G110" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H110" s="61"/>
-      <c r="I110" s="32" t="s">
+      <c r="H110" s="47"/>
+      <c r="I110" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J110" s="61">
+      <c r="J110" s="47">
         <v>0.54285714285714204</v>
       </c>
-      <c r="K110" s="62">
+      <c r="K110" s="48">
         <f>J110</f>
         <v>0.54285714285714204</v>
       </c>
-      <c r="L110" s="55"/>
-      <c r="M110" s="60" t="s">
+      <c r="L110" s="41"/>
+      <c r="M110" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="N110" s="61"/>
-      <c r="O110" s="32" t="s">
+      <c r="N110" s="47"/>
+      <c r="O110" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P110" s="61">
+      <c r="P110" s="47">
         <v>0.15952380952380901</v>
       </c>
-      <c r="Q110" s="62">
+      <c r="Q110" s="48">
         <f>P110</f>
         <v>0.15952380952380901</v>
       </c>
@@ -6755,540 +6268,337 @@
       <c r="A111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="69">
+      <c r="B111" s="53">
         <v>0.62759526938239096</v>
       </c>
-      <c r="C111" s="70">
+      <c r="C111" s="54">
         <v>0.60865884629338496</v>
       </c>
-      <c r="D111" s="70">
+      <c r="D111" s="54">
         <v>0.72393878140340695</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.63693970627851615</v>
       </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="60" t="s">
+      <c r="F111" s="23"/>
+      <c r="G111" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H111" s="45">
+      <c r="H111" s="33">
         <v>0.62128777923784495</v>
       </c>
-      <c r="I111" s="32">
+      <c r="I111" s="25">
         <v>0.59027693796105896</v>
       </c>
-      <c r="J111" s="61">
+      <c r="J111" s="47">
         <v>0.62402541149292501</v>
       </c>
-      <c r="K111" s="63">
-        <f t="shared" si="70"/>
+      <c r="K111" s="49">
+        <f t="shared" si="58"/>
         <v>0.60422684639812851</v>
       </c>
-      <c r="L111" s="55"/>
-      <c r="M111" s="60" t="s">
+      <c r="L111" s="41"/>
+      <c r="M111" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N111" s="45">
+      <c r="N111" s="33">
         <v>0.24415243101182599</v>
       </c>
-      <c r="O111" s="32">
+      <c r="O111" s="25">
         <v>0.25541177893336497</v>
       </c>
-      <c r="P111" s="61">
+      <c r="P111" s="47">
         <v>0.153335258446433</v>
       </c>
-      <c r="Q111" s="63">
-        <f t="shared" si="71"/>
+      <c r="Q111" s="49">
+        <f t="shared" si="59"/>
         <v>0.23159650732632675</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="26"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="61"/>
+      <c r="F112" s="22"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="47"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="26"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
+      <c r="A113" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="22"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="67" t="s">
+      <c r="A114" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>50</v>
+      <c r="B114" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F114" s="26"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B115" s="5">
-        <v>6.7145039910734894E-2</v>
+        <v>6.7498545746637495E-2</v>
       </c>
       <c r="C115" s="5">
-        <v>6.5299526855769396E-2</v>
-      </c>
-      <c r="D115" s="5"/>
+        <v>6.1783753731686403E-2</v>
+      </c>
+      <c r="D115" s="5">
+        <v>8.3267323310836902E-2</v>
+      </c>
       <c r="E115" s="5">
         <f>(B115*$T$23+C115*$T$24+D115*$T$25)/(SUM($T$23:$T$25))</f>
-        <v>5.2079342248016608E-2</v>
-      </c>
-      <c r="F115" s="26"/>
-      <c r="P115" s="39"/>
-      <c r="Q115" s="61"/>
+        <v>6.7540874032850071E-2</v>
+      </c>
+      <c r="F115" s="22"/>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="47"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B116" s="5">
-        <v>7.0808092489243593E-2</v>
+        <v>7.1561042863471994E-2</v>
       </c>
       <c r="C116" s="5">
-        <v>6.9746219733671094E-2</v>
-      </c>
-      <c r="D116" s="5"/>
+        <v>7.1080731783707801E-2</v>
+      </c>
+      <c r="D116" s="54">
+        <v>3.9767214043622601E-2</v>
+      </c>
       <c r="E116" s="5">
-        <f t="shared" ref="E116:E122" si="72">(B116*$T$23+C116*$T$24+D116*$T$25)/(SUM($T$23:$T$25))</f>
-        <v>5.5423310541998436E-2</v>
-      </c>
-      <c r="F116" s="26"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
+        <f t="shared" ref="E116:E122" si="60">(B116*$T$23+C116*$T$24+D116*$T$25)/(SUM($T$23:$T$25))</f>
+        <v>6.4651060766261759E-2</v>
+      </c>
+      <c r="F116" s="22"/>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="30"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="5">
-        <v>5.0250077837406801E-2</v>
+        <v>4.8937110246117001E-2</v>
       </c>
       <c r="C117" s="5">
-        <v>3.2569749143335602E-2</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>3.1213367542552301E-2</v>
+      </c>
+      <c r="D117" s="5">
+        <v>4.2759319681116001E-2</v>
+      </c>
       <c r="E117" s="5">
-        <f t="shared" si="72"/>
-        <v>2.9707667937939452E-2</v>
-      </c>
-      <c r="F117" s="26"/>
+        <f t="shared" si="60"/>
+        <v>3.7569996085988551E-2</v>
+      </c>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B118" s="5">
-        <v>4.5259560993036699E-2</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>4.4256441817485399E-2</v>
+      </c>
+      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5">
         <f>B118</f>
-        <v>4.5259560993036699E-2</v>
-      </c>
-      <c r="F118" s="26"/>
+        <v>4.4256441817485399E-2</v>
+      </c>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="5">
-        <v>6.3592178698481605E-2</v>
-      </c>
-      <c r="D119" s="5"/>
+        <v>6.5389681043250894E-2</v>
+      </c>
+      <c r="D119" s="5">
+        <v>3.7374031517781202E-2</v>
+      </c>
       <c r="E119" s="5">
         <f>(C119*$T$24+D119*$T$25)/(SUM($T$24:$T$25))</f>
-        <v>4.6514995160526193E-2</v>
-      </c>
-      <c r="F119" s="26"/>
+        <v>5.7866296899582566E-2</v>
+      </c>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5">
+        <v>5.41267498957246E-2</v>
+      </c>
       <c r="E120" s="5">
         <f>D120</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="26"/>
+        <v>5.41267498957246E-2</v>
+      </c>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B121" s="5">
-        <v>6.1280755763226898E-2</v>
+        <v>6.1692213147077297E-2</v>
       </c>
       <c r="C121" s="5">
-        <v>6.1573624293252797E-2</v>
-      </c>
-      <c r="D121" s="5"/>
+        <v>6.1165217433362902E-2</v>
+      </c>
+      <c r="D121" s="5">
+        <v>5.0855587820524503E-2</v>
+      </c>
       <c r="E121" s="14">
-        <f t="shared" ref="E121:E122" si="73">(B121*$T$23+C121*$T$24+D121*$T$25)/(SUM($T$23:$T$25))</f>
-        <v>4.8655071954973581E-2</v>
-      </c>
-      <c r="F121" s="26"/>
+        <f t="shared" si="60"/>
+        <v>5.913045085401495E-2</v>
+      </c>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B122" s="69">
-        <v>6.0484366684660999E-2</v>
-      </c>
-      <c r="C122" s="69">
-        <v>5.6946924400872997E-2</v>
-      </c>
-      <c r="D122" s="69"/>
+      <c r="B122" s="53">
+        <v>6.0756817307044297E-2</v>
+      </c>
+      <c r="C122" s="53">
+        <v>0.62111500786068397</v>
+      </c>
+      <c r="D122" s="53">
+        <v>4.7058550152285002E-2</v>
+      </c>
       <c r="E122" s="5">
-        <f t="shared" si="73"/>
-        <v>4.5847056555331424E-2</v>
-      </c>
-      <c r="F122" s="26"/>
+        <f t="shared" si="60"/>
+        <v>0.37651054384201688</v>
+      </c>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="26"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="26"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="26"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" s="5">
-        <v>6.7498545746637495E-2</v>
-      </c>
-      <c r="C126" s="5">
-        <v>6.1783753731686403E-2</v>
-      </c>
-      <c r="D126" s="5">
-        <v>8.3267323310836902E-2</v>
-      </c>
-      <c r="E126" s="5">
-        <f>(B126*$T$23+C126*$T$24+D126*$T$25)/(SUM($T$23:$T$25))</f>
-        <v>6.7540874032850071E-2</v>
-      </c>
-      <c r="F126" s="26"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="5">
-        <v>7.1561042863471994E-2</v>
-      </c>
-      <c r="C127" s="5">
-        <v>7.1080731783707801E-2</v>
-      </c>
-      <c r="D127" s="70">
-        <v>3.9767214043622601E-2</v>
-      </c>
-      <c r="E127" s="5">
-        <f t="shared" ref="E127:E133" si="74">(B127*$T$23+C127*$T$24+D127*$T$25)/(SUM($T$23:$T$25))</f>
-        <v>6.4651060766261759E-2</v>
-      </c>
-      <c r="F127" s="26"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="5">
-        <v>4.8937110246117001E-2</v>
-      </c>
-      <c r="C128" s="5">
-        <v>3.1213367542552301E-2</v>
-      </c>
-      <c r="D128" s="5">
-        <v>4.2759319681116001E-2</v>
-      </c>
-      <c r="E128" s="5">
-        <f t="shared" si="74"/>
-        <v>3.7569996085988551E-2</v>
-      </c>
-      <c r="F128" s="26"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" s="5">
-        <v>4.4256441817485399E-2</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5">
-        <f>B129</f>
-        <v>4.4256441817485399E-2</v>
-      </c>
-      <c r="F129" s="26"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5">
-        <v>6.5389681043250894E-2</v>
-      </c>
-      <c r="D130" s="5">
-        <v>3.7374031517781202E-2</v>
-      </c>
-      <c r="E130" s="5">
-        <f>(C130*$T$24+D130*$T$25)/(SUM($T$24:$T$25))</f>
-        <v>5.7866296899582566E-2</v>
-      </c>
-      <c r="F130" s="26"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5">
-        <v>5.41267498957246E-2</v>
-      </c>
-      <c r="E131" s="5">
-        <f>D131</f>
-        <v>5.41267498957246E-2</v>
-      </c>
-      <c r="F131" s="26"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="5">
-        <v>6.1692213147077297E-2</v>
-      </c>
-      <c r="C132" s="5">
-        <v>6.1165217433362902E-2</v>
-      </c>
-      <c r="D132" s="5">
-        <v>5.0855587820524503E-2</v>
-      </c>
-      <c r="E132" s="14">
-        <f t="shared" si="74"/>
-        <v>5.913045085401495E-2</v>
-      </c>
-      <c r="F132" s="26"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" s="69">
-        <v>6.0756817307044297E-2</v>
-      </c>
-      <c r="C133" s="69">
-        <v>0.62111500786068397</v>
-      </c>
-      <c r="D133" s="69">
-        <v>4.7058550152285002E-2</v>
-      </c>
-      <c r="E133" s="5">
-        <f t="shared" si="74"/>
-        <v>0.37651054384201688</v>
-      </c>
-      <c r="F133" s="26"/>
+      <c r="F133" s="22"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="54"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="151">
-    <mergeCell ref="AJ46:AJ48"/>
-    <mergeCell ref="AJ49:AJ51"/>
-    <mergeCell ref="AJ52:AJ54"/>
-    <mergeCell ref="AJ55:AJ57"/>
-    <mergeCell ref="AJ58:AJ60"/>
-    <mergeCell ref="AI61:AI63"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AC55:AC57"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AB55:AB57"/>
-    <mergeCell ref="AI46:AI48"/>
-    <mergeCell ref="AI49:AI51"/>
-    <mergeCell ref="AI52:AI54"/>
-    <mergeCell ref="AI55:AI57"/>
-    <mergeCell ref="AI58:AI60"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AD52:AD54"/>
-    <mergeCell ref="AF52:AF54"/>
-    <mergeCell ref="AF55:AF57"/>
-    <mergeCell ref="AD46:AD48"/>
-    <mergeCell ref="AF46:AF48"/>
-    <mergeCell ref="AD49:AD51"/>
-    <mergeCell ref="AF49:AF51"/>
-    <mergeCell ref="T52:T54"/>
-    <mergeCell ref="V52:V54"/>
-    <mergeCell ref="X52:X54"/>
-    <mergeCell ref="X55:X57"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="AB52:AB54"/>
-    <mergeCell ref="T46:T48"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="X46:X48"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="V49:V51"/>
-    <mergeCell ref="X49:X51"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="M33:W33"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A61:Q62"/>
-    <mergeCell ref="A63:Q64"/>
-    <mergeCell ref="A90:Q91"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="P46:P48"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L18:L20"/>
+  <mergeCells count="115">
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Y33:AI33"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="N12:N14"/>
@@ -7313,35 +6623,68 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Y33:AI33"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="M33:W33"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A61:Q62"/>
+    <mergeCell ref="A63:Q64"/>
+    <mergeCell ref="A90:Q91"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="V52:V54"/>
+    <mergeCell ref="X52:X54"/>
+    <mergeCell ref="X55:X57"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="X46:X48"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="X49:X51"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="O53:O55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7365,28 +6708,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="L1" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -7719,28 +7062,28 @@
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="L10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
